--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -1511,6 +1511,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -784,7 +784,7 @@
         <v>0.04581412007394014</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.001166316771635145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>-5.343377661992665E-05</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1511,7 +1511,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07950304755728255</v>
+        <v>0.08035826113349405</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01274296314218892</v>
+        <v>-0.006450585330891045</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.06811111904984365</v>
+        <v>0.06881710501575948</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01235041097057188</v>
+        <v>-0.002818560430776884</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04581412007394014</v>
+        <v>0.04522298680762587</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009797060881735487</v>
+        <v>-0.002358490566037763</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04704737163832845</v>
+        <v>0.047110223716653</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003303392954492557</v>
+        <v>0.01418887012995418</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04506803188439252</v>
+        <v>0.04444118375739025</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01197142305464394</v>
+        <v>0.01029248908865887</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04090340333463408</v>
+        <v>0.04108465688277708</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006404801361579837</v>
+        <v>-0.007476635514018448</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03918558375026946</v>
+        <v>0.03934034167734009</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005921954868470358</v>
+        <v>-0.003718163227365623</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03462981995565302</v>
+        <v>0.03455155039574684</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0002997826575733553</v>
+        <v>-0.008321463378064053</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03136471086830803</v>
+        <v>0.03175193058576262</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01433480656529262</v>
+        <v>-0.0008013858696956921</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03003894253640062</v>
+        <v>0.02959606791614976</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01280748119536479</v>
+        <v>0.005148270181219106</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03112135818278749</v>
+        <v>0.03096982279841915</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002913907284768258</v>
+        <v>0.00823591923485667</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02925499269941944</v>
+        <v>0.02978744281989092</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02020091324200912</v>
+        <v>0.01693640790604412</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02914125508918556</v>
+        <v>0.02913134382665091</v>
       </c>
       <c r="E14" s="1">
-        <v>0.001624056999161905</v>
+        <v>-0.009676238296982054</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02944048423825725</v>
+        <v>0.0294696020163845</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002955818294959389</v>
+        <v>-0.004032883511710939</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02701306410037978</v>
+        <v>0.02701494461250696</v>
       </c>
       <c r="E16" s="1">
-        <v>0.002034587995930703</v>
+        <v>-0.00682459108855038</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02551447566809015</v>
+        <v>0.02578807301622999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01270912615782271</v>
+        <v>-0.00726744186046524</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02337284990116278</v>
+        <v>0.02368904381723453</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01551967393008313</v>
+        <v>0.01543686322939175</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02161594732589902</v>
+        <v>0.02062704535737587</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.04387377461366793</v>
+        <v>0.03683075286609139</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02371406273186442</v>
+        <v>0.02387737134989702</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008864940031287905</v>
+        <v>-0.00930392832529281</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02304904121484592</v>
+        <v>0.02251626305760415</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02119556217916874</v>
+        <v>0.004398578920656426</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02123610950809781</v>
+        <v>0.02119446585222627</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>0.001976994967649137</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02025567604108844</v>
+        <v>0.02029122506450523</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003723300019596421</v>
+        <v>0.0003904724716907726</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0201051454589534</v>
+        <v>0.02010594490292142</v>
       </c>
       <c r="E24" s="1">
-        <v>0.002004677581022296</v>
+        <v>0.00533511170390133</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01803008291090116</v>
+        <v>0.01801301044608332</v>
       </c>
       <c r="E25" s="1">
-        <v>0.001016088060965314</v>
+        <v>-0.005075283369988193</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0199149212141864</v>
+        <v>0.01983610019390422</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.002000827928798077</v>
+        <v>0.001175250604908307</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0188583064485103</v>
+        <v>0.01892036518476059</v>
       </c>
       <c r="E27" s="1">
-        <v>0.005262092693786746</v>
+        <v>-0.005033219247030374</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01851480359881066</v>
+        <v>0.01804104626000719</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02367346938775516</v>
+        <v>0.003623188405797118</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01862060247651815</v>
+        <v>0.01872548580427894</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007608553063098489</v>
+        <v>0.006379377685197252</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01783970599820096</v>
+        <v>0.01801590544860807</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01186105619881372</v>
+        <v>-0.001116382919341241</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01757833849656284</v>
+        <v>0.01731592431183504</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0129927653919979</v>
+        <v>-0.009424083769633329</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01683316631461442</v>
+        <v>0.01688853051805004</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005260293850897879</v>
+        <v>-0.05232767953807294</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01624753212285983</v>
+        <v>0.01633512793016157</v>
       </c>
       <c r="E33" s="1">
-        <v>0.007366759377583909</v>
+        <v>-0.002910230579807327</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008055523495289584</v>
+        <v>0.008100674169903737</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007580782715815415</v>
+        <v>0.003761873412959638</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.007942549224721703</v>
+        <v>0.007984569331805991</v>
       </c>
       <c r="E35" s="1">
-        <v>0.007265737626141133</v>
+        <v>0.0007823979543157833</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007632785988259226</v>
+        <v>0.007597400836259572</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.00268021441715327</v>
+        <v>0.008663912398219065</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.006497547236985213</v>
+        <v>0.006536001489554983</v>
       </c>
       <c r="E37" s="1">
-        <v>0.007894736842105177</v>
+        <v>-0.006340917568071536</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007187148291248891</v>
+        <v>0.007285959512018375</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01574017035919884</v>
+        <v>0.01131373123091706</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.006833264022091661</v>
+        <v>0.006864812828944663</v>
       </c>
       <c r="E39" s="1">
-        <v>0.006590853236220662</v>
+        <v>0.001043192613308319</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.006913109351155178</v>
+        <v>0.006802189353277768</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01411156751026899</v>
+        <v>-0.008556772618327657</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>0.002018270076902029</v>
+        <v>-0.0001613582986160766</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08035826113349405</v>
+        <v>0.05993634525692097</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006450585330891045</v>
+        <v>-0.03390509778775241</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.06881710501575948</v>
+        <v>0.05151584648512007</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002818560430776884</v>
+        <v>-0.02666216672291599</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04522298680762587</v>
+        <v>0.2832836239165683</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002358490566037763</v>
+        <v>-0.01074053137365738</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.047110223716653</v>
+        <v>0.03586776055979572</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01418887012995418</v>
+        <v>-0.03435882553663749</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04444118375739025</v>
+        <v>0.03370567259271545</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01029248908865887</v>
+        <v>0.01650654458701384</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04108465688277708</v>
+        <v>0.03061192625658067</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.007476635514018448</v>
+        <v>-0.01058201058201069</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03934034167734009</v>
+        <v>0.02942324684943338</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003718163227365623</v>
+        <v>-0.001866019779809713</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03455155039574684</v>
+        <v>0.02572223540816531</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008321463378064053</v>
+        <v>-0.01716056849107961</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03175193058576262</v>
+        <v>0.02381728286326241</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0008013858696956921</v>
+        <v>-0.02923802480045334</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02959606791614976</v>
+        <v>0.02233234867700509</v>
       </c>
       <c r="E11" s="1">
-        <v>0.005148270181219106</v>
+        <v>-0.01516082769924199</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03096982279841915</v>
+        <v>0.02344073045676425</v>
       </c>
       <c r="E12" s="1">
-        <v>0.00823591923485667</v>
+        <v>0.02608695652173898</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02978744281989092</v>
+        <v>0.02274035670676782</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01693640790604412</v>
+        <v>-0.0189782049927818</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02913134382665091</v>
+        <v>0.02165748257787412</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.009676238296982054</v>
+        <v>-0.03084398436674773</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0294696020163845</v>
+        <v>0.02203380621620308</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004032883511710939</v>
+        <v>0.002180345740538936</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02701494461250696</v>
+        <v>0.0201418934569444</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.00682459108855038</v>
+        <v>0.02802544153557829</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02578807301622999</v>
+        <v>0.01921858512606556</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.00726744186046524</v>
+        <v>0.0111773738528016</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02368904381723453</v>
+        <v>0.0180580442037295</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01543686322939175</v>
+        <v>-0.03124049863180289</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02062704535737587</v>
+        <v>0.0160551788824103</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03683075286609139</v>
+        <v>-0.06932075633006085</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02387737134989702</v>
+        <v>0.01775812913391231</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.00930392832529281</v>
+        <v>-0.02834782608695652</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02251626305760415</v>
+        <v>0.01697745775652776</v>
       </c>
       <c r="E21" s="1">
-        <v>0.004398578920656426</v>
+        <v>-0.04311942058278595</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02119446585222627</v>
+        <v>0.01594228179091162</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001976994967649137</v>
+        <v>0.0100448430493274</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02029122506450523</v>
+        <v>0.01523870528654643</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0003904724716907726</v>
+        <v>-0.0130757220921156</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02010594490292142</v>
+        <v>0.0151741926628329</v>
       </c>
       <c r="E24" s="1">
-        <v>0.00533511170390133</v>
+        <v>-0.004643449419568735</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01801301044608332</v>
+        <v>0.01345385603047192</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.005075283369988193</v>
+        <v>0.004165958170379014</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01983610019390422</v>
+        <v>0.01490859281839525</v>
       </c>
       <c r="E26" s="1">
-        <v>0.001175250604908307</v>
+        <v>-0.01139345394282554</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01892036518476059</v>
+        <v>0.01413215365214084</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.005033219247030374</v>
+        <v>-0.01254552812626464</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01804104626000719</v>
+        <v>0.01359260392508986</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003623188405797118</v>
+        <v>-0.03619364991206131</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01872548580427894</v>
+        <v>0.01414702358313864</v>
       </c>
       <c r="E29" s="1">
-        <v>0.006379377685197252</v>
+        <v>-0.0003880983182406039</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01801590544860807</v>
+        <v>0.01350956107967138</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.001116382919341241</v>
+        <v>-0.0005588153115394512</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01731592431183504</v>
+        <v>0.01287667393958805</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.009424083769633329</v>
+        <v>0.007852612503775225</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01688853051805004</v>
+        <v>0.01201490424622318</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.05232767953807294</v>
+        <v>-0.01209063214013717</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01633512793016157</v>
+        <v>0.01222720110723794</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002910230579807327</v>
+        <v>-0.008157461457865667</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008100674169903737</v>
+        <v>0.006104106674597297</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003761873412959638</v>
+        <v>-0.04637871263937032</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.007984569331805991</v>
+        <v>0.005998758932682108</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0007823979543157833</v>
+        <v>-0.03746853786896509</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007597400836259572</v>
+        <v>0.005752833150795399</v>
       </c>
       <c r="E36" s="1">
-        <v>0.008663912398219065</v>
+        <v>-0.05193462440847818</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.006536001489554983</v>
+        <v>0.004875507221925143</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.006340917568071536</v>
+        <v>-0.01707957957957962</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007285959512018375</v>
+        <v>0.005531499947097361</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01131373123091706</v>
+        <v>-0.04019934241816414</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.006864812828944663</v>
+        <v>0.00515883659947555</v>
       </c>
       <c r="E39" s="1">
-        <v>0.001043192613308319</v>
+        <v>-0.02623001707279216</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.006802189353277768</v>
+        <v>0.005062753968412836</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.008556772618327657</v>
+        <v>0.007094281647499923</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.0001613582986160766</v>
+        <v>-0.01381405151287241</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05993634525692097</v>
+        <v>0.05862485793293022</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.03390509778775241</v>
+        <v>-0.004480212395254313</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05151584648512007</v>
+        <v>0.05076638047501068</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02666216672291599</v>
+        <v>-0.001603675450763009</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2832836239165683</v>
+        <v>0.2852690548217338</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01074053137365738</v>
+        <v>-0.03154305200341001</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03586776055979572</v>
+        <v>0.03506644928793332</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.03435882553663749</v>
+        <v>0.0155119402640036</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03370567259271545</v>
+        <v>0.0346884530248155</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01650654458701384</v>
+        <v>-0.0159213447510308</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03061192625658067</v>
+        <v>0.03066494684543358</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01058201058201069</v>
+        <v>-0.06235837940723277</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02942324684943338</v>
+        <v>0.02973385310907717</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001866019779809713</v>
+        <v>-0.002679628591013894</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02572223540816531</v>
+        <v>0.02559546571247316</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01716056849107961</v>
+        <v>0.01330666871779096</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02381728286326241</v>
+        <v>0.02340866931650076</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02923802480045334</v>
+        <v>0.002780333837949067</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02233234867700509</v>
+        <v>0.02226750045107091</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01516082769924199</v>
+        <v>-0.005928853754940788</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02344073045676425</v>
+        <v>0.0243515754360796</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02608695652173898</v>
+        <v>-0.01052901900359526</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02274035670676782</v>
+        <v>0.02258643479807658</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0189782049927818</v>
+        <v>0.04123896346278078</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02165748257787412</v>
+        <v>0.02125070903251254</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.03084398436674773</v>
+        <v>-0.02858310626702998</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02203380621620308</v>
+        <v>0.0223566723636324</v>
       </c>
       <c r="E15" s="1">
-        <v>0.002180345740538936</v>
+        <v>-0.005361305361305302</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0201418934569444</v>
+        <v>0.02096408502785059</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02802544153557829</v>
+        <v>0.009750034525617846</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01921858512606556</v>
+        <v>0.01967526137214033</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0111773738528016</v>
+        <v>0.02097753920045209</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0180580442037295</v>
+        <v>0.01771162637292898</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.03124049863180289</v>
+        <v>0.0005492349941151886</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0160551788824103</v>
+        <v>0.0151281886775759</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.06932075633006085</v>
+        <v>0.002618041521220027</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01775812913391231</v>
+        <v>0.01746947251686913</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.02834782608695652</v>
+        <v>-0.007338464292106606</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01697745775652776</v>
+        <v>0.0164475855604501</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.04311942058278595</v>
+        <v>-0.005632811124801962</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01594228179091162</v>
+        <v>0.01630282596213599</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0100448430493274</v>
+        <v>-0.001243118451429548</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01523870528654643</v>
+        <v>0.01522662520442951</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0130757220921156</v>
+        <v>0.004745896776745084</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0151741926628329</v>
+        <v>0.01529170911983153</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.004643449419568735</v>
+        <v>-0.008330556481172979</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01345385603047192</v>
+        <v>0.01367804492550439</v>
       </c>
       <c r="E25" s="1">
-        <v>0.004165958170379014</v>
+        <v>0.01811870290407258</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01490859281839525</v>
+        <v>0.01492216681725525</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01139345394282554</v>
+        <v>-0.03967311587623101</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01413215365214084</v>
+        <v>0.01412853679545793</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01254552812626464</v>
+        <v>0.003688524590163889</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01359260392508986</v>
+        <v>0.01326368505129006</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.03619364991206131</v>
+        <v>-0.007107184018440571</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01414702358313864</v>
+        <v>0.01431753492701684</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0003880983182406039</v>
+        <v>0.00310599197618755</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01350956107967138</v>
+        <v>0.01367005419567746</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.0005588153115394512</v>
+        <v>-0.0067095331283199</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01287667393958805</v>
+        <v>0.01313930760441857</v>
       </c>
       <c r="E31" s="1">
-        <v>0.007852612503775225</v>
+        <v>-0.007192088702427157</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01201490424622318</v>
+        <v>0.01201736281364483</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01209063214013717</v>
+        <v>-0.003372843789149038</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01222720110723794</v>
+        <v>0.01227839332132485</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.008157461457865667</v>
+        <v>0.01486455896778094</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006104106674597297</v>
+        <v>0.005893452766564377</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.04637871263937032</v>
+        <v>0.009687561406956258</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005998758932682108</v>
+        <v>0.005845855810638696</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.03746853786896509</v>
+        <v>0.01463975118366045</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005752833150795399</v>
+        <v>0.005521941733451025</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.05193462440847818</v>
+        <v>0.0120380856507698</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.004875507221925143</v>
+        <v>0.004851878504774635</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01707957957957962</v>
+        <v>0.01298453312965431</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.005531499947097361</v>
+        <v>0.005375213404599835</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.04019934241816414</v>
+        <v>0.0222126467736723</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.00515883659947555</v>
+        <v>0.005086041631007552</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.02623001707279216</v>
+        <v>0.005282572066123148</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.005062753968412836</v>
+        <v>0.005162127275881453</v>
       </c>
       <c r="E40" s="1">
-        <v>0.007094281647499923</v>
+        <v>-0.001660123387549062</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.01381405151287241</v>
+        <v>-0.0107271494657909</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -31,266 +31,266 @@
     <t>Percent Change</t>
   </si>
   <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
     <t>AAPL</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>BRKB</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
     <t>MSFT</t>
   </si>
   <si>
-    <t>BRKB</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>JPM</t>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>TMO</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>VZ</t>
   </si>
   <si>
     <t>V</t>
   </si>
   <si>
-    <t>JNJ</t>
-  </si>
-  <si>
     <t>WMT</t>
   </si>
   <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
     <t>DIS</t>
   </si>
   <si>
-    <t>BAC</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>CMCSA</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>ABBV</t>
-  </si>
-  <si>
-    <t>PEP</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>TMO</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
+    <t>Abbott Laboratories</t>
+  </si>
+  <si>
+    <t>Abbvie Inc</t>
+  </si>
+  <si>
+    <t>Adobe Inc</t>
+  </si>
+  <si>
+    <t>Alphabet Inc</t>
+  </si>
+  <si>
+    <t>Amazon.com Inc</t>
+  </si>
+  <si>
     <t>Apple Inc</t>
   </si>
   <si>
+    <t>AT&amp;T Inc</t>
+  </si>
+  <si>
+    <t>Bank of America Corp</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway Inc</t>
+  </si>
+  <si>
+    <t>Broadcom Inc</t>
+  </si>
+  <si>
+    <t>Chevron Corp</t>
+  </si>
+  <si>
+    <t>Cisco Systems Inc</t>
+  </si>
+  <si>
+    <t>Coca-Cola Co</t>
+  </si>
+  <si>
+    <t>Comcast Corp</t>
+  </si>
+  <si>
+    <t>Exxon Mobil Corp</t>
+  </si>
+  <si>
+    <t>Facebook Inc</t>
+  </si>
+  <si>
+    <t>Home Depot Inc</t>
+  </si>
+  <si>
+    <t>Intel Corp</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co</t>
+  </si>
+  <si>
+    <t>Mastercard Inc</t>
+  </si>
+  <si>
+    <t>Merck &amp; Co Inc</t>
+  </si>
+  <si>
     <t>Microsoft Corp</t>
   </si>
   <si>
-    <t>Berkshire Hathaway Inc</t>
-  </si>
-  <si>
-    <t>Amazon.com Inc</t>
-  </si>
-  <si>
-    <t>JPMorgan Chase &amp; Co</t>
+    <t>Netflix Inc</t>
+  </si>
+  <si>
+    <t>Nike Inc</t>
+  </si>
+  <si>
+    <t>NVIDIA Corp</t>
+  </si>
+  <si>
+    <t>Oracle Corp</t>
+  </si>
+  <si>
+    <t>PayPal Holdings Inc</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc</t>
+  </si>
+  <si>
+    <t>Pfizer Inc</t>
+  </si>
+  <si>
+    <t>Procter &amp; Gamble Co</t>
+  </si>
+  <si>
+    <t>Salesforce.Com Inc</t>
+  </si>
+  <si>
+    <t>Tesla Inc</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific Inc</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group Inc</t>
+  </si>
+  <si>
+    <t>Verizon Communications Inc</t>
   </si>
   <si>
     <t>Visa Inc</t>
   </si>
   <si>
-    <t>Johnson &amp; Johnson</t>
-  </si>
-  <si>
     <t>Walmart Inc</t>
   </si>
   <si>
-    <t>Alphabet Inc</t>
-  </si>
-  <si>
     <t>Walt Disney Co</t>
   </si>
   <si>
-    <t>Bank of America Corp</t>
-  </si>
-  <si>
-    <t>Facebook Inc</t>
-  </si>
-  <si>
-    <t>Mastercard Inc</t>
-  </si>
-  <si>
-    <t>Procter &amp; Gamble Co</t>
-  </si>
-  <si>
-    <t>UnitedHealth Group Inc</t>
-  </si>
-  <si>
-    <t>Home Depot Inc</t>
-  </si>
-  <si>
-    <t>Intel Corp</t>
-  </si>
-  <si>
-    <t>Tesla Inc</t>
-  </si>
-  <si>
-    <t>Comcast Corp</t>
-  </si>
-  <si>
-    <t>Exxon Mobil Corp</t>
-  </si>
-  <si>
-    <t>Verizon Communications Inc</t>
-  </si>
-  <si>
-    <t>Coca-Cola Co</t>
-  </si>
-  <si>
-    <t>AT&amp;T Inc</t>
-  </si>
-  <si>
-    <t>Abbott Laboratories</t>
-  </si>
-  <si>
-    <t>Nike Inc</t>
-  </si>
-  <si>
-    <t>Cisco Systems Inc</t>
-  </si>
-  <si>
-    <t>Chevron Corp</t>
-  </si>
-  <si>
-    <t>Merck &amp; Co Inc</t>
-  </si>
-  <si>
-    <t>Pfizer Inc</t>
-  </si>
-  <si>
-    <t>Oracle Corp</t>
-  </si>
-  <si>
-    <t>Abbvie Inc</t>
-  </si>
-  <si>
-    <t>PepsiCo Inc</t>
-  </si>
-  <si>
-    <t>NVIDIA Corp</t>
-  </si>
-  <si>
-    <t>Netflix Inc</t>
-  </si>
-  <si>
-    <t>PayPal Holdings Inc</t>
-  </si>
-  <si>
-    <t>Salesforce.Com Inc</t>
-  </si>
-  <si>
-    <t>Broadcom Inc</t>
-  </si>
-  <si>
-    <t>Adobe Inc</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific Inc</t>
+    <t>Health Care</t>
   </si>
   <si>
     <t>Information Technology</t>
   </si>
   <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary</t>
+  </si>
+  <si>
     <t>Financials</t>
   </si>
   <si>
-    <t>Consumer Discretionary</t>
-  </si>
-  <si>
-    <t>Health Care</t>
+    <t>Energy</t>
   </si>
   <si>
     <t>Consumer Staples</t>
   </si>
   <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05862485793293022</v>
+        <v>0.0186631033322986</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004480212395254313</v>
+        <v>0.01811870290407258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05076638047501068</v>
+        <v>0.0163971740986591</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001603675450763009</v>
+        <v>-0.003372843789149038</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2852690548217338</v>
+        <v>0.006939684803555076</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.03154305200341001</v>
+        <v>0.005282572066123148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03506644928793332</v>
+        <v>0.03194012131886246</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0155119402640036</v>
+        <v>0.002780333837949067</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -812,13 +812,13 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0346884530248155</v>
+        <v>0.04784666011274815</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0159213447510308</v>
+        <v>0.0155119402640036</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -829,13 +829,13 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03066494684543358</v>
+        <v>0.07618199456919653</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.06235837940723277</v>
+        <v>-0.004480212395254424</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -846,13 +846,13 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02973385310907717</v>
+        <v>0.01991647506739125</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002679628591013894</v>
+        <v>-0.008330556481172979</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02559546571247316</v>
+        <v>0.0313807496670435</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01330666871779096</v>
+        <v>-0.01052901900359515</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -880,13 +880,13 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02340866931650076</v>
+        <v>0.05186007270725371</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002780333837949067</v>
+        <v>-0.00582270458686529</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -897,13 +897,13 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02226750045107091</v>
+        <v>0.007334247237055622</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.005928853754940788</v>
+        <v>0.0222126467736723</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -914,13 +914,13 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0243515754360796</v>
+        <v>0.01809772712602509</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01052901900359526</v>
+        <v>-0.007107184018440571</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -931,13 +931,13 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02258643479807658</v>
+        <v>0.01850666888729838</v>
       </c>
       <c r="E13" s="1">
-        <v>0.04123896346278078</v>
+        <v>0.003688524590164111</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -948,13 +948,13 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02125070903251254</v>
+        <v>0.01917791486948113</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02858310626702998</v>
+        <v>0.004745896776745084</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -965,13 +965,13 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0223566723636324</v>
+        <v>0.02207068798525787</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.005361305361305302</v>
+        <v>-0.007338464292106717</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -982,13 +982,13 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02096408502785059</v>
+        <v>0.02154434138293896</v>
       </c>
       <c r="E16" s="1">
-        <v>0.009750034525617846</v>
+        <v>-0.005632811124802073</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01967526137214033</v>
+        <v>0.03081821772340636</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02097753920045209</v>
+        <v>0.04123896346278078</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1016,13 +1016,13 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01771162637292898</v>
+        <v>0.02684604693712813</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0005492349941151886</v>
+        <v>0.02097753920045209</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1033,13 +1033,13 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0151281886775759</v>
+        <v>0.02315980355310029</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002618041521220027</v>
+        <v>0.0005492349941154107</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1050,13 +1050,13 @@
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01746947251686913</v>
+        <v>0.03803490210482546</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.007338464292106606</v>
+        <v>-0.002679628591014005</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1067,13 +1067,13 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0164475855604501</v>
+        <v>0.0448398004623349</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.005632811124801962</v>
+        <v>-0.01592134475103102</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1084,13 +1084,13 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01630282596213599</v>
+        <v>0.02899567743185838</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.001243118451429548</v>
+        <v>-0.02858310626702998</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1101,13 +1101,13 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01522662520442951</v>
+        <v>0.01831468115934357</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004745896776745084</v>
+        <v>0.00310599197618755</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1118,13 +1118,13 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01529170911983153</v>
+        <v>0.0656228275462728</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008330556481172979</v>
+        <v>-0.001603675450762787</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1135,13 +1135,13 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01367804492550439</v>
+        <v>0.007976418534511059</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01811870290407258</v>
+        <v>0.01463975118366045</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1152,10 +1152,10 @@
         <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01492216681725525</v>
+        <v>0.02036065408243732</v>
       </c>
       <c r="E26" s="1">
         <v>-0.03967311587623101</v>
@@ -1169,13 +1169,13 @@
         <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01412853679545793</v>
+        <v>0.008041362531374784</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003688524590163889</v>
+        <v>0.009687561406956258</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1186,13 +1186,13 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01326368505129006</v>
+        <v>0.01687343007565975</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.007107184018440571</v>
+        <v>-0.007192088702427157</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1203,13 +1203,13 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01431753492701684</v>
+        <v>0.007534451723737718</v>
       </c>
       <c r="E29" s="1">
-        <v>0.00310599197618755</v>
+        <v>0.0120380856507698</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1220,13 +1220,13 @@
         <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01367005419567746</v>
+        <v>0.01675333898656868</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.0067095331283199</v>
+        <v>0.01486455896778094</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01313930760441857</v>
+        <v>0.01808698213384326</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.007192088702427157</v>
+        <v>-0.0067095331283199</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1254,13 +1254,13 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01201736281364483</v>
+        <v>0.02847106899003947</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.003372843789149038</v>
+        <v>-0.005361305361305302</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1271,13 +1271,13 @@
         <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01227839332132485</v>
+        <v>0.006620179300736451</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01486455896778094</v>
+        <v>0.01298453312965431</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1288,13 +1288,13 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D34" s="1">
-        <v>0.005893452766564377</v>
+        <v>0.02064176203966498</v>
       </c>
       <c r="E34" s="1">
-        <v>0.009687561406956258</v>
+        <v>0.002618041521220027</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1305,13 +1305,13 @@
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005845855810638696</v>
+        <v>0.007043500389782492</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01463975118366045</v>
+        <v>-0.001660123387549062</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005521941733451025</v>
+        <v>0.02860459131935784</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0120380856507698</v>
+        <v>0.009750034525617846</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1339,13 +1339,13 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1">
-        <v>0.004851878504774635</v>
+        <v>0.02135472387384779</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01298453312965431</v>
+        <v>-0.001243118451429659</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1356,13 +1356,13 @@
         <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1">
-        <v>0.005375213404599835</v>
+        <v>0.04184099955605801</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0222126467736723</v>
+        <v>-0.06235837940723277</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1373,13 +1373,13 @@
         <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D39" s="1">
-        <v>0.005086041631007552</v>
+        <v>0.03492391083900297</v>
       </c>
       <c r="E39" s="1">
-        <v>0.005282572066123148</v>
+        <v>0.01330666871779096</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1390,13 +1390,13 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" s="1">
-        <v>0.005162127275881453</v>
+        <v>0.03038304554004212</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.001660123387549062</v>
+        <v>-0.005928853754940788</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1404,10 +1404,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.0107271494657909</v>
+        <v>-0.00253763532270801</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0186631033322986</v>
+        <v>0.01904959548322606</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01811870290407258</v>
+        <v>0.01014553014553021</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0163971740986591</v>
+        <v>0.01638344419854669</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003372843789149038</v>
+        <v>0.02397988783600846</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.006939684803555076</v>
+        <v>0.006994092645192768</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005282572066123148</v>
+        <v>0.02471121177802948</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03194012131886246</v>
+        <v>0.03211041002967142</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002780333837949067</v>
+        <v>0.001840194182420873</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>87</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04784666011274815</v>
+        <v>0.04871246912856615</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0155119402640036</v>
+        <v>0.01167820069204151</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>85</v>
       </c>
       <c r="D7" s="1">
-        <v>0.07618199456919653</v>
+        <v>0.07603362867467091</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004480212395254424</v>
+        <v>0.02833569464122032</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>86</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01991647506739125</v>
+        <v>0.01980080697413215</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008330556481172979</v>
+        <v>0.007728494623655768</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0313807496670435</v>
+        <v>0.03112933606021098</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01052901900359515</v>
+        <v>-0.02257980794186354</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>88</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05186007270725371</v>
+        <v>0.05168927535497198</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.00582270458686529</v>
+        <v>-0.002510060161759364</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.007334247237055622</v>
+        <v>0.007516233740516786</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0222126467736723</v>
+        <v>0.00172828057159724</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>89</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01809772712602509</v>
+        <v>0.01801481828824533</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.007107184018440571</v>
+        <v>-0.008125362739407782</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01850666888729838</v>
+        <v>0.01862218751138619</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003688524590164111</v>
+        <v>0.02694977541853794</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>90</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01917791486948113</v>
+        <v>0.019317953194233</v>
       </c>
       <c r="E14" s="1">
-        <v>0.004745896776745084</v>
+        <v>0.003739421373745389</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>86</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02207068798525787</v>
+        <v>0.02196446082119994</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.007338464292106717</v>
+        <v>0.01640822214208448</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>89</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02154434138293896</v>
+        <v>0.02147748820984496</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.005632811124802073</v>
+        <v>-0.01026730394760145</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03081821772340636</v>
+        <v>0.03217076675215882</v>
       </c>
       <c r="E17" s="1">
-        <v>0.04123896346278078</v>
+        <v>0.0118231015821586</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>87</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02684604693712813</v>
+        <v>0.02747894247418206</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02097753920045209</v>
+        <v>-0.0005534417156695115</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02315980355310029</v>
+        <v>0.02323147674365185</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0005492349941154107</v>
+        <v>0.02932873274780401</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>84</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03803490210482546</v>
+        <v>0.03802948766489187</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.002679628591014005</v>
+        <v>0.002874281429642522</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0448398004623349</v>
+        <v>0.04423815083477623</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01592134475103102</v>
+        <v>-0.02687894804692514</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>85</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02899567743185838</v>
+        <v>0.02823855004459427</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.02858310626702998</v>
+        <v>0.00530139407029262</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01831468115934357</v>
+        <v>0.01841830535432248</v>
       </c>
       <c r="E23" s="1">
-        <v>0.00310599197618755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0656228275462728</v>
+        <v>0.06568427255891909</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.001603675450762787</v>
+        <v>0.02448448013891902</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>86</v>
       </c>
       <c r="D25" s="1">
-        <v>0.007976418534511059</v>
+        <v>0.008113781134801431</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01463975118366045</v>
+        <v>0.02134015385216137</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>87</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02036065408243732</v>
+        <v>0.01960262781446882</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.03967311587623101</v>
+        <v>0.005673139864717403</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>85</v>
       </c>
       <c r="D27" s="1">
-        <v>0.008041362531374784</v>
+        <v>0.008139919872886524</v>
       </c>
       <c r="E27" s="1">
-        <v>0.009687561406956258</v>
+        <v>0.02650682132222726</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>85</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01687343007565975</v>
+        <v>0.01679469367775213</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.007192088702427157</v>
+        <v>0.0009055236945365586</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.007534451723737718</v>
+        <v>0.007644551182025419</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0120380856507698</v>
+        <v>0.0128688660477454</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>90</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01675333898656868</v>
+        <v>0.01704562556336901</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01486455896778094</v>
+        <v>0.02453531598513026</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01808698213384326</v>
+        <v>0.01801133312316732</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0067095331283199</v>
+        <v>0.01322825781030113</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>90</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02847106899003947</v>
+        <v>0.02839047155867671</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.005361305361305302</v>
+        <v>0.01695180064057511</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>85</v>
       </c>
       <c r="D33" s="1">
-        <v>0.006620179300736451</v>
+        <v>0.006723200268674543</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01298453312965431</v>
+        <v>0.01399622997172489</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>87</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02064176203966498</v>
+        <v>0.02074845504216257</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002618041521220027</v>
+        <v>0.02310382213263695</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>84</v>
       </c>
       <c r="D35" s="1">
-        <v>0.007043500389782492</v>
+        <v>0.007049696869846509</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.001660123387549062</v>
+        <v>0.02168490595716954</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02860459131935784</v>
+        <v>0.02895696930044816</v>
       </c>
       <c r="E36" s="1">
-        <v>0.009750034525617846</v>
+        <v>0.003501285628316753</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="D37" s="1">
-        <v>0.02135472387384779</v>
+        <v>0.02138243825317189</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.001243118451429659</v>
+        <v>0.006223328591749677</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>85</v>
       </c>
       <c r="D38" s="1">
-        <v>0.04184099955605801</v>
+        <v>0.03933167207131281</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.06235837940723277</v>
+        <v>0.00531657805703234</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>90</v>
       </c>
       <c r="D39" s="1">
-        <v>0.03492391083900297</v>
+        <v>0.03547866366097581</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01330666871779096</v>
+        <v>0.004782146652497321</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>86</v>
       </c>
       <c r="D40" s="1">
-        <v>0.03038304554004212</v>
+        <v>0.03027974786414826</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.005928853754940788</v>
+        <v>0.008998639740504411</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.00253763532270801</v>
+        <v>0.008530575194813039</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01904959548322606</v>
+        <v>0.01908009950491013</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01014553014553021</v>
+        <v>-0.008067835679591795</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01638344419854669</v>
+        <v>0.0166344162144561</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02397988783600846</v>
+        <v>-0.01000944287063255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.006994092645192768</v>
+        <v>0.007106304286668637</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02471121177802948</v>
+        <v>0.0172188943657301</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03211041002967142</v>
+        <v>0.03189739628190167</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001840194182420873</v>
+        <v>0.005239598363117937</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>87</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04871246912856615</v>
+        <v>0.0488645008206469</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01167820069204151</v>
+        <v>0.00856030628087967</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>85</v>
       </c>
       <c r="D7" s="1">
-        <v>0.07603362867467091</v>
+        <v>0.07752674661762941</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02833569464122032</v>
+        <v>-0.006888726801199452</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>86</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01980080697413215</v>
+        <v>0.01978505946685988</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007728494623655768</v>
+        <v>0.0003334444814939719</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03112933606021098</v>
+        <v>0.03016908200798608</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02257980794186354</v>
+        <v>-0.02018056293149229</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>88</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05168927535497198</v>
+        <v>0.05112341998570916</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.002510060161759364</v>
+        <v>-0.008188208979070133</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.007516233740516786</v>
+        <v>0.007465538563179128</v>
       </c>
       <c r="E11" s="1">
-        <v>0.00172828057159724</v>
+        <v>-0.02360713684564886</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>89</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01801481828824533</v>
+        <v>0.01771730257311957</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.008125362739407782</v>
+        <v>-0.005558806319485021</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01862218751138619</v>
+        <v>0.01896229202463778</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02694977541853794</v>
+        <v>-0.005765407554671809</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>90</v>
       </c>
       <c r="D14" s="1">
-        <v>0.019317953194233</v>
+        <v>0.01922618078044785</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003739421373745389</v>
+        <v>0.007647058823529562</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>86</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02196446082119994</v>
+        <v>0.02213602554317494</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01640822214208448</v>
+        <v>-0.0040801844952989</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>89</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02147748820984496</v>
+        <v>0.02107717191048704</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01026730394760145</v>
+        <v>-0.01234126274369518</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03217076675215882</v>
+        <v>0.03227579390853647</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0118231015821586</v>
+        <v>-0.009913470055188611</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>87</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02747894247418206</v>
+        <v>0.02723143467991471</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0005534417156695115</v>
+        <v>0.003599363189589644</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02323147674365185</v>
+        <v>0.02371056178617502</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02932873274780401</v>
+        <v>-0.03275940880694794</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>84</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03802948766489187</v>
+        <v>0.037816201167425</v>
       </c>
       <c r="E20" s="1">
-        <v>0.002874281429642522</v>
+        <v>-0.0009345794392523477</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04423815083477623</v>
+        <v>0.04268494871212076</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02687894804692514</v>
+        <v>-0.01000198714976475</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>85</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02823855004459427</v>
+        <v>0.02814813395307398</v>
       </c>
       <c r="E22" s="1">
-        <v>0.00530139407029262</v>
+        <v>-0.008733258928571463</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01841830535432248</v>
+        <v>0.01826251559182001</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>-0.0159979357502259</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.06568427255891909</v>
+        <v>0.06672332944673363</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02448448013891902</v>
+        <v>0.006737573626001359</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>86</v>
       </c>
       <c r="D25" s="1">
-        <v>0.008113781134801431</v>
+        <v>0.008216836134036008</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02134015385216137</v>
+        <v>0.02290149299382538</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>87</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01960262781446882</v>
+        <v>0.01954708835670974</v>
       </c>
       <c r="E26" s="1">
-        <v>0.005673139864717403</v>
+        <v>-0.008317060823027522</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>85</v>
       </c>
       <c r="D27" s="1">
-        <v>0.008139919872886524</v>
+        <v>0.008285007395953611</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02650682132222726</v>
+        <v>-0.008759124087591275</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>85</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01679469367775213</v>
+        <v>0.01666771646221309</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0009055236945365586</v>
+        <v>0.01432448733413749</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.007644551182025419</v>
+        <v>0.007677434951028999</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0128688660477454</v>
+        <v>-0.002516521063076649</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>90</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01704562556336901</v>
+        <v>0.01731612883363211</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02453531598513026</v>
+        <v>0.01204644412191569</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01801133312316732</v>
+        <v>0.01809522896983327</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01322825781030113</v>
+        <v>-0.01777777777777778</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>90</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02839047155867671</v>
+        <v>0.02862753185946227</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01695180064057511</v>
+        <v>0.01858964510677508</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>85</v>
       </c>
       <c r="D33" s="1">
-        <v>0.006723200268674543</v>
+        <v>0.006759636141387195</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01399622997172489</v>
+        <v>-0.0007900729655621053</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>87</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02074845504216257</v>
+        <v>0.02104826980866023</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02310382213263695</v>
+        <v>-0.01170149253731345</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>84</v>
       </c>
       <c r="D35" s="1">
-        <v>0.007049696869846509</v>
+        <v>0.007141646530750343</v>
       </c>
       <c r="E35" s="1">
-        <v>0.02168490595716954</v>
+        <v>-0.005828531210135157</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02895696930044816</v>
+        <v>0.02881256814181004</v>
       </c>
       <c r="E36" s="1">
-        <v>0.003501285628316753</v>
+        <v>0.004470370168456528</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="D37" s="1">
-        <v>0.02138243825317189</v>
+        <v>0.02133352098755968</v>
       </c>
       <c r="E37" s="1">
-        <v>0.006223328591749677</v>
+        <v>0.005654709312599371</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>85</v>
       </c>
       <c r="D38" s="1">
-        <v>0.03933167207131281</v>
+        <v>0.03920632943463875</v>
       </c>
       <c r="E38" s="1">
-        <v>0.00531657805703234</v>
+        <v>0.0007211538461540101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>90</v>
       </c>
       <c r="D39" s="1">
-        <v>0.03547866366097581</v>
+        <v>0.03534679930427614</v>
       </c>
       <c r="E39" s="1">
-        <v>0.004782146652497321</v>
+        <v>0.01186069351061425</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>86</v>
       </c>
       <c r="D40" s="1">
-        <v>0.03027974786414826</v>
+        <v>0.03029380086043441</v>
       </c>
       <c r="E40" s="1">
-        <v>0.008998639740504411</v>
+        <v>-0.02141449756299918</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1404,10 +1404,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E41" s="1">
-        <v>0.008530575194813039</v>
+        <v>-0.002957910214678283</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01908009950491013</v>
+        <v>0.01898231237302063</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008067835679591795</v>
+        <v>-0.02049962652502269</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0166344162144561</v>
+        <v>0.0165167700986595</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01000944287063255</v>
+        <v>-0.01697825257535313</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.007106304286668637</v>
+        <v>0.007250112170357784</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0172188943657301</v>
+        <v>-0.01888309430682311</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03189739628190167</v>
+        <v>0.03215965118799751</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005239598363117937</v>
+        <v>-0.004310914942708854</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>87</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0488645008206469</v>
+        <v>0.04942900246522718</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00856030628087967</v>
+        <v>-0.0160733067729083</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>85</v>
       </c>
       <c r="D7" s="1">
-        <v>0.07752674661762941</v>
+        <v>0.07722109911826536</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006888726801199452</v>
+        <v>-0.01999347151950381</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>86</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01978505946685988</v>
+        <v>0.01985037230476056</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0003334444814939719</v>
+        <v>-0.0003333333333334076</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03016908200798608</v>
+        <v>0.02964794892089594</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02018056293149229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>88</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05112341998570916</v>
+        <v>0.05085523596106049</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.008188208979070133</v>
+        <v>0.005315935725504373</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.007465538563179128</v>
+        <v>0.007310923628370781</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02360713684564886</v>
+        <v>-0.01463172865577733</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>89</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01771730257311957</v>
+        <v>0.01767108500244506</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.005558806319485021</v>
+        <v>0.02677258017063844</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01896229202463778</v>
+        <v>0.01890889750402049</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.005765407554671809</v>
+        <v>-0.007198560287942524</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>90</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01922618078044785</v>
+        <v>0.01943067871888848</v>
       </c>
       <c r="E14" s="1">
-        <v>0.007647058823529562</v>
+        <v>0.002529675034053325</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>86</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02213602554317494</v>
+        <v>0.02211110915058051</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0040801844952989</v>
+        <v>-0.003918774492340571</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>89</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02107717191048704</v>
+        <v>0.02087881064131196</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01234126274369518</v>
+        <v>0.02028250633828321</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03227579390853647</v>
+        <v>0.03205063168295866</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.009913470055188611</v>
+        <v>-0.02921240064687047</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>87</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02723143467991471</v>
+        <v>0.02741052838540222</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003599363189589644</v>
+        <v>0.009552382922960234</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02371056178617502</v>
+        <v>0.0230018552220973</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.03275940880694794</v>
+        <v>-0.02268431001890348</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>84</v>
       </c>
       <c r="D20" s="1">
-        <v>0.037816201167425</v>
+        <v>0.03789294284605185</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0009345794392523477</v>
+        <v>0.00972871842843781</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04268494871212076</v>
+        <v>0.0423833806381359</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01000198714976475</v>
+        <v>0.007761273919443257</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>85</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02814813395307398</v>
+        <v>0.0279850863837789</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.008733258928571463</v>
+        <v>0.01232865144819439</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01826251559182001</v>
+        <v>0.01802366542481057</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0159979357502259</v>
+        <v>-0.0003933394519470834</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.06672332944673363</v>
+        <v>0.06737216360235734</v>
       </c>
       <c r="E24" s="1">
-        <v>0.006737573626001359</v>
+        <v>-0.008923310042933119</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>86</v>
       </c>
       <c r="D25" s="1">
-        <v>0.008216836134036008</v>
+        <v>0.008429948981392323</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02290149299382538</v>
+        <v>-0.02668709936646185</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>87</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01954708835670974</v>
+        <v>0.01944202178877691</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.008317060823027522</v>
+        <v>-0.02887981330221689</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>85</v>
       </c>
       <c r="D27" s="1">
-        <v>0.008285007395953611</v>
+        <v>0.008236801708014257</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.008759124087591275</v>
+        <v>-0.03272574259319472</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>85</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01666771646221309</v>
+        <v>0.01695662914211102</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01432448733413749</v>
+        <v>-0.006540805708339481</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>85</v>
       </c>
       <c r="D29" s="1">
-        <v>0.007677434951028999</v>
+        <v>0.007680833740843621</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002516521063076649</v>
+        <v>-0.03897116134060796</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>90</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01731612883363211</v>
+        <v>0.01757671696267878</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01204644412191569</v>
+        <v>-0.00466083464792777</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01809522896983327</v>
+        <v>0.01782626450022434</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01777777777777778</v>
+        <v>0.00707013574660631</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>90</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02862753185946227</v>
+        <v>0.02924621519568055</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01858964510677508</v>
+        <v>-0.0003016591251884249</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>85</v>
       </c>
       <c r="D33" s="1">
-        <v>0.006759636141387195</v>
+        <v>0.006774333405592889</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0007900729655621053</v>
+        <v>-0.02544186046511632</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>87</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02104826980866023</v>
+        <v>0.02086368654812738</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01170149253731345</v>
+        <v>-0.04816056542225444</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>84</v>
       </c>
       <c r="D35" s="1">
-        <v>0.007141646530750343</v>
+        <v>0.00712108475037684</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.005828531210135157</v>
+        <v>-0.01468994048804229</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02881256814181004</v>
+        <v>0.02902723092977883</v>
       </c>
       <c r="E36" s="1">
-        <v>0.004470370168456528</v>
+        <v>0.005698778833107099</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="D37" s="1">
-        <v>0.02133352098755968</v>
+        <v>0.02151780357836044</v>
       </c>
       <c r="E37" s="1">
-        <v>0.005654709312599371</v>
+        <v>0.001757160428747184</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>85</v>
       </c>
       <c r="D38" s="1">
-        <v>0.03920632943463875</v>
+        <v>0.03935099995462771</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0007211538461540101</v>
+        <v>-0.000384338217631508</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>90</v>
       </c>
       <c r="D39" s="1">
-        <v>0.03534679930427614</v>
+        <v>0.03587214343689975</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01186069351061425</v>
+        <v>-0.00619680453934579</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>86</v>
       </c>
       <c r="D40" s="1">
-        <v>0.03029380086043441</v>
+        <v>0.0297330219450592</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.02141449756299918</v>
+        <v>-0.02124728448047475</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1404,10 +1404,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="1">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.002957910214678283</v>
+        <v>-0.006544321155077526</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -31,266 +31,266 @@
     <t>Percent Change</t>
   </si>
   <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>BRKB</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>ABT</t>
   </si>
   <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
     <t>ABBV</t>
   </si>
   <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
     <t>ADBE</t>
   </si>
   <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>BAC</t>
-  </si>
-  <si>
-    <t>BRKB</t>
-  </si>
-  <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>CMCSA</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>JPM</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>PEP</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
     <t>TMO</t>
   </si>
   <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>DIS</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
+    <t>Apple Inc</t>
+  </si>
+  <si>
+    <t>Microsoft Corp</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway Inc</t>
+  </si>
+  <si>
+    <t>Amazon.com Inc</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase &amp; Co</t>
+  </si>
+  <si>
+    <t>Visa Inc</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Walmart Inc</t>
+  </si>
+  <si>
+    <t>Alphabet Inc</t>
+  </si>
+  <si>
+    <t>Walt Disney Co</t>
+  </si>
+  <si>
+    <t>Bank of America Corp</t>
+  </si>
+  <si>
+    <t>Facebook Inc</t>
+  </si>
+  <si>
+    <t>Mastercard Inc</t>
+  </si>
+  <si>
+    <t>Procter &amp; Gamble Co</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group Inc</t>
+  </si>
+  <si>
+    <t>Home Depot Inc</t>
+  </si>
+  <si>
+    <t>Intel Corp</t>
+  </si>
+  <si>
+    <t>Tesla Inc</t>
+  </si>
+  <si>
+    <t>Comcast Corp</t>
+  </si>
+  <si>
+    <t>Exxon Mobil Corp</t>
+  </si>
+  <si>
+    <t>Verizon Communications Inc</t>
+  </si>
+  <si>
+    <t>Coca-Cola Co</t>
+  </si>
+  <si>
+    <t>AT&amp;T Inc</t>
+  </si>
+  <si>
     <t>Abbott Laboratories</t>
   </si>
   <si>
+    <t>Nike Inc</t>
+  </si>
+  <si>
+    <t>Cisco Systems Inc</t>
+  </si>
+  <si>
+    <t>Chevron Corp</t>
+  </si>
+  <si>
+    <t>Merck &amp; Co Inc</t>
+  </si>
+  <si>
+    <t>Pfizer Inc</t>
+  </si>
+  <si>
+    <t>Oracle Corp</t>
+  </si>
+  <si>
     <t>Abbvie Inc</t>
   </si>
   <si>
+    <t>PepsiCo Inc</t>
+  </si>
+  <si>
+    <t>NVIDIA Corp</t>
+  </si>
+  <si>
+    <t>Netflix Inc</t>
+  </si>
+  <si>
+    <t>PayPal Holdings Inc</t>
+  </si>
+  <si>
+    <t>Salesforce.Com Inc</t>
+  </si>
+  <si>
+    <t>Broadcom Inc</t>
+  </si>
+  <si>
     <t>Adobe Inc</t>
   </si>
   <si>
-    <t>Alphabet Inc</t>
-  </si>
-  <si>
-    <t>Amazon.com Inc</t>
-  </si>
-  <si>
-    <t>Apple Inc</t>
-  </si>
-  <si>
-    <t>AT&amp;T Inc</t>
-  </si>
-  <si>
-    <t>Bank of America Corp</t>
-  </si>
-  <si>
-    <t>Berkshire Hathaway Inc</t>
-  </si>
-  <si>
-    <t>Broadcom Inc</t>
-  </si>
-  <si>
-    <t>Chevron Corp</t>
-  </si>
-  <si>
-    <t>Cisco Systems Inc</t>
-  </si>
-  <si>
-    <t>Coca-Cola Co</t>
-  </si>
-  <si>
-    <t>Comcast Corp</t>
-  </si>
-  <si>
-    <t>Exxon Mobil Corp</t>
-  </si>
-  <si>
-    <t>Facebook Inc</t>
-  </si>
-  <si>
-    <t>Home Depot Inc</t>
-  </si>
-  <si>
-    <t>Intel Corp</t>
-  </si>
-  <si>
-    <t>Johnson &amp; Johnson</t>
-  </si>
-  <si>
-    <t>JPMorgan Chase &amp; Co</t>
-  </si>
-  <si>
-    <t>Mastercard Inc</t>
-  </si>
-  <si>
-    <t>Merck &amp; Co Inc</t>
-  </si>
-  <si>
-    <t>Microsoft Corp</t>
-  </si>
-  <si>
-    <t>Netflix Inc</t>
-  </si>
-  <si>
-    <t>Nike Inc</t>
-  </si>
-  <si>
-    <t>NVIDIA Corp</t>
-  </si>
-  <si>
-    <t>Oracle Corp</t>
-  </si>
-  <si>
-    <t>PayPal Holdings Inc</t>
-  </si>
-  <si>
-    <t>PepsiCo Inc</t>
-  </si>
-  <si>
-    <t>Pfizer Inc</t>
-  </si>
-  <si>
-    <t>Procter &amp; Gamble Co</t>
-  </si>
-  <si>
-    <t>Salesforce.Com Inc</t>
-  </si>
-  <si>
-    <t>Tesla Inc</t>
-  </si>
-  <si>
     <t>Thermo Fisher Scientific Inc</t>
   </si>
   <si>
-    <t>UnitedHealth Group Inc</t>
-  </si>
-  <si>
-    <t>Verizon Communications Inc</t>
-  </si>
-  <si>
-    <t>Visa Inc</t>
-  </si>
-  <si>
-    <t>Walmart Inc</t>
-  </si>
-  <si>
-    <t>Walt Disney Co</t>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary</t>
   </si>
   <si>
     <t>Health Care</t>
   </si>
   <si>
-    <t>Information Technology</t>
+    <t>Consumer Staples</t>
   </si>
   <si>
     <t>Communication Services</t>
   </si>
   <si>
-    <t>Consumer Discretionary</t>
-  </si>
-  <si>
-    <t>Financials</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Consumer Staples</t>
-  </si>
-  <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01898231237302063</v>
+        <v>0.07757379675393945</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02049962652502269</v>
+        <v>0.004163544008660258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0165167700986595</v>
+        <v>0.06880652952546881</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01697825257535313</v>
+        <v>-0.01325065828590832</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.007250112170357784</v>
+        <v>0.05375065057786078</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01888309430682311</v>
+        <v>0.004486640227536753</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03215965118799751</v>
+        <v>0.04747941836186033</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004310914942708854</v>
+        <v>-0.01321965488310917</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -812,13 +812,13 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04942900246522718</v>
+        <v>0.04401443759927849</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0160733067729083</v>
+        <v>0.01281370335944754</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -829,13 +829,13 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.07722109911826536</v>
+        <v>0.03840162709061581</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01999347151950381</v>
+        <v>-0.0004806074878647149</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -846,13 +846,13 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01985037230476056</v>
+        <v>0.03984304924459144</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0003333333333334076</v>
+        <v>0.0003705762460626261</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02964794892089594</v>
+        <v>0.03480314713579637</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.006761325219742931</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -880,13 +880,13 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05085523596106049</v>
+        <v>0.03126049691229287</v>
       </c>
       <c r="E10" s="1">
-        <v>0.005315935725504373</v>
+        <v>-3.44398360663245E-05</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -897,13 +897,13 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.007310923628370781</v>
+        <v>0.02841010459692472</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01463172865577733</v>
+        <v>0.01185578172368973</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -914,13 +914,13 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01767108500244506</v>
+        <v>0.03064636986781734</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02677258017063844</v>
+        <v>0.02059620596205969</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -931,13 +931,13 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01890889750402049</v>
+        <v>0.03037537265961151</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.007198560287942524</v>
+        <v>-0.01205075494435381</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -948,13 +948,13 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01943067871888848</v>
+        <v>0.02765724912917923</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002529675034053325</v>
+        <v>-0.003586820519949852</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -965,13 +965,13 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02211110915058051</v>
+        <v>0.03058177348447657</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.003918774492340571</v>
+        <v>0.006940253470126612</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -982,13 +982,13 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02087881064131196</v>
+        <v>0.02849930912630008</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02028250633828321</v>
+        <v>0.00132218024824593</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03205063168295866</v>
+        <v>0.02701513031858936</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02921240064687047</v>
+        <v>0.01513236549957298</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1016,13 +1016,13 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02741052838540222</v>
+        <v>0.02290034069978185</v>
       </c>
       <c r="E18" s="1">
-        <v>0.009552382922960234</v>
+        <v>-0.0003223726627982204</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1033,13 +1033,13 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0230018552220973</v>
+        <v>0.01938722025151986</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.02268431001890348</v>
+        <v>0.01605661065892394</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1050,13 +1050,13 @@
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03789294284605185</v>
+        <v>0.02322147700553314</v>
       </c>
       <c r="E20" s="1">
-        <v>0.00972871842843781</v>
+        <v>0.00679542203147343</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1067,13 +1067,13 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0423833806381359</v>
+        <v>0.02166285855606781</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007761273919443257</v>
+        <v>-0.002839900603478829</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1084,13 +1084,13 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0279850863837789</v>
+        <v>0.02192047508486734</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01232865144819439</v>
+        <v>0.006490089457989789</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1101,13 +1101,13 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01802366542481057</v>
+        <v>0.0206019398601519</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0003933394519470834</v>
+        <v>0.009704968944099335</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1118,13 +1118,13 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.06737216360235734</v>
+        <v>0.02029495323837049</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008923310042933119</v>
+        <v>0.003001000333444415</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1135,13 +1135,13 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.008429948981392323</v>
+        <v>0.01815158371875842</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02668709936646185</v>
+        <v>0.008727334350110194</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1152,13 +1152,13 @@
         <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01944202178877691</v>
+        <v>0.01843211658355265</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.02887981330221689</v>
+        <v>-0.0339441273655755</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1169,13 +1169,13 @@
         <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.008236801708014257</v>
+        <v>0.01909053829089043</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.03272574259319472</v>
+        <v>0.01732124874118823</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1186,13 +1186,13 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01695662914211102</v>
+        <v>0.01771325111751743</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.006540805708339481</v>
+        <v>0.003533906399235898</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1203,13 +1203,13 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.007680833740843621</v>
+        <v>0.01876125053676518</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.03897116134060796</v>
+        <v>-0.002229800629590772</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1220,13 +1220,13 @@
         <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01757671696267878</v>
+        <v>0.01807360665601134</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.00466083464792777</v>
+        <v>0.001684919966301823</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01782626450022434</v>
+        <v>0.01747347549459297</v>
       </c>
       <c r="E31" s="1">
-        <v>0.00707013574660631</v>
+        <v>0.02693401167140519</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1254,13 +1254,13 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02924621519568055</v>
+        <v>0.01585072206452502</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0003016591251884249</v>
+        <v>0.007956530176596255</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1271,13 +1271,13 @@
         <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.006774333405592889</v>
+        <v>0.01707928375530152</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.02544186046511632</v>
+        <v>0.005907355377854584</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1288,13 +1288,13 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02086368654812738</v>
+        <v>0.007778019757880452</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.04816056542225444</v>
+        <v>-0.008522502570592394</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1305,13 +1305,13 @@
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00712108475037684</v>
+        <v>0.008010105335169099</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01468994048804229</v>
+        <v>-0.03446554405637359</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02902723092977883</v>
+        <v>0.007206187964401856</v>
       </c>
       <c r="E36" s="1">
-        <v>0.005698778833107099</v>
+        <v>-0.0001280573697016729</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1339,13 +1339,13 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.02151780357836044</v>
+        <v>0.006445181048282412</v>
       </c>
       <c r="E37" s="1">
-        <v>0.001757160428747184</v>
+        <v>-0.01951987782179165</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1356,13 +1356,13 @@
         <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.03935099995462771</v>
+        <v>0.00703285433577077</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.000384338217631508</v>
+        <v>0.00968793054431738</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1373,13 +1373,13 @@
         <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.03587214343689975</v>
+        <v>0.006944265010046275</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.00619680453934579</v>
+        <v>-0.001151690992447496</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1390,13 +1390,13 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0297330219450592</v>
+        <v>0.006849831249638567</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.02124728448047475</v>
+        <v>-0.006915598266609702</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.006544321155077526</v>
+        <v>0.001940044713001354</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07757379675393945</v>
+        <v>0.07774594805516165</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004163544008660258</v>
+        <v>0.005141388174807249</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.06880652952546881</v>
+        <v>0.06776333381737981</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01325065828590832</v>
+        <v>0.0178187139536885</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05375065057786078</v>
+        <v>0.05388726670213612</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004486640227536753</v>
+        <v>0.02400797607178462</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04747941836186033</v>
+        <v>0.04676103833187557</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01321965488310917</v>
+        <v>0.001894125911773736</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04401443759927849</v>
+        <v>0.04449210886563351</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01281370335944754</v>
+        <v>0.01665027859718116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03840162709061581</v>
+        <v>0.03830885009899415</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0004806074878647149</v>
+        <v>0.02673462518632497</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03984304924459144</v>
+        <v>0.03978063791594354</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0003705762460626261</v>
+        <v>0.01827498919553006</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03480314713579637</v>
+        <v>0.03497061796974945</v>
       </c>
       <c r="E9" s="1">
-        <v>0.006761325219742931</v>
+        <v>0.008357585254831656</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03126049691229287</v>
+        <v>0.03119889305837447</v>
       </c>
       <c r="E10" s="1">
-        <v>-3.44398360663245E-05</v>
+        <v>-0.00380327288113913</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02841010459692472</v>
+        <v>0.02869126625636309</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01185578172368973</v>
+        <v>-0.005296666845005626</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03064636986781734</v>
+        <v>0.03121700642533317</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02059620596205969</v>
+        <v>0.027084439723845</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03037537265961151</v>
+        <v>0.02995121978176156</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01205075494435381</v>
+        <v>0.0153548109349213</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02765724912917923</v>
+        <v>0.02750468721745834</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.003586820519949852</v>
+        <v>0.02171001227815594</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03058177348447657</v>
+        <v>0.03073439264806065</v>
       </c>
       <c r="E15" s="1">
-        <v>0.006940253470126612</v>
+        <v>0.01475876535810605</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02849930912630008</v>
+        <v>0.02848173451145946</v>
       </c>
       <c r="E16" s="1">
-        <v>0.00132218024824593</v>
+        <v>0.01452477835565502</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02701513031858936</v>
+        <v>0.02737083250569573</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01513236549957298</v>
+        <v>0.02230971128608927</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02290034069978185</v>
+        <v>0.02284863089041321</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0003223726627982204</v>
+        <v>0.04595291841341509</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01938722025151986</v>
+        <v>0.01966037129946216</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01605661065892394</v>
+        <v>-0.03385436999328528</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02322147700553314</v>
+        <v>0.02333400772366247</v>
       </c>
       <c r="E20" s="1">
-        <v>0.00679542203147343</v>
+        <v>-0.01989342806394312</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02166285855606781</v>
+        <v>0.02155951177414903</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.002839900603478829</v>
+        <v>0.02723389106443563</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02192047508486734</v>
+        <v>0.02202002110360754</v>
       </c>
       <c r="E22" s="1">
-        <v>0.006490089457989789</v>
+        <v>0.01394214011850825</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0206019398601519</v>
+        <v>0.02076160260930726</v>
       </c>
       <c r="E23" s="1">
-        <v>0.009704968944099335</v>
+        <v>0.01960784313725483</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02029495323837049</v>
+        <v>0.02031644359083071</v>
       </c>
       <c r="E24" s="1">
-        <v>0.003001000333444415</v>
+        <v>0.007646276595744572</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01815158371875842</v>
+        <v>0.01827454522401169</v>
       </c>
       <c r="E25" s="1">
-        <v>0.008727334350110194</v>
+        <v>0.02536749265014682</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01843211658355265</v>
+        <v>0.01777197604246264</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0339441273655755</v>
+        <v>0.0338152985074629</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01909053829089043</v>
+        <v>0.01938360519245759</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01732124874118823</v>
+        <v>0.0407840031676896</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01771325111751743</v>
+        <v>0.01774142892360856</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003533906399235898</v>
+        <v>0.02293708955934148</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01876125053676518</v>
+        <v>0.0186831705023512</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002229800629590772</v>
+        <v>0.01735243854344692</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01807360665601134</v>
+        <v>0.01806900455996338</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001684919966301823</v>
+        <v>0.01626016260162588</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01747347549459297</v>
+        <v>0.0179093613257511</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02693401167140519</v>
+        <v>0.02360483753460585</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01585072206452502</v>
+        <v>0.01594590304804985</v>
       </c>
       <c r="E32" s="1">
-        <v>0.007956530176596255</v>
+        <v>0.02021563342318067</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01707928375530152</v>
+        <v>0.01714691137927763</v>
       </c>
       <c r="E33" s="1">
-        <v>0.005907355377854584</v>
+        <v>0.02198667908042684</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007778019757880452</v>
+        <v>0.007696799429459641</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.008522502570592394</v>
+        <v>0.0242516104585071</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.008010105335169099</v>
+        <v>0.007719057380383469</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.03446554405637359</v>
+        <v>0.01032096408543137</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007206187964401856</v>
+        <v>0.007191313688824022</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.0001280573697016729</v>
+        <v>0.02898736338797803</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.006445181048282412</v>
+        <v>0.006307135776263691</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01951987782179165</v>
+        <v>0.01776674454828653</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00703285433577077</v>
+        <v>0.007087238580366399</v>
       </c>
       <c r="E38" s="1">
-        <v>0.00968793054431738</v>
+        <v>0.04405458089668612</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.006944265010046275</v>
+        <v>0.006922836749749713</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.001151690992447496</v>
+        <v>0.04013392758154266</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.006849831249638567</v>
+        <v>0.006789289044206746</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.006915598266609702</v>
+        <v>0.0401772592642835</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1404,10 +1404,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E41" s="1">
-        <v>0.001940044713001354</v>
+        <v>0.01571211781179471</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07774594805516165</v>
+        <v>0.0769368296220441</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005141388174807249</v>
+        <v>0.001485025987954858</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.06776333381737981</v>
+        <v>0.06790387558613323</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0178187139536885</v>
+        <v>-0.005243572395128404</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05388726670213612</v>
+        <v>0.05432739252001282</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02400797607178462</v>
+        <v>0.007983798730381242</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04676103833187557</v>
+        <v>0.04612488992173505</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001894125911773736</v>
+        <v>0.007765323407699087</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04449210886563351</v>
+        <v>0.04453320392698495</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01665027859718116</v>
+        <v>-0.01553936424011859</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03830885009899415</v>
+        <v>0.03872457772035564</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02673462518632497</v>
+        <v>0.004589519037137446</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03978063791594354</v>
+        <v>0.03988101346207875</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01827498919553006</v>
+        <v>0.006730127933062491</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03497061796974945</v>
+        <v>0.03471740394986582</v>
       </c>
       <c r="E9" s="1">
-        <v>0.008357585254831656</v>
+        <v>0.01139643306445648</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03119889305837447</v>
+        <v>0.03059945294483823</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.00380327288113913</v>
+        <v>0.01040138685158021</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02869126625636309</v>
+        <v>0.02809782188985357</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.005296666845005626</v>
+        <v>-0.005755163511187544</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03121700642533317</v>
+        <v>0.03156652460078257</v>
       </c>
       <c r="E12" s="1">
-        <v>0.027084439723845</v>
+        <v>-0.009565667011375178</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02995121978176156</v>
+        <v>0.02994068355145466</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0153548109349213</v>
+        <v>0.02755988976044099</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02750468721745834</v>
+        <v>0.02766710549362894</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02171001227815594</v>
+        <v>-0.008821762167476765</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03073439264806065</v>
+        <v>0.03070554519401355</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01475876535810605</v>
+        <v>0.01565153193060165</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02848173451145946</v>
+        <v>0.02844844014923643</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01452477835565502</v>
+        <v>0.006852953676158124</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02737083250569573</v>
+        <v>0.02754862070252716</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02230971128608927</v>
+        <v>-0.005299364734538181</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02284863089041321</v>
+        <v>0.0235289032615508</v>
       </c>
       <c r="E18" s="1">
-        <v>0.04595291841341509</v>
+        <v>-0.005703715122552855</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01966037129946216</v>
+        <v>0.01870095028127292</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.03385436999328528</v>
+        <v>-0.01199269447721885</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02333400772366247</v>
+        <v>0.02251603965190256</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01989342806394312</v>
+        <v>0.0001812250815513838</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02155951177414903</v>
+        <v>0.02180407300537126</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02723389106443563</v>
+        <v>-0.005371686016288346</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02202002110360754</v>
+        <v>0.02198164906346387</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01394214011850825</v>
+        <v>0.01117222413200403</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02076160260930726</v>
+        <v>0.02084123294910912</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01960784313725483</v>
+        <v>0.01527149321266985</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02031644359083071</v>
+        <v>0.02015510928635129</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007646276595744572</v>
+        <v>0.008248102936324608</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01827454522401169</v>
+        <v>0.01844826332882114</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02536749265014682</v>
+        <v>0.001310723355451904</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01777197604246264</v>
+        <v>0.01808872848439363</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0338152985074629</v>
+        <v>0.003759681179035912</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01938360519245759</v>
+        <v>0.01986207100835847</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0407840031676896</v>
+        <v>-0.0009511128019783488</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01774142892360856</v>
+        <v>0.01786762740099833</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02293708955934148</v>
+        <v>-0.005210271678451672</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0186831705023512</v>
+        <v>0.01871334282319938</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01735243854344692</v>
+        <v>0.01175862514536763</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01806900455996338</v>
+        <v>0.01807875399942843</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01626016260162588</v>
+        <v>0.01020689655172391</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0179093613257511</v>
+        <v>0.01804852828741267</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02360483753460585</v>
+        <v>0.01252669039145915</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01594590304804985</v>
+        <v>0.01601660479715298</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02021563342318067</v>
+        <v>0.007076806944706471</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01714691137927763</v>
+        <v>0.0172528364185977</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02198667908042684</v>
+        <v>0.01478626489138057</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007696799429459641</v>
+        <v>0.007761509459967783</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0242516104585071</v>
+        <v>0.008489592460618534</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.007719057380383469</v>
+        <v>0.007678086494804275</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01032096408543137</v>
+        <v>0.01161303021356175</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007191313688824022</v>
+        <v>0.007285303367159431</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02898736338797803</v>
+        <v>-0.02223789569763102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.006307135776263691</v>
+        <v>0.006319894125375951</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01776674454828653</v>
+        <v>0.00803481754268498</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007087238580366399</v>
+        <v>0.007285001110039274</v>
       </c>
       <c r="E38" s="1">
-        <v>0.04405458089668612</v>
+        <v>-0.01954194672641274</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.006922836749749713</v>
+        <v>0.007089289624737206</v>
       </c>
       <c r="E39" s="1">
-        <v>0.04013392758154266</v>
+        <v>0.0004903110277345579</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.006789289044206746</v>
+        <v>0.006952820534986035</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0401772592642835</v>
+        <v>-0.003238707994609458</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01571211781179471</v>
+        <v>0.002785450490812913</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0769368296220441</v>
+        <v>0.07683705699534339</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001485025987954858</v>
+        <v>-0.01227448719004864</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.06790387558613323</v>
+        <v>0.06736018822922321</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005243572395128404</v>
+        <v>-0.01441081448733228</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05432739252001282</v>
+        <v>0.05460902076374983</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007983798730381242</v>
+        <v>-0.002434124101692303</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04612488992173505</v>
+        <v>0.04635394798196437</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007765323407699087</v>
+        <v>-0.006645576822412957</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04453320392698495</v>
+        <v>0.04371940800390154</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01553936424011859</v>
+        <v>0.01178936337437775</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03872457772035564</v>
+        <v>0.03879424545695952</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004589519037137446</v>
+        <v>-0.01216726492937381</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03988101346207875</v>
+        <v>0.04003789421269286</v>
       </c>
       <c r="E8" s="1">
-        <v>0.006730127933062491</v>
+        <v>-0.006203324500120511</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03471740394986582</v>
+        <v>0.0350155245102191</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01139643306445648</v>
+        <v>-0.006804712080193176</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03059945294483823</v>
+        <v>0.03083184910314718</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01040138685158021</v>
+        <v>0.0003323899324956248</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02809782188985357</v>
+        <v>0.02785851581402176</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.005755163511187544</v>
+        <v>0.003678658371652599</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03156652460078257</v>
+        <v>0.0311777257263183</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.009565667011375178</v>
+        <v>0.01774993474288689</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02994068355145466</v>
+        <v>0.03068038679103957</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02755988976044099</v>
+        <v>-0.009696719620383765</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02766710549362894</v>
+        <v>0.02734685954575774</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.008821762167476765</v>
+        <v>-0.01297842440274455</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03070554519401355</v>
+        <v>0.03109950787558809</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01565153193060165</v>
+        <v>-0.01541033655593516</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02844844014923643</v>
+        <v>0.02856383284950794</v>
       </c>
       <c r="E16" s="1">
-        <v>0.006852953676158124</v>
+        <v>-0.01450957632037142</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02754862070252716</v>
+        <v>0.02732651386204179</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005299364734538181</v>
+        <v>0.008669755129053769</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0235289032615508</v>
+        <v>0.02332971732762006</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.005703715122552855</v>
+        <v>-0.01131782945736437</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01870095028127292</v>
+        <v>0.01842535259069879</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01199269447721885</v>
+        <v>0.03980107641217767</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02251603965190256</v>
+        <v>0.0224575656856631</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0001812250815513838</v>
+        <v>-0.003805037144410273</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02180407300537126</v>
+        <v>0.0216267082462111</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.005371686016288346</v>
+        <v>-0.01236933797909412</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02198164906346387</v>
+        <v>0.02216549209276305</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01117222413200403</v>
+        <v>-0.004079551249362545</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02084123294910912</v>
+        <v>0.02110073464496179</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01527149321266985</v>
+        <v>-0.01299907149489343</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02015510928635129</v>
+        <v>0.020264903816157</v>
       </c>
       <c r="E24" s="1">
-        <v>0.008248102936324608</v>
+        <v>0.005562827225131128</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01844826332882114</v>
+        <v>0.01842113274518734</v>
       </c>
       <c r="E25" s="1">
-        <v>0.001310723355451904</v>
+        <v>-0.02028961793340422</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01808872848439363</v>
+        <v>0.01810630212827908</v>
       </c>
       <c r="E26" s="1">
-        <v>0.003759681179035912</v>
+        <v>-0.004045246834968985</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01986207100835847</v>
+        <v>0.01978806127336249</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0009511128019783488</v>
+        <v>-0.01428027418126432</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01786762740099833</v>
+        <v>0.01772515965333366</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.005210271678451672</v>
+        <v>-0.0092592592592593</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01871334282319938</v>
+        <v>0.01888079448839949</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01175862514536763</v>
+        <v>-0.01711366538952752</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01807875399942843</v>
+        <v>0.01821255180990681</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01020689655172391</v>
+        <v>-0.01392681594756962</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01804852828741267</v>
+        <v>0.01822385496752678</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01252669039145915</v>
+        <v>-0.008154084071418599</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01601660479715298</v>
+        <v>0.01608514683706001</v>
       </c>
       <c r="E32" s="1">
-        <v>0.007076806944706471</v>
+        <v>0.0005621662138106664</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0172528364185977</v>
+        <v>0.01745930938611194</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01478626489138057</v>
+        <v>-0.01567571300324566</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007761509459967783</v>
+        <v>0.007805659234815411</v>
       </c>
       <c r="E34" s="1">
-        <v>0.008489592460618534</v>
+        <v>-0.005908134303863388</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.007678086494804275</v>
+        <v>0.007745677145045433</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01161303021356175</v>
+        <v>-0.001089600155657289</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007285303367159431</v>
+        <v>0.007103507083462815</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.02223789569763102</v>
+        <v>0.00369160266474311</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.006319894125375951</v>
+        <v>0.006352977417496745</v>
       </c>
       <c r="E37" s="1">
-        <v>0.00803481754268498</v>
+        <v>-0.003653271338425856</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007285001110039274</v>
+        <v>0.007122797805800899</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01954194672641274</v>
+        <v>-0.03482713384960434</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.007089289624737206</v>
+        <v>0.007073063912273027</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0004903110277345579</v>
+        <v>-0.008224665473451021</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.006952820534986035</v>
+        <v>0.006911051986386777</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.003238707994609458</v>
+        <v>-0.01548291427699144</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E41" s="1">
-        <v>0.002785450490812913</v>
+        <v>-0.005925265933157342</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07683705699534339</v>
+        <v>0.07634629361622003</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01227448719004864</v>
+        <v>0.01876563803169318</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.06736018822922321</v>
+        <v>0.06678519308222956</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01441081448733228</v>
+        <v>0.01690748328660785</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05460902076374983</v>
+        <v>0.05480080497295482</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002434124101692303</v>
+        <v>-0.01053487741585657</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04635394798196437</v>
+        <v>0.04632035970902357</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006645576822412957</v>
+        <v>0.01269601248981278</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04371940800390154</v>
+        <v>0.04449849742222481</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01178936337437775</v>
+        <v>-0.01456499223200414</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03879424545695952</v>
+        <v>0.03855064843864416</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01216726492937381</v>
+        <v>-0.0008022652194432656</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04003789421269286</v>
+        <v>0.04002669497474075</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006203324500120511</v>
+        <v>-0.003999757590449016</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0350155245102191</v>
+        <v>0.03498454669028098</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006804712080193176</v>
+        <v>0.0006630322675704736</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03083184910314718</v>
+        <v>0.03102593421041062</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0003323899324956248</v>
+        <v>0.007842773165499528</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02785851581402176</v>
+        <v>0.02812766165180766</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003678658371652599</v>
+        <v>-0.005443863526114368</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0311777257263183</v>
+        <v>0.03192026437849133</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01774993474288689</v>
+        <v>-0.007694280584765401</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03068038679103957</v>
+        <v>0.03056398743601802</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.009696719620383765</v>
+        <v>0.02267361111111121</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02734685954575774</v>
+        <v>0.02715282812396244</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01297842440274455</v>
+        <v>-0.006002233389168055</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03109950787558809</v>
+        <v>0.03080276858786191</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01541033655593516</v>
+        <v>-0.000147655961609261</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02856383284950794</v>
+        <v>0.02831717050247741</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01450957632037142</v>
+        <v>-0.003988649748367101</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02732651386204179</v>
+        <v>0.02772772217335421</v>
       </c>
       <c r="E17" s="1">
-        <v>0.008669755129053769</v>
+        <v>0.001410668591299791</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02332971732762006</v>
+        <v>0.02320316046184368</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01131782945736437</v>
+        <v>0.003606711619883907</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01842535259069879</v>
+        <v>0.01927289850603351</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03980107641217767</v>
+        <v>0.05083225826751825</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0224575656856631</v>
+        <v>0.02250546467721791</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003805037144410273</v>
+        <v>-0.01582393597671872</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0216267082462111</v>
+        <v>0.02148651348893678</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01236933797909412</v>
+        <v>-0.01517022402540136</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02216549209276305</v>
+        <v>0.02220664712148184</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.004079551249362545</v>
+        <v>-0.007509813961426914</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02110073464496179</v>
+        <v>0.02095058245924271</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01299907149489343</v>
+        <v>-0.008278457196613243</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.020264903816157</v>
+        <v>0.02049909657340709</v>
       </c>
       <c r="E24" s="1">
-        <v>0.005562827225131128</v>
+        <v>-0.01496908558411991</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01842113274518734</v>
+        <v>0.01815494789416249</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02028961793340422</v>
+        <v>0.0007515657620043026</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01810630212827908</v>
+        <v>0.01814054522151159</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.004045246834968985</v>
+        <v>-0.0004512974802558523</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01978806127336249</v>
+        <v>0.01962174639834639</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01428027418126432</v>
+        <v>-0.001158972377825029</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01772515965333366</v>
+        <v>0.01766571184527345</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0092592592592593</v>
+        <v>-0.01076182384593594</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01888079448839949</v>
+        <v>0.01866828946885672</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01711366538952752</v>
+        <v>0.001689189189189255</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01821255180990681</v>
+        <v>0.01806595453788797</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01392681594756962</v>
+        <v>0.003323179174743895</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01822385496752678</v>
+        <v>0.01818299520406162</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.008154084071418599</v>
+        <v>-0.005386250885896393</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01608514683706001</v>
+        <v>0.01619012013041848</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0005621662138106664</v>
+        <v>0.01339076692574204</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01745930938611194</v>
+        <v>0.01728805860765877</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01567571300324566</v>
+        <v>-0.007646976287357998</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007805659234815411</v>
+        <v>0.007805793755546925</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.005908134303863388</v>
+        <v>0.03701905335327349</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.007745677145045433</v>
+        <v>0.007783355907627625</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.001089600155657289</v>
+        <v>0.01610861138705455</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007103507083462815</v>
+        <v>0.007172227765987801</v>
       </c>
       <c r="E36" s="1">
-        <v>0.00369160266474311</v>
+        <v>0.02663397311237015</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.006352977417496745</v>
+        <v>0.006367497382503755</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.003653271338425856</v>
+        <v>0.008904761904761971</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007122797805800899</v>
+        <v>0.006915708585721221</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.03482713384960434</v>
+        <v>0.01644159943879342</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.007073063912273027</v>
+        <v>0.007056703170619519</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.008224665473451021</v>
+        <v>0.02129076612383463</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.006911051986386777</v>
+        <v>0.006844604864949929</v>
       </c>
       <c r="E40" s="1">
-        <v>-0.01548291427699144</v>
+        <v>0.0108755842027155</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1404,10 +1404,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.005925265933157342</v>
+        <v>0.00265843015719569</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07634629361622003</v>
+        <v>0.07729274890479496</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01876563803169318</v>
+        <v>0.02357723577235782</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.06678519308222956</v>
+        <v>0.06889393268379096</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01690748328660785</v>
+        <v>0.02772849185062931</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05480080497295482</v>
+        <v>0.05408397768893782</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01053487741585657</v>
+        <v>0.0172734314484897</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04632035970902357</v>
+        <v>0.04729430493380891</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01269601248981278</v>
+        <v>0.02079405251502697</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04449849742222481</v>
+        <v>0.04369583822086037</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01456499223200414</v>
+        <v>-0.0005855181835925372</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03855064843864416</v>
+        <v>0.03893543676537477</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0008022652194432656</v>
+        <v>0.01005256847735869</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04002669497474075</v>
+        <v>0.03897972374500275</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003999757590449016</v>
+        <v>0.003684824663759745</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03498454669028098</v>
+        <v>0.03449506858497115</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0006630322675704736</v>
+        <v>0.02809320159268536</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03102593421041062</v>
+        <v>0.03186537955138487</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007842773165499528</v>
+        <v>0.04187286949825797</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02812766165180766</v>
+        <v>0.02827334641993632</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.005443863526114368</v>
+        <v>-0.002487167275228908</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03192026437849133</v>
+        <v>0.03190547722212912</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.007694280584765401</v>
+        <v>0.007850088630032781</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03056398743601802</v>
+        <v>0.03127947478036052</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02267361111111121</v>
+        <v>0.03431996249916303</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02715282812396244</v>
+        <v>0.0271781413831901</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.006002233389168055</v>
+        <v>0.01381778144783929</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03080276858786191</v>
+        <v>0.03013609269145142</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.000147655961609261</v>
+        <v>0.01616026213881439</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02831717050247741</v>
+        <v>0.02746017164196969</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.003988649748367101</v>
+        <v>0.008472498433541364</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02772772217335421</v>
+        <v>0.02762699590644675</v>
       </c>
       <c r="E17" s="1">
-        <v>0.001410668591299791</v>
+        <v>0.02485783915515838</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02320316046184368</v>
+        <v>0.02317884758097335</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003606711619883907</v>
+        <v>0.03082881487219225</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01927289850603351</v>
+        <v>0.01980196538433917</v>
       </c>
       <c r="E19" s="1">
-        <v>0.05083225826751825</v>
+        <v>0.04427653947865506</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02250546467721791</v>
+        <v>0.02211730663347138</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01582393597671872</v>
+        <v>0.0009132420091324533</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02148651348893678</v>
+        <v>0.02146646757474924</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01517022402540136</v>
+        <v>-0.01550792821048963</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02220664712148184</v>
+        <v>0.0218068489215522</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.007509813961426914</v>
+        <v>0.009777015437392844</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02095058245924271</v>
+        <v>0.02042677088071242</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.008278457196613243</v>
+        <v>0.005713197486193033</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02049909657340709</v>
+        <v>0.0200590094079908</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01496908558411991</v>
+        <v>0.007876599934361739</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01815494789416249</v>
+        <v>0.01779558566538195</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0007515657620043026</v>
+        <v>0.007734992433159338</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01814054522151159</v>
+        <v>0.01784600699016111</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0004512974802558523</v>
+        <v>0.019542745038859</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01962174639834639</v>
+        <v>0.01944288176573385</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.001158972377825029</v>
+        <v>0.008272412466333146</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01766571184527345</v>
+        <v>0.01740433413927657</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01076182384593594</v>
+        <v>-0.01172576832151284</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01866828946885672</v>
+        <v>0.01845450410552271</v>
       </c>
       <c r="E29" s="1">
-        <v>0.001689189189189255</v>
+        <v>-0.001167466597483457</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01806595453788797</v>
+        <v>0.01792276111363799</v>
       </c>
       <c r="E30" s="1">
-        <v>0.003323179174743895</v>
+        <v>-0.000550964187327696</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01818299520406162</v>
+        <v>0.01826493787853398</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.005386250885896393</v>
+        <v>0.03272524718005854</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01619012013041848</v>
+        <v>0.01623656428793718</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01339076692574204</v>
+        <v>-0.02193144120899371</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01728805860765877</v>
+        <v>0.01691044454551983</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.007646976287357998</v>
+        <v>0.01330690826727055</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007805793755546925</v>
+        <v>0.008265955282120029</v>
       </c>
       <c r="E34" s="1">
-        <v>0.03701905335327349</v>
+        <v>0.01272467283291401</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.007783355907627625</v>
+        <v>0.008070703564503387</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01610861138705455</v>
+        <v>0.002317303770716705</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007172227765987801</v>
+        <v>0.00740729657913006</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02663397311237015</v>
+        <v>0.01405833400662537</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.006367497382503755</v>
+        <v>0.006544897421779618</v>
       </c>
       <c r="E37" s="1">
-        <v>0.008904761904761971</v>
+        <v>0.007178127286027847</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006915708585721221</v>
+        <v>0.007121077011466736</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01644159943879342</v>
+        <v>0.02632629477886339</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.007056703170619519</v>
+        <v>0.007231644842362291</v>
       </c>
       <c r="E39" s="1">
-        <v>0.02129076612383463</v>
+        <v>0.01713079819588703</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.006844604864949929</v>
+        <v>0.006827077298733632</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0108755842027155</v>
+        <v>0.0199211045364891</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1404,10 +1404,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E41" s="1">
-        <v>0.00265843015719569</v>
+        <v>0.01486606181026007</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07729274890479496</v>
+        <v>0.07795619663159882</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02357723577235782</v>
+        <v>0.002462271644162017</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.06889393268379096</v>
+        <v>0.06976709557956315</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02772849185062931</v>
+        <v>-0.004858072027943861</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05408397768893782</v>
+        <v>0.05421227060433081</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0172734314484897</v>
+        <v>0.001522881291403211</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04729430493380891</v>
+        <v>0.04757055833372648</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02079405251502697</v>
+        <v>-0.0009018418026918162</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04369583822086037</v>
+        <v>0.04303055856960891</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0005855181835925372</v>
+        <v>-0.007030334591850207</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03893543676537477</v>
+        <v>0.03875076661791763</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01005256847735869</v>
+        <v>-0.001780496712929125</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03897972374500275</v>
+        <v>0.03855026654715291</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003684824663759745</v>
+        <v>-0.0002447531053051399</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03449506858497115</v>
+        <v>0.03494465608340803</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02809320159268536</v>
+        <v>0.004805278634440135</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03186537955138487</v>
+        <v>0.03271335566353729</v>
       </c>
       <c r="E10" s="1">
-        <v>0.04187286949825797</v>
+        <v>-0.004371417240508935</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02827334641993632</v>
+        <v>0.02778989951408218</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002487167275228908</v>
+        <v>0.006525198938992061</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03190547722212912</v>
+        <v>0.03168490824173232</v>
       </c>
       <c r="E12" s="1">
-        <v>0.007850088630032781</v>
+        <v>-0.002763819095477404</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03127947478036052</v>
+        <v>0.03187906897202435</v>
       </c>
       <c r="E13" s="1">
-        <v>0.03431996249916303</v>
+        <v>-0.008578550386844408</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0271781413831901</v>
+        <v>0.0271500684059065</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01381778144783929</v>
+        <v>0.00339378801042578</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03013609269145142</v>
+        <v>0.03017452351747889</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01616026213881439</v>
+        <v>0.0003664345914256018</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02746017164196969</v>
+        <v>0.02728717507194415</v>
       </c>
       <c r="E16" s="1">
-        <v>0.008472498433541364</v>
+        <v>-0.01569506726457404</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02762699590644675</v>
+        <v>0.02789899514082182</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02485783915515838</v>
+        <v>-0.005136334812935961</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02317884758097335</v>
+        <v>0.02354342595650328</v>
       </c>
       <c r="E18" s="1">
-        <v>0.03082881487219225</v>
+        <v>-0.01472798316801927</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01980196538433917</v>
+        <v>0.02037581969146577</v>
       </c>
       <c r="E19" s="1">
-        <v>0.04427653947865506</v>
+        <v>0.0008248317777295178</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02211730663347138</v>
+        <v>0.02181322828702175</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0009132420091324533</v>
+        <v>0.0007299270072993469</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02146646757474924</v>
+        <v>0.020823996320234</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01550792821048963</v>
+        <v>-0.002831858407079668</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0218068489215522</v>
+        <v>0.02169749846676417</v>
       </c>
       <c r="E22" s="1">
-        <v>0.009777015437392844</v>
+        <v>0.004076779344317938</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02042677088071242</v>
+        <v>0.02024254611501628</v>
       </c>
       <c r="E23" s="1">
-        <v>0.005713197486193033</v>
+        <v>0.007195606892633988</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0200590094079908</v>
+        <v>0.01992086144265698</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007876599934361739</v>
+        <v>0.008791924454575106</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01779558566538195</v>
+        <v>0.01767054300136812</v>
       </c>
       <c r="E25" s="1">
-        <v>0.007734992433159338</v>
+        <v>0.0009177373602538008</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01784600699016111</v>
+        <v>0.01792824456290985</v>
       </c>
       <c r="E26" s="1">
-        <v>0.019542745038859</v>
+        <v>0.01509769094138558</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01944288176573385</v>
+        <v>0.01931656012643299</v>
       </c>
       <c r="E27" s="1">
-        <v>0.008272412466333146</v>
+        <v>-0.007345926349933252</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01740433413927657</v>
+        <v>0.01694830046704723</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01172576832151284</v>
+        <v>-0.008898669983733787</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01845450410552271</v>
+        <v>0.01816294758692268</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.001167466597483457</v>
+        <v>-0.01571428571428568</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01792276111363799</v>
+        <v>0.01765049299429165</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.000550964187327696</v>
+        <v>-0.006339581036383768</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01826493787853398</v>
+        <v>0.01858635655989055</v>
       </c>
       <c r="E31" s="1">
-        <v>0.03272524718005854</v>
+        <v>0.001618122977346204</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01623656428793718</v>
+        <v>0.01564785111100628</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.02193144120899371</v>
+        <v>-0.007160354249105105</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01691044454551983</v>
+        <v>0.01688446478275228</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01330690826727055</v>
+        <v>0.003562447611064501</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008265955282120029</v>
+        <v>0.008248513940651979</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01272467283291401</v>
+        <v>-0.009008042895442325</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.008070703564503387</v>
+        <v>0.0079709097985564</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002317303770716705</v>
+        <v>0.007139290140011578</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.00740729657913006</v>
+        <v>0.007401401141670992</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01405833400662537</v>
+        <v>0.008644729503625159</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.006544897421779618</v>
+        <v>0.006495317733641553</v>
       </c>
       <c r="E37" s="1">
-        <v>0.007178127286027847</v>
+        <v>0.003631576558173366</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007121077011466736</v>
+        <v>0.007201490776996746</v>
       </c>
       <c r="E38" s="1">
-        <v>0.02632629477886339</v>
+        <v>-0.009437438584998348</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.007231644842362291</v>
+        <v>0.007247782705099779</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01713079819588703</v>
+        <v>-0.0005695455839876962</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.006827077298733632</v>
+        <v>0.006861082936264566</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0199211045364891</v>
+        <v>0.007198263821740936</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01486606181026007</v>
+        <v>-0.001452667240647298</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07795619663159882</v>
+        <v>0.07897453946587876</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002462271644162017</v>
+        <v>0.01923377638780299</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.06976709557956315</v>
+        <v>0.06980509528238932</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004858072027943861</v>
+        <v>0.01340536214485777</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05421227060433081</v>
+        <v>0.05425923402135772</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001522881291403211</v>
+        <v>-0.0004172672786587617</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04757055833372648</v>
+        <v>0.04821257585520834</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009018418026918162</v>
+        <v>0.006071251055836724</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04303055856960891</v>
+        <v>0.04327692441816958</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007030334591850207</v>
+        <v>0.00122636029174461</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03875076661791763</v>
+        <v>0.03868367534610351</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001780496712929125</v>
+        <v>0.006521639987230099</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03855026654715291</v>
+        <v>0.03848549656208325</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0002447531053051399</v>
+        <v>-0.00391174133610428</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03494465608340803</v>
+        <v>0.03494003695122817</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004805278634440135</v>
+        <v>-0.0006437768240343811</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03271335566353729</v>
+        <v>0.03291752542914601</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.004371417240508935</v>
+        <v>0.005091490511516028</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02778989951408218</v>
+        <v>0.02757449015640981</v>
       </c>
       <c r="E11" s="1">
-        <v>0.006525198938992061</v>
+        <v>-0.001279590531030106</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03168490824173232</v>
+        <v>0.03179534541547637</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002763819095477404</v>
+        <v>-0.008739076154806291</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03187906897202435</v>
+        <v>0.03222066531322906</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.008578550386844408</v>
+        <v>-0.0002235778849530856</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0271500684059065</v>
+        <v>0.02727751601418359</v>
       </c>
       <c r="E14" s="1">
-        <v>0.00339378801042578</v>
+        <v>0.01794761237469022</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03017452351747889</v>
+        <v>0.03015463678812762</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0003664345914256018</v>
+        <v>0.003802837501827971</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02728717507194415</v>
+        <v>0.02687763004049286</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01569506726457404</v>
+        <v>-0.002051197899573309</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02789899514082182</v>
+        <v>0.02756302283804662</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005136334812935961</v>
+        <v>0.006272602169808073</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02354342595650328</v>
+        <v>0.02337568743265707</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01472798316801927</v>
+        <v>0.01207547169811307</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02037581969146577</v>
+        <v>0.01972878615935838</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0008248317777295178</v>
+        <v>0.01912157026394601</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02181322828702175</v>
+        <v>0.02167323170642959</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0007299270072993469</v>
+        <v>-0.004945054945055039</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.020823996320234</v>
+        <v>0.02079921622349156</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.002831858407079668</v>
+        <v>-0.01042587029510511</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02169749846676417</v>
+        <v>0.02168499305859696</v>
       </c>
       <c r="E22" s="1">
-        <v>0.004076779344317938</v>
+        <v>-0.02372881355932199</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02024254611501628</v>
+        <v>0.0203659574130259</v>
       </c>
       <c r="E23" s="1">
-        <v>0.007195606892633988</v>
+        <v>-0.003003003003003046</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01992086144265698</v>
+        <v>0.02000782423952934</v>
       </c>
       <c r="E24" s="1">
-        <v>0.008791924454575106</v>
+        <v>-0.03006789524733278</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01767054300136812</v>
+        <v>0.01765820011029208</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0009177373602538008</v>
+        <v>-0.002747481475314228</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01792824456290985</v>
+        <v>0.01806631903049997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01509769094138558</v>
+        <v>-0.02094624285923519</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01931656012643299</v>
+        <v>0.01902766255328076</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.007345926349933252</v>
+        <v>0.002704268881591698</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01694830046704723</v>
+        <v>0.01684946013188298</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.008898669983733787</v>
+        <v>-0.01122948459545048</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01816294758692268</v>
+        <v>0.01790548253961113</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01571428571428568</v>
+        <v>-0.008276405675249787</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01765049299429165</v>
+        <v>0.01742194394862994</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.006339581036383768</v>
+        <v>0.001392369813422611</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01858635655989055</v>
+        <v>0.01851222129454556</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001618122977346204</v>
+        <v>0.01633589847441619</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01564785111100628</v>
+        <v>0.01546764826911855</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.007160354249105105</v>
+        <v>0.008459271932325985</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01688446478275228</v>
+        <v>0.01686695514323195</v>
       </c>
       <c r="E33" s="1">
-        <v>0.003562447611064501</v>
+        <v>-0.006066522557701681</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008248513940651979</v>
+        <v>0.008317334218963151</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.009008042895442325</v>
+        <v>0.01226711917135059</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0079709097985564</v>
+        <v>0.008041677527540307</v>
       </c>
       <c r="E35" s="1">
-        <v>0.007139290140011578</v>
+        <v>0.01387593923106456</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007401401141670992</v>
+        <v>0.007515504034952385</v>
       </c>
       <c r="E36" s="1">
-        <v>0.008644729503625159</v>
+        <v>0.03482003129890465</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.006495317733641553</v>
+        <v>0.006491972362586608</v>
       </c>
       <c r="E37" s="1">
-        <v>0.003631576558173366</v>
+        <v>0.01657683771909957</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007201490776996746</v>
+        <v>0.007092977458339451</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.009437438584998348</v>
+        <v>0.006259586286946117</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.007247782705099779</v>
+        <v>0.007253960966130392</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.0005695455839876962</v>
+        <v>0.01303175857805861</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.006861082936264566</v>
+        <v>0.006856574279775221</v>
       </c>
       <c r="E40" s="1">
-        <v>0.007198263821740936</v>
+        <v>0.01099961404862992</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1404,10 +1404,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.001452667240647298</v>
+        <v>0.003024137676035599</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -747,10 +747,10 @@
         <v>84</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07897453946587876</v>
+        <v>0.08025082854416174</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01923377638780299</v>
+        <v>0.02021325559987708</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -764,10 +764,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="1">
-        <v>0.06980509528238932</v>
+        <v>0.07052757277418033</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01340536214485777</v>
+        <v>0.01026653504442243</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -781,10 +781,10 @@
         <v>85</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05425923402135772</v>
+        <v>0.05407306901317391</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0004172672786587617</v>
+        <v>0.009487305984592576</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -798,10 +798,10 @@
         <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04821257585520834</v>
+        <v>0.04835904210606394</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006071251055836724</v>
+        <v>0.02209559603552247</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -815,10 +815,10 @@
         <v>85</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04327692441816958</v>
+        <v>0.04319935671759468</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00122636029174461</v>
+        <v>0.007478081485301713</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -832,10 +832,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03868367534610351</v>
+        <v>0.03881856366917216</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006521639987230099</v>
+        <v>0.008246488445854405</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -849,10 +849,10 @@
         <v>87</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03848549656208325</v>
+        <v>0.03821937061570752</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00391174133610428</v>
+        <v>-0.01055408970976257</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -866,10 +866,10 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03494003695122817</v>
+        <v>0.03481226627916506</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0006437768240343811</v>
+        <v>0.0005010378641472357</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -883,10 +883,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03291752542914601</v>
+        <v>0.03298537239012805</v>
       </c>
       <c r="E10" s="1">
-        <v>0.005091490511516028</v>
+        <v>0.008993836733424354</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -900,10 +900,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02757449015640981</v>
+        <v>0.02745617484711271</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001279590531030106</v>
+        <v>0.003042921204356119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -917,10 +917,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03179534541547637</v>
+        <v>0.03142245763252201</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.008739076154806291</v>
+        <v>0.007304785894206578</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,10 +934,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03222066531322906</v>
+        <v>0.03211633725950381</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0002235778849530856</v>
+        <v>-0.001789023065618789</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,10 +951,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02727751601418359</v>
+        <v>0.02768336399409661</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01794761237469022</v>
+        <v>0.006194737120770899</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,10 +968,10 @@
         <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03015463678812762</v>
+        <v>0.03017804740162308</v>
       </c>
       <c r="E15" s="1">
-        <v>0.003802837501827971</v>
+        <v>-0.006484044878332873</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,10 +985,10 @@
         <v>87</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02687763004049286</v>
+        <v>0.02674162833643753</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.002051197899573309</v>
+        <v>0.03126969771712029</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02756302283804662</v>
+        <v>0.02765229038173494</v>
       </c>
       <c r="E17" s="1">
-        <v>0.006272602169808073</v>
+        <v>0.01526571891995054</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1019,10 +1019,10 @@
         <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02337568743265707</v>
+        <v>0.02358663066622559</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01207547169811307</v>
+        <v>0.01804623415361695</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01972878615935838</v>
+        <v>0.02004541144614101</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01912157026394601</v>
+        <v>-0.009915179877157065</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,10 +1053,10 @@
         <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02167323170642959</v>
+        <v>0.02150103429691336</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.004945054945055039</v>
+        <v>-0.01398858825694815</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02079921622349156</v>
+        <v>0.02052031005015898</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01042587029510511</v>
+        <v>-0.002321428571428585</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,10 +1087,10 @@
         <v>89</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02168499305859696</v>
+        <v>0.02110660462302066</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.02372881355932199</v>
+        <v>-0.001909722222222188</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1104,10 +1104,10 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0203659574130259</v>
+        <v>0.02024357901176826</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003003003003003046</v>
+        <v>0.001129518072289226</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1121,10 +1121,10 @@
         <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02000782423952934</v>
+        <v>0.01934772090443561</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.03006789524733278</v>
+        <v>0.001333333333333409</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1138,10 +1138,10 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01765820011029208</v>
+        <v>0.01755659098434316</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.002747481475314228</v>
+        <v>0.009350475872432762</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01806631903049997</v>
+        <v>0.01763456816253376</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.02094624285923519</v>
+        <v>0.01324057450628358</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>84</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01902766255328076</v>
+        <v>0.01902159454828129</v>
       </c>
       <c r="E27" s="1">
-        <v>0.002704268881591698</v>
+        <v>0.003467539973030176</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1189,10 +1189,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01684946013188298</v>
+        <v>0.01661001839645797</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01122948459545048</v>
+        <v>-0.0009706853038243812</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1206,10 +1206,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01790548253961113</v>
+        <v>0.01770375092213144</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.008276405675249787</v>
+        <v>0.0108623658762752</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1223,10 +1223,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01742194394862994</v>
+        <v>0.01739360109308761</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001392369813422611</v>
+        <v>0.01779755283648488</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1240,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01851222129454556</v>
+        <v>0.01875790856413675</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01633589847441619</v>
+        <v>0.00398512221041436</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1257,10 +1257,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01546764826911855</v>
+        <v>0.0155514635451562</v>
       </c>
       <c r="E32" s="1">
-        <v>0.008459271932325985</v>
+        <v>0.01357210179076351</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1274,10 +1274,10 @@
         <v>88</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01686695514323195</v>
+        <v>0.01671408568314092</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.006066522557701681</v>
+        <v>0.0002104672372666982</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1291,10 +1291,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008317334218963151</v>
+        <v>0.008393979399660743</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01226711917135059</v>
+        <v>0.005797303904449436</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1308,10 +1308,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="1">
-        <v>0.008041677527540307</v>
+        <v>0.008128681105440834</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01387593923106456</v>
+        <v>0.00131631144289357</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1325,10 +1325,10 @@
         <v>84</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007515504034952385</v>
+        <v>0.007753745726095784</v>
       </c>
       <c r="E36" s="1">
-        <v>0.03482003129890465</v>
+        <v>0.008582230623818354</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1342,10 +1342,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="1">
-        <v>0.006491972362586608</v>
+        <v>0.00657969084394026</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01657683771909957</v>
+        <v>0.03042993985297393</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1359,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007092977458339451</v>
+        <v>0.007115857230822272</v>
       </c>
       <c r="E38" s="1">
-        <v>0.006259586286946117</v>
+        <v>-0.000803328664414682</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1376,10 +1376,10 @@
         <v>84</v>
       </c>
       <c r="D39" s="1">
-        <v>0.007253960966130392</v>
+        <v>0.007326336982479616</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01303175857805861</v>
+        <v>0.008402688860435381</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1393,10 +1393,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="1">
-        <v>0.006856574279775221</v>
+        <v>0.006911093851250327</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01099961404862992</v>
+        <v>0.01563063349663851</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1404,10 +1404,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>0.003024137676035599</v>
+        <v>0.007586944920116911</v>
       </c>
     </row>
     <row r="44" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
   <si>
     <t>Symbol</t>
   </si>
@@ -43,12 +43,12 @@
     <t>AMZN</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>JPM</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>JNJ</t>
   </si>
   <si>
@@ -58,75 +58,75 @@
     <t>GOOGL</t>
   </si>
   <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
     <t>DIS</t>
   </si>
   <si>
-    <t>BAC</t>
-  </si>
-  <si>
-    <t>FB</t>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>UNH</t>
   </si>
   <si>
     <t>MA</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
     <t>INTC</t>
   </si>
   <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
     <t>TSLA</t>
   </si>
   <si>
-    <t>CMCSA</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
+    <t>CSCO</t>
+  </si>
+  <si>
     <t>ABT</t>
   </si>
   <si>
     <t>NKE</t>
   </si>
   <si>
-    <t>CSCO</t>
-  </si>
-  <si>
     <t>CVX</t>
   </si>
   <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
     <t>MRK</t>
   </si>
   <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>ABBV</t>
-  </si>
-  <si>
-    <t>PEP</t>
-  </si>
-  <si>
     <t>NVDA</t>
   </si>
   <si>
@@ -136,18 +136,12 @@
     <t>PYPL</t>
   </si>
   <si>
-    <t>CRM</t>
+    <t>ADBE</t>
   </si>
   <si>
     <t>AVGO</t>
   </si>
   <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>TMO</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -163,12 +157,12 @@
     <t>Amazon.com Inc</t>
   </si>
   <si>
+    <t>Visa Inc</t>
+  </si>
+  <si>
     <t>JPMorgan Chase &amp; Co</t>
   </si>
   <si>
-    <t>Visa Inc</t>
-  </si>
-  <si>
     <t>Johnson &amp; Johnson</t>
   </si>
   <si>
@@ -178,75 +172,75 @@
     <t>Alphabet Inc</t>
   </si>
   <si>
+    <t>Facebook Inc</t>
+  </si>
+  <si>
+    <t>Bank of America Corp</t>
+  </si>
+  <si>
     <t>Walt Disney Co</t>
   </si>
   <si>
-    <t>Bank of America Corp</t>
-  </si>
-  <si>
-    <t>Facebook Inc</t>
+    <t>Procter &amp; Gamble Co</t>
+  </si>
+  <si>
+    <t>Home Depot Inc</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group Inc</t>
   </si>
   <si>
     <t>Mastercard Inc</t>
   </si>
   <si>
-    <t>Procter &amp; Gamble Co</t>
-  </si>
-  <si>
-    <t>UnitedHealth Group Inc</t>
-  </si>
-  <si>
-    <t>Home Depot Inc</t>
-  </si>
-  <si>
     <t>Intel Corp</t>
   </si>
   <si>
+    <t>Comcast Corp</t>
+  </si>
+  <si>
+    <t>Verizon Communications Inc</t>
+  </si>
+  <si>
+    <t>Exxon Mobil Corp</t>
+  </si>
+  <si>
     <t>Tesla Inc</t>
   </si>
   <si>
-    <t>Comcast Corp</t>
-  </si>
-  <si>
-    <t>Exxon Mobil Corp</t>
-  </si>
-  <si>
-    <t>Verizon Communications Inc</t>
-  </si>
-  <si>
     <t>Coca-Cola Co</t>
   </si>
   <si>
     <t>AT&amp;T Inc</t>
   </si>
   <si>
+    <t>Cisco Systems Inc</t>
+  </si>
+  <si>
     <t>Abbott Laboratories</t>
   </si>
   <si>
     <t>Nike Inc</t>
   </si>
   <si>
-    <t>Cisco Systems Inc</t>
-  </si>
-  <si>
     <t>Chevron Corp</t>
   </si>
   <si>
+    <t>Pfizer Inc</t>
+  </si>
+  <si>
+    <t>Oracle Corp</t>
+  </si>
+  <si>
+    <t>PepsiCo Inc</t>
+  </si>
+  <si>
+    <t>Abbvie Inc</t>
+  </si>
+  <si>
     <t>Merck &amp; Co Inc</t>
   </si>
   <si>
-    <t>Pfizer Inc</t>
-  </si>
-  <si>
-    <t>Oracle Corp</t>
-  </si>
-  <si>
-    <t>Abbvie Inc</t>
-  </si>
-  <si>
-    <t>PepsiCo Inc</t>
-  </si>
-  <si>
     <t>NVIDIA Corp</t>
   </si>
   <si>
@@ -256,18 +250,12 @@
     <t>PayPal Holdings Inc</t>
   </si>
   <si>
-    <t>Salesforce.Com Inc</t>
+    <t>Adobe Inc</t>
   </si>
   <si>
     <t>Broadcom Inc</t>
   </si>
   <si>
-    <t>Adobe Inc</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific Inc</t>
-  </si>
-  <si>
     <t>Information Technology</t>
   </si>
   <si>
@@ -290,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -709,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,16 +729,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08025082854416174</v>
+        <v>0.06293148555547626</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02021325559987708</v>
+        <v>0.002929907595221826</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -758,16 +746,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07052757277418033</v>
+        <v>0.05679053854586886</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01026653504442243</v>
+        <v>0.00898319522961355</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -775,16 +763,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05407306901317391</v>
+        <v>0.2873830822643693</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009487305984592576</v>
+        <v>0.01499732190680225</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -792,16 +780,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04835904210606394</v>
+        <v>0.03666437717484772</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02209559603552247</v>
+        <v>0.008195664364603505</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -809,16 +797,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04319935671759468</v>
+        <v>0.03191405730751583</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007478081485301713</v>
+        <v>0.01867610175564316</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -826,16 +814,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03881856366917216</v>
+        <v>0.02954159110922195</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008246488445854405</v>
+        <v>0.00850807262008435</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -843,16 +831,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03821937061570752</v>
+        <v>0.02928673075851079</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01055408970976257</v>
+        <v>0.0006607400288323184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -860,16 +848,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03481226627916506</v>
+        <v>0.02476741244288043</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0005010378641472357</v>
+        <v>0.002912138646210538</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -877,16 +865,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03298537239012805</v>
+        <v>0.02505734632761957</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008993836733424354</v>
+        <v>-0.0002895994313321104</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -894,16 +882,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02745617484711271</v>
+        <v>0.02329311458149742</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003042921204356119</v>
+        <v>-0.003898893110854007</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -911,16 +899,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03142245763252201</v>
+        <v>0.02177153891562528</v>
       </c>
       <c r="E12" s="1">
-        <v>0.007304785894206578</v>
+        <v>0.01680672268907579</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -928,16 +916,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03211633725950381</v>
+        <v>0.02210721132749807</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001789023065618789</v>
+        <v>0.001750642814158487</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -945,16 +933,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02768336399409661</v>
+        <v>0.0227180845408506</v>
       </c>
       <c r="E14" s="1">
-        <v>0.006194737120770899</v>
+        <v>-0.006533575317604345</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -962,16 +950,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03017804740162308</v>
+        <v>0.02137132680320569</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.006484044878332873</v>
+        <v>0.006142733670823519</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -979,16 +967,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02674162833643753</v>
+        <v>0.02179891606287596</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03126969771712029</v>
+        <v>0.005749880210828895</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -996,16 +984,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02765229038173494</v>
+        <v>0.02070492965667408</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01526571891995054</v>
+        <v>0.01717866340971241</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1013,16 +1001,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02358663066622559</v>
+        <v>0.01654503260354361</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01804623415361695</v>
+        <v>0.01594896331738438</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1030,16 +1018,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02004541144614101</v>
+        <v>0.01667345231434198</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.009915179877157065</v>
+        <v>0.00913958641063517</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1047,16 +1035,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02150103429691336</v>
+        <v>0.01604971514023311</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01398858825694815</v>
+        <v>-0.004281555060798081</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1064,16 +1052,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02052031005015898</v>
+        <v>0.01580551978262765</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.002321428571428585</v>
+        <v>0.01284138180502814</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1081,16 +1069,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02110660462302066</v>
+        <v>0.01581035751145909</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.001909722222222188</v>
+        <v>0.03495180739648673</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1098,16 +1086,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02024357901176826</v>
+        <v>0.01548535009269198</v>
       </c>
       <c r="E23" s="1">
-        <v>0.001129518072289226</v>
+        <v>0.008122577072180004</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1115,16 +1103,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01934772090443561</v>
+        <v>0.0141313357617999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.001333333333333409</v>
+        <v>0.007360321177651397</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1132,16 +1120,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01755659098434316</v>
+        <v>0.01423556682844105</v>
       </c>
       <c r="E25" s="1">
-        <v>0.009350475872432762</v>
+        <v>0.002703224560725914</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1149,16 +1137,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01763456816253376</v>
+        <v>0.0145131864943365</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01324057450628358</v>
+        <v>0.0216666666666665</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1166,16 +1154,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01902159454828129</v>
+        <v>0.01257798501337577</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003467539973030176</v>
+        <v>0.02194949256549461</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1183,16 +1171,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01661001839645797</v>
+        <v>0.01336928352246471</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0009706853038243812</v>
+        <v>0.01381624395539327</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1200,16 +1188,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01770375092213144</v>
+        <v>0.01459037025887456</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0108623658762752</v>
+        <v>0.01281065846784535</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1217,16 +1205,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01739360109308761</v>
+        <v>0.01393969573104514</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01779755283648488</v>
+        <v>-0.03255931347804142</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1234,16 +1222,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01875790856413675</v>
+        <v>0.01281646305508953</v>
       </c>
       <c r="E31" s="1">
-        <v>0.00398512221041436</v>
+        <v>0.008715942625763473</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1251,16 +1239,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0155514635451562</v>
+        <v>0.01318643936231257</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01357210179076351</v>
+        <v>0.01623406401907723</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1268,16 +1256,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01671408568314092</v>
+        <v>0.0129579666234093</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0002104672372666982</v>
+        <v>0.008400152730049681</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1285,16 +1273,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008393979399660743</v>
+        <v>0.006672217594006141</v>
       </c>
       <c r="E34" s="1">
-        <v>0.005797303904449436</v>
+        <v>0.01247425228639676</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1302,16 +1290,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.008128681105440834</v>
+        <v>0.006042433258857964</v>
       </c>
       <c r="E35" s="1">
-        <v>0.00131631144289357</v>
+        <v>-0.07400331168004093</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1319,16 +1307,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007753745726095784</v>
+        <v>0.005814730158632425</v>
       </c>
       <c r="E36" s="1">
-        <v>0.008582230623818354</v>
+        <v>0.001739590817985803</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1336,16 +1324,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
       <c r="D37" s="1">
-        <v>0.00657969084394026</v>
+        <v>0.005653655778221797</v>
       </c>
       <c r="E37" s="1">
-        <v>0.03042993985297393</v>
+        <v>-0.003636646506291252</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1353,161 +1341,127 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.007115857230822272</v>
+        <v>0.005027499739697203</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.000803328664414682</v>
+        <v>0.005532957179722686</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
       <c r="D39" s="1">
-        <v>0.007326336982479616</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E39" s="1">
-        <v>0.008402688860435381</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
+        <v>0.008982013214255957</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="1">
-        <v>0.006911093851250327</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.01563063349663851</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.007586944920116911</v>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06293148555547626</v>
+        <v>0.06246348000091403</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002929907595221826</v>
+        <v>-0.01168539325842699</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05679053854586886</v>
+        <v>0.05670841779858262</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00898319522961355</v>
+        <v>-0.01308619234016406</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2873830822643693</v>
+        <v>0.2901252098709818</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01499732190680225</v>
+        <v>-0.01706484641638228</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03666437717484772</v>
+        <v>0.03658278356113109</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008195664364603505</v>
+        <v>-0.01575838335286528</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03191405730751583</v>
+        <v>0.03217405118730122</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01867610175564316</v>
+        <v>0.0005275884809847753</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02954159110922195</v>
+        <v>0.02948498232350436</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00850807262008435</v>
+        <v>-0.02105752623887336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02928673075851079</v>
+        <v>0.02900316316237894</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0006607400288323184</v>
+        <v>-0.008463893390959876</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02476741244288043</v>
+        <v>0.02458278791360769</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002912138646210538</v>
+        <v>-0.0108356940509915</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02505734632761957</v>
+        <v>0.02479116273148375</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0002895994313321104</v>
+        <v>-0.01133715188623341</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02329311458149742</v>
+        <v>0.02296246968228009</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003898893110854007</v>
+        <v>-0.01641954423325709</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02177153891562528</v>
+        <v>0.02190862628221241</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01680672268907579</v>
+        <v>-0.009297520661157077</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02210721132749807</v>
+        <v>0.02191700479969359</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001750642814158487</v>
+        <v>-0.00191141936540884</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0227180845408506</v>
+        <v>0.02233636592141386</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.006533575317604345</v>
+        <v>-0.01622214103032527</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02137132680320569</v>
+        <v>0.02128034628303938</v>
       </c>
       <c r="E15" s="1">
-        <v>0.006142733670823519</v>
+        <v>-0.01377511888326433</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02179891606287596</v>
+        <v>0.02169763997836819</v>
       </c>
       <c r="E16" s="1">
-        <v>0.005749880210828895</v>
+        <v>-0.0056919335021689</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02070492965667408</v>
+        <v>0.02084292238337267</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01717866340971241</v>
+        <v>0.0006786739754633953</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01654503260354361</v>
+        <v>0.01663516561717575</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01594896331738438</v>
+        <v>-0.0177394034536893</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01667345231434198</v>
+        <v>0.0166519226521381</v>
       </c>
       <c r="E19" s="1">
-        <v>0.00913958641063517</v>
+        <v>-0.004665629860031162</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01604971514023311</v>
+        <v>0.01581581189466572</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.004281555060798081</v>
+        <v>-0.01479188166494672</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01580551978262765</v>
+        <v>0.01584301487350071</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01284138180502814</v>
+        <v>-0.01303571428571426</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01581035751145909</v>
+        <v>0.0161938244885568</v>
       </c>
       <c r="E22" s="1">
-        <v>0.03495180739648673</v>
+        <v>-0.0328307262269526</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01548535009269198</v>
+        <v>0.01544976861146203</v>
       </c>
       <c r="E23" s="1">
-        <v>0.008122577072180004</v>
+        <v>-0.003112982970151834</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0141313357617999</v>
+        <v>0.01408820511481289</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007360321177651397</v>
+        <v>0.04151444702756568</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01423556682844105</v>
+        <v>0.01412650690901257</v>
       </c>
       <c r="E25" s="1">
-        <v>0.002703224560725914</v>
+        <v>-0.008280377431157282</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0145131864943365</v>
+        <v>0.01467437490274935</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0216666666666665</v>
+        <v>0.007340946166394913</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01257798501337577</v>
+        <v>0.01272120102239676</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02194949256549461</v>
+        <v>-0.005542725173210195</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01336928352246471</v>
+        <v>0.01341389767545106</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01381624395539327</v>
+        <v>-0.01732697362016933</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01459037025887456</v>
+        <v>0.01462453904552364</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01281065846784535</v>
+        <v>-0.02251454591449531</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01393969573104514</v>
+        <v>0.01334643428794027</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.03255931347804142</v>
+        <v>-0.02334985650926158</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01281646305508953</v>
+        <v>0.0127945402533359</v>
       </c>
       <c r="E31" s="1">
-        <v>0.008715942625763473</v>
+        <v>-0.006191318546741043</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01318643936231257</v>
+        <v>0.01326199624163645</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01623406401907723</v>
+        <v>-0.006768953068592043</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0129579666234093</v>
+        <v>0.01293175207857962</v>
       </c>
       <c r="E33" s="1">
-        <v>0.008400152730049681</v>
+        <v>-0.01602928183768793</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006672217594006141</v>
+        <v>0.006685621702318892</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01247425228639676</v>
+        <v>-0.03321831971615508</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.006042433258857964</v>
+        <v>0.00553743837165145</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.07400331168004093</v>
+        <v>-0.0002358027117311812</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005814730158632425</v>
+        <v>0.005764637650881323</v>
       </c>
       <c r="E36" s="1">
-        <v>0.001739590817985803</v>
+        <v>-0.009890898108648849</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005653655778221797</v>
+        <v>0.005574869670528403</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.003636646506291252</v>
+        <v>-0.009856735761408442</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.005027499739697203</v>
+        <v>0.005003063055416822</v>
       </c>
       <c r="E38" s="1">
-        <v>0.005532957179722686</v>
+        <v>-0.01017855977728965</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.008982013214255957</v>
+        <v>-0.01230749812027399</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06246348000091403</v>
+        <v>0.06254140732772734</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01168539325842699</v>
+        <v>0.01803850234955262</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05670841779858262</v>
+        <v>0.05669868870089519</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01308619234016406</v>
+        <v>0.01547614418478038</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2901252098709818</v>
+        <v>0.2882887014243129</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01706484641638228</v>
+        <v>0.02596359743040688</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03658278356113109</v>
+        <v>0.03647747187829261</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01575838335286528</v>
+        <v>0.009622126054686708</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03217405118730122</v>
+        <v>0.03261227352327552</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0005275884809847753</v>
+        <v>0.01067803313266258</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02948498232350436</v>
+        <v>0.02924181350260851</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02105752623887336</v>
+        <v>0.01913550926240082</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02900316316237894</v>
+        <v>0.02913400287627287</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008463893390959876</v>
+        <v>0.002058360576340901</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02458278791360769</v>
+        <v>0.02463461788188056</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0108356940509915</v>
+        <v>0.001646738741319043</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02479116273148375</v>
+        <v>0.02483083763124401</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01133715188623341</v>
+        <v>0.02104753786869806</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02296246968228009</v>
+        <v>0.02288098654880547</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01641954423325709</v>
+        <v>0.01554701200593556</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02190862628221241</v>
+        <v>0.02198895833990155</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.009297520661157077</v>
+        <v>0.02137643378519294</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02191700479969359</v>
+        <v>0.02216136715338718</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.00191141936540884</v>
+        <v>0.001422630772597966</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02233636592141386</v>
+        <v>0.02226157150853964</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01622214103032527</v>
+        <v>-0.005125157840005889</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02128034628303938</v>
+        <v>0.02126184290911432</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01377511888326433</v>
+        <v>0.007559260872270324</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02169763997836819</v>
+        <v>0.0218564548911741</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0056919335021689</v>
+        <v>0.009507237605285601</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02084292238337267</v>
+        <v>0.02113000087527237</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0006786739754633953</v>
+        <v>0.009651502504173459</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01663516561717575</v>
+        <v>0.01655389175416267</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0177394034536893</v>
+        <v>-0.05322039315966121</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0166519226521381</v>
+        <v>0.01679111922642679</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.004665629860031162</v>
+        <v>-0.0001838235294117085</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01581581189466572</v>
+        <v>0.01578576860047477</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01479188166494672</v>
+        <v>0.0003491620111730764</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01584301487350071</v>
+        <v>0.01584110697922782</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01303571428571426</v>
+        <v>0.005427899402931091</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0161938244885568</v>
+        <v>0.01586712263139062</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.0328307262269526</v>
+        <v>0.01349192013227918</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01544976861146203</v>
+        <v>0.01560321809207821</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003112982970151834</v>
+        <v>0.0005510653930933529</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01408820511481289</v>
+        <v>0.01486507907986607</v>
       </c>
       <c r="E24" s="1">
-        <v>0.04151444702756568</v>
+        <v>0.001275510204081565</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01412650690901257</v>
+        <v>0.0141928610845749</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.008280377431157282</v>
+        <v>0.007961165048543606</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01467437490274935</v>
+        <v>0.01497553536574369</v>
       </c>
       <c r="E26" s="1">
-        <v>0.007340946166394913</v>
+        <v>-0.001538461538461489</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01272120102239676</v>
+        <v>0.01281623623623182</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.005542725173210195</v>
+        <v>0.007818547762811434</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01341389767545106</v>
+        <v>0.01335396653813906</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01732697362016933</v>
+        <v>0.005943536404160232</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01462453904552364</v>
+        <v>0.01448234033279311</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02251454591449531</v>
+        <v>0.0005175983436851439</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01334643428794027</v>
+        <v>0.01320536866053124</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02334985650926158</v>
+        <v>0.001335648457325922</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0127945402533359</v>
+        <v>0.0128817163098958</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.006191318546741043</v>
+        <v>-0.001643047853768564</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01326199624163645</v>
+        <v>0.01334459649392788</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.006768953068592043</v>
+        <v>0.01208541572012711</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01293175207857962</v>
+        <v>0.01289097611829273</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01602928183768793</v>
+        <v>-0.001026167265264277</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006685621702318892</v>
+        <v>0.006548117602212301</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.03321831971615508</v>
+        <v>0.02794565748051392</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00553743837165145</v>
+        <v>0.005608577757367004</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0002358027117311812</v>
+        <v>-0.006348519988993218</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005764637650881323</v>
+        <v>0.005782309400623626</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.009890898108648849</v>
+        <v>0.01433637091546869</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005574869670528403</v>
+        <v>0.005592152621043885</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.009856735761408442</v>
+        <v>0.01685426481893981</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.005003063055416822</v>
+        <v>0.005016942142291948</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01017855977728965</v>
+        <v>0.02421392630353103</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01230749812027399</v>
+        <v>0.01300484971441218</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06254140732772734</v>
+        <v>0.06299132906211981</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01803850234955262</v>
+        <v>0.002977963073258039</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05669868870089519</v>
+        <v>0.05696284327801913</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01547614418478038</v>
+        <v>0.00153168677005544</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2882887014243129</v>
+        <v>0.2904090734840309</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02596359743040688</v>
+        <v>0.004206098843322792</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03647747187829261</v>
+        <v>0.0364361523742425</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009622126054686708</v>
+        <v>0.02038983740810796</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03261227352327552</v>
+        <v>0.03260940099584093</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01067803313266258</v>
+        <v>0.001478260869565151</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02924181350260851</v>
+        <v>0.02948391533116265</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01913550926240082</v>
+        <v>0.002463546174845233</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02913400287627287</v>
+        <v>0.02888298623588812</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002058360576340901</v>
+        <v>-0.008458192363460681</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02463461788188056</v>
+        <v>0.02441233551474594</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001646738741319043</v>
+        <v>-0.01422444603288064</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02483083763124401</v>
+        <v>0.02508339118139279</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02104753786869806</v>
+        <v>0.004347958416125675</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02288098654880547</v>
+        <v>0.02298919145590069</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01554701200593556</v>
+        <v>0.006342775545445711</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02198895833990155</v>
+        <v>0.02221976227855735</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02137643378519294</v>
+        <v>0.005870342011230045</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02216136715338718</v>
+        <v>0.0219564877166712</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001422630772597966</v>
+        <v>0.006829854660692858</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02226157150853964</v>
+        <v>0.02191155436145285</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.005125157840005889</v>
+        <v>-0.02000895923547863</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02126184290911432</v>
+        <v>0.02119436566262793</v>
       </c>
       <c r="E15" s="1">
-        <v>0.007559260872270324</v>
+        <v>-0.01204112507332733</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0218564548911741</v>
+        <v>0.02182921289739981</v>
       </c>
       <c r="E16" s="1">
-        <v>0.009507237605285601</v>
+        <v>-0.01111638480177846</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02113000087527237</v>
+        <v>0.02110668018302708</v>
       </c>
       <c r="E17" s="1">
-        <v>0.009651502504173459</v>
+        <v>0.001059267297059963</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01655389175416267</v>
+        <v>0.01550593376583505</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.05322039315966121</v>
+        <v>-0.008102633355840605</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01679111922642679</v>
+        <v>0.01660920032260404</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0001838235294117085</v>
+        <v>-0.001287001287001321</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01578576860047477</v>
+        <v>0.01562306586171978</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0003491620111730764</v>
+        <v>-0.006282722513089034</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01584110697922782</v>
+        <v>0.01575742968120766</v>
       </c>
       <c r="E21" s="1">
-        <v>0.005427899402931091</v>
+        <v>0.001979485333813313</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01586712263139062</v>
+        <v>0.01590989771663303</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01349192013227918</v>
+        <v>0.01206471072114068</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01560321809207821</v>
+        <v>0.01544551367168222</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0005510653930933529</v>
+        <v>-0.01487057095648991</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01486507907986607</v>
+        <v>0.01472548937277071</v>
       </c>
       <c r="E24" s="1">
-        <v>0.001275510204081565</v>
+        <v>-0.01560509554140121</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0141928610845749</v>
+        <v>0.0141534615860711</v>
       </c>
       <c r="E25" s="1">
-        <v>0.007961165048543606</v>
+        <v>-0.005201309959545375</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01497553536574369</v>
+        <v>0.01479321659022361</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.001538461538461489</v>
+        <v>-0.005920038926283455</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01281623623623182</v>
+        <v>0.01277884991332334</v>
       </c>
       <c r="E27" s="1">
-        <v>0.007818547762811434</v>
+        <v>0.01083032490974722</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01335396653813906</v>
+        <v>0.01329023948278654</v>
       </c>
       <c r="E28" s="1">
-        <v>0.005943536404160232</v>
+        <v>-0.0002954209748891046</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01448234033279311</v>
+        <v>0.01433548529932212</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0005175983436851439</v>
+        <v>0.0005173305742369738</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01320536866053124</v>
+        <v>0.0130821500610472</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001335648457325922</v>
+        <v>-0.006269174336401173</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0128817163098958</v>
+        <v>0.01272355571163474</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.001643047853768564</v>
+        <v>-0.01693753000068576</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01334459649392788</v>
+        <v>0.01336200197728575</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01208541572012711</v>
+        <v>8.978272580373314E-05</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01289097611829273</v>
+        <v>0.01274056931215431</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001026167265264277</v>
+        <v>-0.004494093477144134</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006548117602212301</v>
+        <v>0.006659406803368038</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02794565748051392</v>
+        <v>0.0139368827893418</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005608577757367004</v>
+        <v>0.005513606245300129</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.006348519988993218</v>
+        <v>0.009395707645138973</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005782309400623626</v>
+        <v>0.005802728392591012</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01433637091546869</v>
+        <v>0.0213885651994139</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005592152621043885</v>
+        <v>0.005625830571804211</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01685426481893981</v>
+        <v>-0.0002714019851116634</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.005016942142291948</v>
+        <v>0.005083685647555631</v>
       </c>
       <c r="E38" s="1">
-        <v>0.02421392630353103</v>
+        <v>0.01227125480016311</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01300484971441218</v>
+        <v>0.0008650761494950476</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06299132906211981</v>
+        <v>0.06307138765741144</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002977963073258039</v>
+        <v>-0.002449524940617676</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05696284327801913</v>
+        <v>0.05695299619467755</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00153168677005544</v>
+        <v>0.001605811508315957</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2904090734840309</v>
+        <v>0.2919725671865165</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004206098843322792</v>
+        <v>0.02218741842860861</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0364361523742425</v>
+        <v>0.03711580271987302</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02038983740810796</v>
+        <v>0.002472865943091707</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03260940099584093</v>
+        <v>0.03260202463491996</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001478260869565151</v>
+        <v>-0.001866805591734022</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02948391533116265</v>
+        <v>0.02950624659286403</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002463546174845233</v>
+        <v>0.004582890541976692</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02888298623588812</v>
+        <v>0.02858994681084452</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008458192363460681</v>
+        <v>-0.005727516451377035</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02441233551474594</v>
+        <v>0.02402412603389939</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01422444603288064</v>
+        <v>0.003408019723007749</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02508339118139279</v>
+        <v>0.02514957646720923</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004347958416125675</v>
+        <v>-0.008203711800790381</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02298919145590069</v>
+        <v>0.02309563214831688</v>
       </c>
       <c r="E11" s="1">
-        <v>0.006342775545445711</v>
+        <v>0.001748944033790778</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02221976227855735</v>
+        <v>0.0223121609943943</v>
       </c>
       <c r="E12" s="1">
-        <v>0.005870342011230045</v>
+        <v>0.01192590713017028</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0219564877166712</v>
+        <v>0.02206882330275771</v>
       </c>
       <c r="E13" s="1">
-        <v>0.006829854660692858</v>
+        <v>0.00200792315623799</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02191155436145285</v>
+        <v>0.02143658080820123</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02000895923547863</v>
+        <v>-0.0006094773731524228</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02119436566262793</v>
+        <v>0.02090352428101878</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01204112507332733</v>
+        <v>0.001875058595581125</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02182921289739981</v>
+        <v>0.02154981176985763</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01111638480177846</v>
+        <v>-0.003435558025564722</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02110668018302708</v>
+        <v>0.02109307726586858</v>
       </c>
       <c r="E17" s="1">
-        <v>0.001059267297059963</v>
+        <v>0.004129351949828219</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01550593376583505</v>
+        <v>0.01535411840060831</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.008102633355840605</v>
+        <v>-0.01344452008168828</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01660920032260404</v>
+        <v>0.01655959263855033</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001287001287001321</v>
+        <v>-0.0003681885125185191</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01562306586171978</v>
+        <v>0.01549848787672022</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.006282722513089034</v>
+        <v>-0.01088865472427114</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01575742968120766</v>
+        <v>0.01576174986257136</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001979485333813313</v>
+        <v>0.01311063218390784</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01590989771663303</v>
+        <v>0.01607444151822251</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01206471072114068</v>
+        <v>-0.04532646979138455</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01544551367168222</v>
+        <v>0.01518993350620652</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01487057095648991</v>
+        <v>-0.001490868430860881</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01472548937277071</v>
+        <v>0.01447102577561303</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01560509554140121</v>
+        <v>-0.004529278550631011</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0141534615860711</v>
+        <v>0.01405588187484778</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.005201309959545375</v>
+        <v>-0.005228505034856723</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01479321659022361</v>
+        <v>0.01468061193060205</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.005920038926283455</v>
+        <v>-0.00717898515255333</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01277884991332334</v>
+        <v>0.01289526451786964</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01083032490974722</v>
+        <v>0.003875379939209944</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01329023948278654</v>
+        <v>0.01326370064695163</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0002954209748891046</v>
+        <v>0.01162332545311284</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01433548529932212</v>
+        <v>0.01431849060515089</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0005173305742369738</v>
+        <v>-0.005946225439503405</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0130821500610472</v>
+        <v>0.01297801022061855</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.006269174336401173</v>
+        <v>0.009664429530201302</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01272355571163474</v>
+        <v>0.01248676204850923</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01693753000068576</v>
+        <v>-0.003278459821428714</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01336200197728575</v>
+        <v>0.01334045817384371</v>
       </c>
       <c r="E32" s="1">
-        <v>8.978272580373314E-05</v>
+        <v>0.0004488733279468526</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01274056931215431</v>
+        <v>0.01266172565945331</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.004494093477144134</v>
+        <v>-0.002192699600154779</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006659406803368038</v>
+        <v>0.006740726248145434</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0139368827893418</v>
+        <v>-0.006218503682646426</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005513606245300129</v>
+        <v>0.005555938435890643</v>
       </c>
       <c r="E35" s="1">
-        <v>0.009395707645138973</v>
+        <v>-0.009308250048990829</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005802728392591012</v>
+        <v>0.00591675325024576</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0213885651994139</v>
+        <v>-0.01067275136169599</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005625830571804211</v>
+        <v>0.005614731435212237</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0002714019851116634</v>
+        <v>0.003141361256544517</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.005083685647555631</v>
+        <v>0.005137310505535959</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01227125480016311</v>
+        <v>-0.01165624668856624</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0008650761494950476</v>
+        <v>0.005495403421774459</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06307138765741144</v>
+        <v>0.06262049289783393</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002449524940617676</v>
+        <v>-0.006027234169208806</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05695299619467755</v>
+        <v>0.05677571706243909</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001605811508315957</v>
+        <v>-0.02828568156659172</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2919725671865165</v>
+        <v>0.2962861503075179</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02218741842860861</v>
+        <v>0.003584229390680926</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03711580271987302</v>
+        <v>0.03703230117202183</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002472865943091707</v>
+        <v>0.01201780285185072</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03260202463491996</v>
+        <v>0.03238786243228801</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001866805591734022</v>
+        <v>0.01539732938976113</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02950624659286403</v>
+        <v>0.02950183030547208</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004582890541976692</v>
+        <v>0.006479338842975135</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02858994681084452</v>
+        <v>0.02829228235370099</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.005727516451377035</v>
+        <v>-0.007353842382645026</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02402412603389939</v>
+        <v>0.02399243799549665</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003408019723007749</v>
+        <v>-0.003540974129209506</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02514957646720923</v>
+        <v>0.02482574956592486</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.008203711800790381</v>
+        <v>0.02970781063125827</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02309563214831688</v>
+        <v>0.0230270319121488</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001748944033790778</v>
+        <v>0.01162829001548271</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0223121609943943</v>
+        <v>0.02247188819624455</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01192590713017028</v>
+        <v>0.003761283851554609</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02206882330275771</v>
+        <v>0.022008961404454</v>
       </c>
       <c r="E13" s="1">
-        <v>0.00200792315623799</v>
+        <v>-0.006769930675909919</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02143658080820123</v>
+        <v>0.02132259007973459</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0006094773731524228</v>
+        <v>0.001677084921481997</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02090352428101878</v>
+        <v>0.02084405901406346</v>
       </c>
       <c r="E15" s="1">
-        <v>0.001875058595581125</v>
+        <v>-0.002744939018684445</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02154981176985763</v>
+        <v>0.02137460432600318</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.003435558025564722</v>
+        <v>0.0002281368821290819</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02109307726586858</v>
+        <v>0.02108039874554641</v>
       </c>
       <c r="E17" s="1">
-        <v>0.004129351949828219</v>
+        <v>0.01691212378235285</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01535411840060831</v>
+        <v>0.01507632928095397</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01344452008168828</v>
+        <v>-0.006037605658099077</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01655959263855033</v>
+        <v>0.01647551250557934</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0003681885125185191</v>
+        <v>-0.003683241252302016</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01549848787672022</v>
+        <v>0.0152575122387896</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01088865472427114</v>
+        <v>0.001953125</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01576174986257136</v>
+        <v>0.01589316967339712</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01311063218390784</v>
+        <v>0.03013650062045747</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01607444151822251</v>
+        <v>0.01527354996472242</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.04532646979138455</v>
+        <v>-0.01467207764565659</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01518993350620652</v>
+        <v>0.0150958346233047</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.001490868430860881</v>
+        <v>0.0001866368047780398</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01447102577561303</v>
+        <v>0.01433761862092678</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.004529278550631011</v>
+        <v>0.006174845628859282</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01405588187484778</v>
+        <v>0.01391651995217723</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.005228505034856723</v>
+        <v>-0.005061319836480394</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01468061193060205</v>
+        <v>0.01450655655828667</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.00717898515255333</v>
+        <v>-0.002054231717337762</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01289526451786964</v>
+        <v>0.01288425388977163</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003875379939209944</v>
+        <v>-0.01059722958140952</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01326370064695163</v>
+        <v>0.01335465772946328</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01162332545311284</v>
+        <v>0.02453748782862686</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01431849060515089</v>
+        <v>0.01416629669727958</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.005946225439503405</v>
+        <v>0.009362808842652726</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01297801022061855</v>
+        <v>0.0130417053477472</v>
       </c>
       <c r="E30" s="1">
-        <v>0.009664429530201302</v>
+        <v>-0.005982451475671446</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01248676204850923</v>
+        <v>0.0123871927488673</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.003278459821428714</v>
+        <v>-0.007418293792427533</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01334045817384371</v>
+        <v>0.01328357159289619</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0004488733279468526</v>
+        <v>0.00439698492462326</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01266172565945331</v>
+        <v>0.01257444403543427</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002192699600154779</v>
+        <v>-0.003490175801447726</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006740726248145434</v>
+        <v>0.0066672511045171</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.006218503682646426</v>
+        <v>-0.006826271393046812</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005555938435890643</v>
+        <v>0.005478292125227331</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.009308250048990829</v>
+        <v>0.001918702403323147</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.00591675325024576</v>
+        <v>0.00582602903413554</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01067275136169599</v>
+        <v>0.008444312179153313</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005614731435212237</v>
+        <v>0.005605835391598464</v>
       </c>
       <c r="E37" s="1">
-        <v>0.003141361256544517</v>
+        <v>-0.003556792700842859</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.005137310505535959</v>
+        <v>0.005053509114033758</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01165624668856624</v>
+        <v>-0.01533183231478508</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E39" s="1">
-        <v>0.005495403421774459</v>
+        <v>0.001410452977983256</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06262049289783393</v>
+        <v>0.06218365871294289</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006027234169208806</v>
+        <v>-0.0007486150621351939</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05677571706243909</v>
+        <v>0.0551171222609106</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02828568156659172</v>
+        <v>-0.008053111250785672</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2962861503075179</v>
+        <v>0.2966096236063067</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003584229390680926</v>
+        <v>0.01762902401635147</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03703230117202183</v>
+        <v>0.03744157906571325</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01201780285185072</v>
+        <v>0.00370391788347546</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03238786243228801</v>
+        <v>0.03285516155199648</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01539732938976113</v>
+        <v>0.01460698222317425</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02950183030547208</v>
+        <v>0.02966464318667732</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006479338842975135</v>
+        <v>0.0194442619720161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02829228235370099</v>
+        <v>0.02805742131936612</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.007353842382645026</v>
+        <v>0.01370539572786766</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02399243799549665</v>
+        <v>0.02388466369753916</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.003540974129209506</v>
+        <v>0.01261875407933877</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02482574956592486</v>
+        <v>0.02553887022673997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02970781063125827</v>
+        <v>0.01429395008138923</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0230270319121488</v>
+        <v>0.02327256397789903</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01162829001548271</v>
+        <v>0.07297297297297267</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02247188819624455</v>
+        <v>0.02253488313431432</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003761283851554609</v>
+        <v>0.02697976517611789</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.022008961404454</v>
+        <v>0.02183909875190767</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.006769930675909919</v>
+        <v>0.01057854844866135</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02132259007973459</v>
+        <v>0.0213379651116151</v>
       </c>
       <c r="E14" s="1">
-        <v>0.001677084921481997</v>
+        <v>0.008447488584474749</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02084405901406346</v>
+        <v>0.02076700403602576</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002744939018684445</v>
+        <v>0.01760970879859891</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02137460432600318</v>
+        <v>0.02135907573158853</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0002281368821290819</v>
+        <v>0.01763856154489485</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02108039874554641</v>
+        <v>0.02141645331408045</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01691212378235285</v>
+        <v>-0.0169341589788955</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01507632928095397</v>
+        <v>0.01497100212762571</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.006037605658099077</v>
+        <v>0.01145435612634516</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01647551250557934</v>
+        <v>0.01639916263372631</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003683241252302016</v>
+        <v>0.04251386321626627</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0152575122387896</v>
+        <v>0.01527272160386149</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001953125</v>
+        <v>0.01577175261385788</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01589316967339712</v>
+        <v>0.016356508355421</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03013650062045747</v>
+        <v>0.01428325589399426</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01527354996472242</v>
+        <v>0.01503509180467329</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01467207764565659</v>
+        <v>-0.0250576036866359</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0150958346233047</v>
+        <v>0.01508424165835504</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0001866368047780398</v>
+        <v>0.01250233252472466</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01433761862092678</v>
+        <v>0.01441238264525162</v>
       </c>
       <c r="E24" s="1">
-        <v>0.006174845628859282</v>
+        <v>0.0122739018087854</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01391651995217723</v>
+        <v>0.0138328690620833</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.005061319836480394</v>
+        <v>0.006847974955977332</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01450655655828667</v>
+        <v>0.01446293987359827</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.002054231717337762</v>
+        <v>-0.003622890078221475</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01288425388977163</v>
+        <v>0.01273554986182288</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01059722958140952</v>
+        <v>0.01950883635529022</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01335465772946328</v>
+        <v>0.01366928882218655</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02453748782862686</v>
+        <v>0.01596654628397665</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01416629669727958</v>
+        <v>0.01428528588705255</v>
       </c>
       <c r="E29" s="1">
-        <v>0.009362808842652726</v>
+        <v>-0.005410976552434832</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0130417053477472</v>
+        <v>0.01295131122391039</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.005982451475671446</v>
+        <v>0.01471178280058849</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0123871927488673</v>
+        <v>0.01228356607521205</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.007418293792427533</v>
+        <v>0.01487696538108985</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01328357159289619</v>
+        <v>0.01332924545122976</v>
       </c>
       <c r="E32" s="1">
-        <v>0.00439698492462326</v>
+        <v>-0.009291521486643473</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01257444403543427</v>
+        <v>0.01251859764424968</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.003490175801447726</v>
+        <v>-0.04423401219354006</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0066672511045171</v>
+        <v>0.006615418742138325</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.006826271393046812</v>
+        <v>0.003142029554715542</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005478292125227331</v>
+        <v>0.00548356473279314</v>
       </c>
       <c r="E35" s="1">
-        <v>0.001918702403323147</v>
+        <v>0.004896154149885534</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.00582602903413554</v>
+        <v>0.005869618429333066</v>
       </c>
       <c r="E36" s="1">
-        <v>0.008444312179153313</v>
+        <v>-0.01195175034121487</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005605835391598464</v>
+        <v>0.005580565325081355</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.003556792700842859</v>
+        <v>0.001183363079071853</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.005053509114033758</v>
+        <v>0.004971280354771006</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01533183231478508</v>
+        <v>0.01543989547038338</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.001410452977983256</v>
+        <v>0.01160239673740238</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06218365871294289</v>
+        <v>0.06132337083018995</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0007486150621351939</v>
+        <v>-0.01513335331135734</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0551171222609106</v>
+        <v>0.05395726689594214</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008053111250785672</v>
+        <v>-0.001306878935487643</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2966096236063067</v>
+        <v>0.299531103209326</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01762902401635147</v>
+        <v>-0.02571785268414484</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03744157906571325</v>
+        <v>0.03708811535158071</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00370391788347546</v>
+        <v>-0.001120614407817189</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03285516155199648</v>
+        <v>0.0328985262129514</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01460698222317425</v>
+        <v>-0.01393228067212704</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02966464318667732</v>
+        <v>0.02984541374449778</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0194442619720161</v>
+        <v>-0.008892325536439261</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02805742131936612</v>
+        <v>0.02806948865174036</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01370539572786766</v>
+        <v>-0.008952496954933054</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02388466369753916</v>
+        <v>0.02386932217078263</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01261875407933877</v>
+        <v>0.002005299720690301</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02553887022673997</v>
+        <v>0.02556468851489734</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01429395008138923</v>
+        <v>-0.01640783028803572</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02327256397789903</v>
+        <v>0.02464381868127465</v>
       </c>
       <c r="E11" s="1">
-        <v>0.07297297297297267</v>
+        <v>-0.01344420503171362</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02253488313431432</v>
+        <v>0.02283979418414982</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02697976517611789</v>
+        <v>-0.01410848941863285</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02183909875190767</v>
+        <v>0.02178109837473259</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01057854844866135</v>
+        <v>0.003723088544757891</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0213379651116151</v>
+        <v>0.02123641866573985</v>
       </c>
       <c r="E14" s="1">
-        <v>0.008447488584474749</v>
+        <v>0.006867406233491691</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02076700403602576</v>
+        <v>0.02085595486744186</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01760970879859891</v>
+        <v>-0.005133091535009515</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02135907573158853</v>
+        <v>0.02145117076755927</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01763856154489485</v>
+        <v>-0.006848462208940309</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02141645331408045</v>
+        <v>0.02077806716484169</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0169341589788955</v>
+        <v>-0.01771435917213016</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01497100212762571</v>
+        <v>0.01494418208243083</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01145435612634516</v>
+        <v>-0.01286890871654078</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01639916263372631</v>
+        <v>0.01687246364145416</v>
       </c>
       <c r="E19" s="1">
-        <v>0.04251386321626627</v>
+        <v>-0.004432624113475225</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01527272160386149</v>
+        <v>0.01531043591578256</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01577175261385788</v>
+        <v>0.008199581297976266</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.016356508355421</v>
+        <v>0.01637287118965933</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01428325589399426</v>
+        <v>-0.02884289107567017</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01503509180467329</v>
+        <v>0.01446638536634305</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.0250576036866359</v>
+        <v>0.04791728212703106</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01508424165835504</v>
+        <v>0.01507281965983908</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01250233252472466</v>
+        <v>-0.005160339107998513</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01441238264525162</v>
+        <v>0.01439822027133768</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0122739018087854</v>
+        <v>0.002233567326100916</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0138328690620833</v>
+        <v>0.01374520293485992</v>
       </c>
       <c r="E25" s="1">
-        <v>0.006847974955977332</v>
+        <v>-0.01068791294209093</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01446293987359827</v>
+        <v>0.01422182439068899</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.003622890078221475</v>
+        <v>-0.007685315263201598</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01273554986182288</v>
+        <v>0.01281396944259222</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01950883635529022</v>
+        <v>-0.004802641452799072</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01366928882218655</v>
+        <v>0.01370567145343047</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01596654628397665</v>
+        <v>-0.03582787652011243</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01428528588705255</v>
+        <v>0.01402192330486604</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.005410976552434832</v>
+        <v>0.001295336787564549</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01295131122391039</v>
+        <v>0.01296974484779258</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01471178280058849</v>
+        <v>-0.001054435218136307</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01228356607521205</v>
+        <v>0.01230305175557707</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01487696538108985</v>
+        <v>0.001528414617201657</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01332924545122976</v>
+        <v>0.01303246100887119</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.009291521486643473</v>
+        <v>0.005500946884299696</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01251859764424968</v>
+        <v>0.01180816034481709</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.04423401219354006</v>
+        <v>0.01112920738327894</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006615418742138325</v>
+        <v>0.006549298054442116</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003142029554715542</v>
+        <v>-0.02057129806358993</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00548356473279314</v>
+        <v>0.005438249742591293</v>
       </c>
       <c r="E35" s="1">
-        <v>0.004896154149885534</v>
+        <v>0.008781925343811503</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005869618429333066</v>
+        <v>0.005723517459933509</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01195175034121487</v>
+        <v>-0.02075788687698343</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005580565325081355</v>
+        <v>0.005514000608357448</v>
       </c>
       <c r="E37" s="1">
-        <v>0.001183363079071853</v>
+        <v>-0.01501676064252366</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004971280354771006</v>
+        <v>0.004981928236685451</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01543989547038338</v>
+        <v>-0.02163889425035925</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01160239673740238</v>
+        <v>-0.01208370545456439</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06132337083018995</v>
+        <v>0.06099554034354354</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01513335331135734</v>
+        <v>0.00821542674577791</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05395726689594214</v>
+        <v>0.05442226785346257</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001306878935487643</v>
+        <v>-0.001268934887778461</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.299531103209326</v>
+        <v>0.2969939131570116</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02571785268414484</v>
+        <v>0.03001017293997976</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03708811535158071</v>
+        <v>0.03741471567936656</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001120614407817189</v>
+        <v>-0.02334012032000743</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0328985262129514</v>
+        <v>0.03276255917164552</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01393228067212704</v>
+        <v>-0.004067477307758138</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02984541374449778</v>
+        <v>0.02987397936667051</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008892325536439261</v>
+        <v>-0.002925687536570853</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02806948865174036</v>
+        <v>0.02809464873596309</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008952496954933054</v>
+        <v>0.01523996804522842</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02386932217078263</v>
+        <v>0.02415487190222206</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002005299720690301</v>
+        <v>0.01579586877278261</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02556468851489734</v>
+        <v>0.02539511606652474</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01640783028803572</v>
+        <v>-0.004427448480985752</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02464381868127465</v>
+        <v>0.02455411528206545</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01344420503171362</v>
+        <v>-0.007690414667158807</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02283979418414982</v>
+        <v>0.02274133453034411</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01410848941863285</v>
+        <v>0.0007401924500369805</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02178109837473259</v>
+        <v>0.02207945374873348</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003723088544757891</v>
+        <v>-0.002741640683797453</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02123641866573985</v>
+        <v>0.02159475070488037</v>
       </c>
       <c r="E14" s="1">
-        <v>0.006867406233491691</v>
+        <v>0.01184230250337293</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02085595486744186</v>
+        <v>0.02095509806820156</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.005133091535009515</v>
+        <v>0.02039113912318102</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02145117076755927</v>
+        <v>0.02151598106507343</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.006848462208940309</v>
+        <v>0.0178034102306921</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02077806716484169</v>
+        <v>0.02061282779769798</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01771435917213016</v>
+        <v>-0.006962257237083103</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01494418208243083</v>
+        <v>0.01489846809236118</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01286890871654078</v>
+        <v>-0.004693203545976021</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01687246364145416</v>
+        <v>0.0169646065348588</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.004432624113475225</v>
+        <v>0.007479964381122084</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01531043591578256</v>
+        <v>0.01558937494672259</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008199581297976266</v>
+        <v>0.002249524139124492</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01637287118965933</v>
+        <v>0.01605864777346283</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02884289107567017</v>
+        <v>0.02760307477288615</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01446638536634305</v>
+        <v>0.01531022829168074</v>
       </c>
       <c r="E22" s="1">
-        <v>0.04791728212703106</v>
+        <v>-0.03459066305818681</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01507281965983908</v>
+        <v>0.01514405672277295</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.005160339107998513</v>
+        <v>0.009262689885142672</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01439822027133768</v>
+        <v>0.01457378611129395</v>
       </c>
       <c r="E24" s="1">
-        <v>0.002233567326100916</v>
+        <v>0.002865329512893977</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01374520293485992</v>
+        <v>0.0137334327485317</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01068791294209093</v>
+        <v>0.00510705165979175</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01422182439068899</v>
+        <v>0.01425277285317663</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.007685315263201598</v>
+        <v>-0.004580279813457655</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01281396944259222</v>
+        <v>0.01287915981928302</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.004802641452799072</v>
+        <v>0.003091539737596127</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01370567145343047</v>
+        <v>0.01334595086285126</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.03582787652011243</v>
+        <v>0.02386727466770178</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01402192330486604</v>
+        <v>0.01417961420141073</v>
       </c>
       <c r="E29" s="1">
-        <v>0.001295336787564549</v>
+        <v>0.03053040103492899</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01296974484779258</v>
+        <v>0.01308482411171046</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.001054435218136307</v>
+        <v>0.02031930333817122</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01230305175557707</v>
+        <v>0.01244430824610225</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001528414617201657</v>
+        <v>0.01130688124306323</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01303246100887119</v>
+        <v>0.01323437852372747</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005500946884299696</v>
+        <v>0.02852017937219742</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01180816034481709</v>
+        <v>0.01205822910743208</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01112920738327894</v>
+        <v>0.01986577181208049</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006549298054442116</v>
+        <v>0.006478317307847938</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.02057129806358993</v>
+        <v>-0.0115093773943169</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005438249742591293</v>
+        <v>0.00554052697968067</v>
       </c>
       <c r="E35" s="1">
-        <v>0.008781925343811503</v>
+        <v>-0.008491245837147332</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005723517459933509</v>
+        <v>0.00566040789724986</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.02075788687698343</v>
+        <v>-0.01220023637958001</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005514000608357448</v>
+        <v>0.005485172424583465</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01501676064252366</v>
+        <v>-0.00959987410001184</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004981928236685451</v>
+        <v>0.004922562969852808</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.02163889425035925</v>
+        <v>-0.01328364752301625</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01208370545456439</v>
+        <v>0.01133700133692561</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06099554034354354</v>
+        <v>0.06065325471595705</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00821542674577791</v>
+        <v>-0.03538554398672089</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05442226785346257</v>
+        <v>0.05360778749639757</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001268934887778461</v>
+        <v>-0.0161597713015168</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2969939131570116</v>
+        <v>0.3042443081368644</v>
       </c>
       <c r="E4" s="1">
-        <v>0.03001017293997976</v>
+        <v>0.003917727717923647</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03741471567936656</v>
+        <v>0.03604030736891038</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02334012032000743</v>
+        <v>-0.02203461401037654</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03276255917164552</v>
+        <v>0.03218180672674929</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004067477307758138</v>
+        <v>-0.002493443961996578</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02987397936667051</v>
+        <v>0.02937807218852846</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002925687536570853</v>
+        <v>0.01382368283776714</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02809464873596309</v>
+        <v>0.02813163685310837</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01523996804522842</v>
+        <v>0.01549543005871312</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02415487190222206</v>
+        <v>0.0241999166488939</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01579586877278261</v>
+        <v>-0.009850830284266809</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02539511606652474</v>
+        <v>0.02493594352558151</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.004427448480985752</v>
+        <v>-0.01547108933540464</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02455411528206545</v>
+        <v>0.02403112853055576</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007690414667158807</v>
+        <v>-0.0130820261640523</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02274133453034411</v>
+        <v>0.02244605272063885</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0007401924500369805</v>
+        <v>0.01084812623274156</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02207945374873348</v>
+        <v>0.02171694338978477</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002741640683797453</v>
+        <v>-0.006792086679963338</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02159475070488037</v>
+        <v>0.02155081586599799</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01184230250337293</v>
+        <v>-0.003407407407407415</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02095509806820156</v>
+        <v>0.02108914949944639</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02039113912318102</v>
+        <v>0.007569564295879072</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02151598106507343</v>
+        <v>0.02159870656792243</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0178034102306921</v>
+        <v>0.01340231584134011</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02061282779769798</v>
+        <v>0.0201885914557028</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.006962257237083103</v>
+        <v>-0.009198734844491185</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01489846809236118</v>
+        <v>0.01462518182503164</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.004693203545976021</v>
+        <v>-0.006287111421585778</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0169646065348588</v>
+        <v>0.01685710138227465</v>
       </c>
       <c r="E19" s="1">
-        <v>0.007479964381122084</v>
+        <v>0.00106063284426372</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01558937494672259</v>
+        <v>0.01541016364146424</v>
       </c>
       <c r="E20" s="1">
-        <v>0.002249524139124492</v>
+        <v>0.01174033149171261</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01605864777346283</v>
+        <v>0.0162756018371299</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02760307477288615</v>
+        <v>0.006290377422645488</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01531022829168074</v>
+        <v>0.01457792966579953</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.03459066305818681</v>
+        <v>-0.01649875894291131</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01514405672277295</v>
+        <v>0.01507471588042905</v>
       </c>
       <c r="E23" s="1">
-        <v>0.009262689885142672</v>
+        <v>-0.006240822320117467</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01457378611129395</v>
+        <v>0.01441510127925643</v>
       </c>
       <c r="E24" s="1">
-        <v>0.002865329512893977</v>
+        <v>0.01650793650793658</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0137334327485317</v>
+        <v>0.01361426231929774</v>
       </c>
       <c r="E25" s="1">
-        <v>0.00510705165979175</v>
+        <v>-0.008989642368575357</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01425277285317663</v>
+        <v>0.01399291813584698</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.004580279813457655</v>
+        <v>-0.01664854011545214</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01287915981928302</v>
+        <v>0.0127418001540165</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003091539737596127</v>
+        <v>-0.01112531008043294</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01334595086285126</v>
+        <v>0.01347708206422974</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02386727466770178</v>
+        <v>0.005496067468965915</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01417961420141073</v>
+        <v>0.01441212141335891</v>
       </c>
       <c r="E29" s="1">
-        <v>0.03053040103492899</v>
+        <v>0.003012804418779824</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01308482411171046</v>
+        <v>0.0131676017060158</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02031930333817122</v>
+        <v>0.01551791025475246</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01244430824610225</v>
+        <v>0.01241241854855841</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01130688124306323</v>
+        <v>-0.01255230125522999</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01323437852372747</v>
+        <v>0.01342514725858723</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02852017937219742</v>
+        <v>-0.006801534705266787</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01205822910743208</v>
+        <v>0.01212911844072983</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01986577181208049</v>
+        <v>0.0001316135825215614</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006478317307847938</v>
+        <v>0.006315932193577197</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0115093773943169</v>
+        <v>-0.03272279980453952</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00554052697968067</v>
+        <v>0.005418141168167029</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.008491245837147332</v>
+        <v>-0.01164777749405832</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.00566040789724986</v>
+        <v>0.005514667538490289</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01220023637958001</v>
+        <v>-0.03446678760276345</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005485172424583465</v>
+        <v>0.005358011731306344</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.00959987410001184</v>
+        <v>-0.0253446152623843</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004922562969852808</v>
+        <v>0.004790560125392757</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01328364752301625</v>
+        <v>-0.01244057404363075</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01133700133692561</v>
+        <v>-0.003468989599842209</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.06065325471595705</v>
+        <v>0.05878978099067499</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.03538554398672089</v>
+        <v>0.001955416503715224</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05360778749639757</v>
+        <v>0.05299640687826161</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0161597713015168</v>
+        <v>-0.00532709148876076</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3042443081368644</v>
+        <v>0.3055650611686201</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003917727717923647</v>
+        <v>0.004409603135717699</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03604030736891038</v>
+        <v>0.03541652408247069</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02203461401037654</v>
+        <v>-0.01247935456403781</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03218180672674929</v>
+        <v>0.03225671571563008</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002493443961996578</v>
+        <v>-0.01215360082747918</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02937807218852846</v>
+        <v>0.02992813756523227</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01382368283776714</v>
+        <v>0.01312065860560852</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02813163685310837</v>
+        <v>0.02870562066900505</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01549543005871312</v>
+        <v>-0.004172378851999836</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0241999166488939</v>
+        <v>0.02407733766789289</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.009850830284266809</v>
+        <v>-0.0008527572484366974</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02493594352558151</v>
+        <v>0.02466881255881598</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01547108933540464</v>
+        <v>0.003441952809699833</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02403112853055576</v>
+        <v>0.02383137992984858</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0130820261640523</v>
+        <v>-0.01049126774720444</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02244605272063885</v>
+        <v>0.02279921293523826</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01084812623274156</v>
+        <v>0.009512195121951228</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02171694338978477</v>
+        <v>0.02167368893831808</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.006792086679963338</v>
+        <v>-0.01487109905020356</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02155081586599799</v>
+        <v>0.02158118744118402</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.003407407407407415</v>
+        <v>-0.008027352460234782</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02108914949944639</v>
+        <v>0.02135148430148002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.007569564295879072</v>
+        <v>-0.002163656579619366</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02159870656792243</v>
+        <v>0.02199396868851056</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01340231584134011</v>
+        <v>0.002820051538872992</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0201885914557028</v>
+        <v>0.02009955941483446</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.009198734844491185</v>
+        <v>-0.01800962996461941</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01462518182503164</v>
+        <v>0.01460347335101377</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.006287111421585778</v>
+        <v>-0.0008787346221439396</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01685710138227465</v>
+        <v>0.01695654033706904</v>
       </c>
       <c r="E19" s="1">
-        <v>0.00106063284426372</v>
+        <v>-0.003884866678439014</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01541016364146424</v>
+        <v>0.01566643853195312</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01174033149171261</v>
+        <v>0.001535836177474437</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0162756018371299</v>
+        <v>0.0164571391906921</v>
       </c>
       <c r="E21" s="1">
-        <v>0.006290377422645488</v>
+        <v>0.03007264740665661</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01457792966579953</v>
+        <v>0.01440670716057832</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01649875894291131</v>
+        <v>-0.003948931116389498</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01507471588042905</v>
+        <v>0.01505304132089999</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.006240822320117467</v>
+        <v>-0.002585888437384609</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01441510127925643</v>
+        <v>0.01472388570450851</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01650793650793658</v>
+        <v>0.0003123048094939573</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01361426231929774</v>
+        <v>0.01355708358285568</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.008989642368575357</v>
+        <v>0.008282390061131961</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01399291813584698</v>
+        <v>0.01382646077508769</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01664854011545214</v>
+        <v>0.008252509783903461</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0127418001540165</v>
+        <v>0.01266094191119856</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01112531008043294</v>
+        <v>0.005017103762827935</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01347708206422974</v>
+        <v>0.01361664813072119</v>
       </c>
       <c r="E28" s="1">
-        <v>0.005496067468965915</v>
+        <v>0.02685891998869105</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01441212141335891</v>
+        <v>0.01452540850372145</v>
       </c>
       <c r="E29" s="1">
-        <v>0.003012804418779824</v>
+        <v>0.0005006257822277593</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0131676017060158</v>
+        <v>0.01343656429121396</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01551791025475246</v>
+        <v>0.008404431427479819</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01241241854855841</v>
+        <v>0.01231585251090769</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01255230125522999</v>
+        <v>-0.0004862461794944428</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01342514725858723</v>
+        <v>0.01339828043459663</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.006801534705266787</v>
+        <v>0.01650570676031604</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01212911844072983</v>
+        <v>0.01218934468303533</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0001316135825215614</v>
+        <v>0.02250296091590998</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006315932193577197</v>
+        <v>0.006138784327145179</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.03272279980453952</v>
+        <v>0.007473216618761658</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005418141168167029</v>
+        <v>0.005380913679527762</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01164777749405832</v>
+        <v>-0.01411025875432259</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005514667538490289</v>
+        <v>0.005350329369492686</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.03446678760276345</v>
+        <v>-0.01103293891909174</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005358011731306344</v>
+        <v>0.005247454872101976</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0253446152623843</v>
+        <v>-0.008171999184838019</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004790560125392757</v>
+        <v>0.004753828385661733</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01244057404363075</v>
+        <v>-0.001597156611328643</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.003468989599842209</v>
+        <v>0.001283257763709411</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05878978099067499</v>
+        <v>0.05878968995143818</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001955416503715224</v>
+        <v>0.01280249804839984</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05299640687826161</v>
+        <v>0.05261113186402689</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00532709148876076</v>
+        <v>0.01322676187771332</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3055650611686201</v>
+        <v>0.3069854314531192</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004409603135717699</v>
+        <v>0.01411535653443652</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03541652408247069</v>
+        <v>0.03490623832648487</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01247935456403781</v>
+        <v>0.01095537739945085</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03225671571563008</v>
+        <v>0.03180244410053899</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01215360082747918</v>
+        <v>0.00920553204484964</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02992813756523227</v>
+        <v>0.03026159346816799</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01312065860560852</v>
+        <v>0.02012442864398167</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02870562066900505</v>
+        <v>0.02853001761033139</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004172378851999836</v>
+        <v>0.004010295085892235</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02407733766789289</v>
+        <v>0.0240098190938684</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0008527572484366974</v>
+        <v>0.003200568990042729</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02466881255881598</v>
+        <v>0.02470537381930733</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003441952809699833</v>
+        <v>0.009754748851937833</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02383137992984858</v>
+        <v>0.02353530070974972</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01049126774720444</v>
+        <v>0.01587200812646805</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02279921293523826</v>
+        <v>0.02297112972944127</v>
       </c>
       <c r="E12" s="1">
-        <v>0.009512195121951228</v>
+        <v>0.01497946363855984</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02167368893831808</v>
+        <v>0.02130967500933881</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01487109905020356</v>
+        <v>0.001542614731970593</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02158118744118402</v>
+        <v>0.02136613479908213</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.008027352460234782</v>
+        <v>0.01258804136070735</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02135148430148002</v>
+        <v>0.02126367468915097</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002163656579619366</v>
+        <v>0.01665411835566921</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02199396868851056</v>
+        <v>0.02201291424302257</v>
       </c>
       <c r="E16" s="1">
-        <v>0.002820051538872992</v>
+        <v>0.005987878787878875</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02009955941483446</v>
+        <v>0.01969902342707722</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01800962996461941</v>
+        <v>0.01717505553448562</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01460347335101377</v>
+        <v>0.01456214312396606</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0008787346221439396</v>
+        <v>0.005980650835532009</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01695654033706904</v>
+        <v>0.01685767650354875</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003884866678439014</v>
+        <v>0.01010459138450615</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01566643853195312</v>
+        <v>0.01565985378088479</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001535836177474437</v>
+        <v>0.01022320667916166</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0164571391906921</v>
+        <v>0.01691893911094509</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03007264740665661</v>
+        <v>0.009512875184516822</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01440670716057832</v>
+        <v>0.01432178878275255</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.003948931116389498</v>
+        <v>-0.01102930217307074</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01505304132089999</v>
+        <v>0.01498479107743209</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.002585888437384609</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01472388570450851</v>
+        <v>0.01469971716740488</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0003123048094939573</v>
+        <v>0.01186387761473617</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01355708358285568</v>
+        <v>0.01364267036661508</v>
       </c>
       <c r="E25" s="1">
-        <v>0.008282390061131961</v>
+        <v>0.02562096616467824</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01382646077508769</v>
+        <v>0.01391333582368323</v>
       </c>
       <c r="E26" s="1">
-        <v>0.008252509783903461</v>
+        <v>0.002362669816893037</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01266094191119856</v>
+        <v>0.0126996104381237</v>
       </c>
       <c r="E27" s="1">
-        <v>0.005017103762827935</v>
+        <v>0.009681567203691177</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01361664813072119</v>
+        <v>0.01395506697262394</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02685891998869105</v>
+        <v>0.0005506607929515184</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01452540850372145</v>
+        <v>0.01450429585356743</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0005006257822277593</v>
+        <v>-0.01951463597698277</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01343656429121396</v>
+        <v>0.01352302684241422</v>
       </c>
       <c r="E30" s="1">
-        <v>0.008404431427479819</v>
+        <v>0.006945321378961866</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01231585251090769</v>
+        <v>0.01228582101499546</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0004862461794944428</v>
+        <v>0.0115713392174579</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01339828043459663</v>
+        <v>0.01359282779230482</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01650570676031604</v>
+        <v>0.002591121091725546</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01218934468303533</v>
+        <v>0.01243929772132985</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02250296091590998</v>
+        <v>0.001029601029601146</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006138784327145179</v>
+        <v>0.006172581247665297</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007473216618761658</v>
+        <v>0.004461043676729837</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005380913679527762</v>
+        <v>0.005294626180692673</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01411025875432259</v>
+        <v>0.006994839542009412</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005350329369492686</v>
+        <v>0.005280964832701852</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01103293891909174</v>
+        <v>0.01867421180274853</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005247454872101976</v>
+        <v>0.005194407385666257</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.008171999184838019</v>
+        <v>-0.006328463703795029</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004753828385661733</v>
+        <v>0.004736965686536101</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.001597156611328643</v>
+        <v>0.01070229592411498</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.001283257763709411</v>
+        <v>0.01078179198463092</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05878968995143818</v>
+        <v>0.05891157382083293</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01280249804839984</v>
+        <v>0.003622629875134953</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05261113186402689</v>
+        <v>0.05274229077215829</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01322676187771332</v>
+        <v>0.010931806350859</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3069854314531192</v>
+        <v>0.3079467191562247</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01411535653443652</v>
+        <v>0.02352376380220833</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03490623832648487</v>
+        <v>0.03491481358674188</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01095537739945085</v>
+        <v>-0.004464110187305081</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03180244410053899</v>
+        <v>0.0317551970364801</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00920553204484964</v>
+        <v>0.003458412588621895</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03026159346816799</v>
+        <v>0.03054355837808955</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02012442864398167</v>
+        <v>0.003422739436181432</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02853001761033139</v>
+        <v>0.02834098219395934</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004010295085892235</v>
+        <v>0.004530821509478811</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0240098190938684</v>
+        <v>0.02383149838117303</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003200568990042729</v>
+        <v>-0.006026231832683582</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02470537381930733</v>
+        <v>0.02468209533021747</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009754748851937833</v>
+        <v>0.00623783344385731</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02353530070974972</v>
+        <v>0.0236555710668207</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01587200812646805</v>
+        <v>-0.002937316417723879</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02297112972944127</v>
+        <v>0.02306823149753639</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01497946363855984</v>
+        <v>0.004046655558200385</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02130967500933881</v>
+        <v>0.0211164520550549</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001542614731970593</v>
+        <v>0.01677760052808197</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02136613479908213</v>
+        <v>0.02140589789457455</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01258804136070735</v>
+        <v>7.399733609592118E-05</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02126367468915097</v>
+        <v>0.02138879091682841</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01665411835566921</v>
+        <v>0.004946975531725739</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02201291424302257</v>
+        <v>0.02191013134357359</v>
       </c>
       <c r="E16" s="1">
-        <v>0.005987878787878875</v>
+        <v>0.00645829819023036</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01969902342707722</v>
+        <v>0.01982508643247707</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01717505553448562</v>
+        <v>-0.0002130606157452197</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01456214312396606</v>
+        <v>0.01449404529336355</v>
       </c>
       <c r="E18" s="1">
-        <v>0.005980650835532009</v>
+        <v>0.008393075712537224</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01685767650354875</v>
+        <v>0.01684762751562332</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01010459138450615</v>
+        <v>0.01983151983151998</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01565985378088479</v>
+        <v>0.01565235664458247</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01022320667916166</v>
+        <v>-0.009613762860516073</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01691893911094509</v>
+        <v>0.01689894844886175</v>
       </c>
       <c r="E21" s="1">
-        <v>0.009512875184516822</v>
+        <v>0.01429731925264011</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01432178878275255</v>
+        <v>0.01401378273293473</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01102930217307074</v>
+        <v>0.01330741176115979</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01498479107743209</v>
+        <v>0.01497430785379236</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01000000000000001</v>
+        <v>-0.0005500550055005382</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01469971716740488</v>
+        <v>0.0147165416026915</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01186387761473617</v>
+        <v>-0.007713668620796033</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01364267036661508</v>
+        <v>0.01384398013901003</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02562096616467824</v>
+        <v>0.01887871853546907</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01391333582368323</v>
+        <v>0.01379846713031504</v>
       </c>
       <c r="E26" s="1">
-        <v>0.002362669816893037</v>
+        <v>0.00134691472346149</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0126996104381237</v>
+        <v>0.01268672477407174</v>
       </c>
       <c r="E27" s="1">
-        <v>0.009681567203691177</v>
+        <v>0.03236197467975122</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01395506697262394</v>
+        <v>0.01381483491766475</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0005506607929515184</v>
+        <v>0.009172628875435684</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01450429585356743</v>
+        <v>0.01407059479483243</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01951463597698277</v>
+        <v>0.009951518244450064</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01352302684241422</v>
+        <v>0.01347269536274185</v>
       </c>
       <c r="E30" s="1">
-        <v>0.006945321378961866</v>
+        <v>0.008276899924755554</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01228582101499546</v>
+        <v>0.01229632664612421</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0115713392174579</v>
+        <v>3.435127614981326E-05</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01359282779230482</v>
+        <v>0.01348367762006036</v>
       </c>
       <c r="E32" s="1">
-        <v>0.002591121091725546</v>
+        <v>-0.002842866988283843</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01243929772132985</v>
+        <v>0.01232019193606637</v>
       </c>
       <c r="E33" s="1">
-        <v>0.001029601029601146</v>
+        <v>0.008099768578040401</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006172581247665297</v>
+        <v>0.006134435501413966</v>
       </c>
       <c r="E34" s="1">
-        <v>0.004461043676729837</v>
+        <v>0.01991668388074097</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005294626180692673</v>
+        <v>0.005275179464868393</v>
       </c>
       <c r="E35" s="1">
-        <v>0.006994839542009412</v>
+        <v>0.008587728956060303</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005280964832701852</v>
+        <v>0.005322593248868511</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01867421180274853</v>
+        <v>0.005317038330291179</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005194407385666257</v>
+        <v>0.00510685525173657</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.006328463703795029</v>
+        <v>0.01058704327867499</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004736965686536101</v>
+        <v>0.004736943257633196</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01070229592411498</v>
+        <v>0.008917027063177096</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01078179198463092</v>
+        <v>0.01088848573679324</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05891157382083293</v>
+        <v>0.05872000513469558</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003622629875134953</v>
+        <v>-0.02580446970278794</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05274229077215829</v>
+        <v>0.05295364552897643</v>
       </c>
       <c r="E3" s="1">
-        <v>0.010931806350859</v>
+        <v>-0.02091420423037305</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3079467191562247</v>
+        <v>0.309067561938314</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02352376380220833</v>
+        <v>-0.002375296912114022</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03491481358674188</v>
+        <v>0.03452086452500081</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004464110187305081</v>
+        <v>-0.03072052885973742</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0317551970364801</v>
+        <v>0.03164675643714214</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003458412588621895</v>
+        <v>-0.02649491642253998</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03054355837808955</v>
+        <v>0.03043817327332228</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003422739436181432</v>
+        <v>-0.0001240387000744914</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02834098219395934</v>
+        <v>0.02827438571380029</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004530821509478811</v>
+        <v>0.01050445103857567</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02383149838117303</v>
+        <v>0.02352563131795134</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006026231832683582</v>
+        <v>0.004422253922967245</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02468209533021747</v>
+        <v>0.02466594064979908</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00623783344385731</v>
+        <v>-0.02558749622650325</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0236555710668207</v>
+        <v>0.02342453151146728</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002937316417723879</v>
+        <v>-0.04108687476494921</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02306823149753639</v>
+        <v>0.02300293273339058</v>
       </c>
       <c r="E12" s="1">
-        <v>0.004046655558200385</v>
+        <v>-0.003082029397818986</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0211164520550549</v>
+        <v>0.02132366914270301</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01677760052808197</v>
+        <v>-0.002921445574550874</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02140589789457455</v>
+        <v>0.02126084882726322</v>
       </c>
       <c r="E14" s="1">
-        <v>7.399733609592118E-05</v>
+        <v>0.01864594894561589</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02138879091682841</v>
+        <v>0.02134737096455508</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004946975531725739</v>
+        <v>0.005512159174649867</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02191013134357359</v>
+        <v>0.02190058826663333</v>
       </c>
       <c r="E16" s="1">
-        <v>0.00645829819023036</v>
+        <v>0.0077576918472404</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01982508643247707</v>
+        <v>0.01968509717537209</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0002130606157452197</v>
+        <v>-0.02413425679275449</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01449404529336355</v>
+        <v>0.01451558300398988</v>
       </c>
       <c r="E18" s="1">
-        <v>0.008393075712537224</v>
+        <v>-0.02947806485174265</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01684762751562332</v>
+        <v>0.01706405322967737</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01983151983151998</v>
+        <v>-0.01032524522457401</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01565235664458247</v>
+        <v>0.01539569667205446</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.009613762860516073</v>
+        <v>0.01362397820163497</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01689894844886175</v>
+        <v>0.01702315185568485</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01429731925264011</v>
+        <v>0.002402691013935421</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01401378273293473</v>
+        <v>0.01410300350325512</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01330741176115979</v>
+        <v>-0.06444368428097635</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01497430785379236</v>
+        <v>0.01486355930888005</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0005500550055005382</v>
+        <v>0.007338103100348548</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0147165416026915</v>
+        <v>0.01450299796583833</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.007713668620796033</v>
+        <v>0.01461442786069678</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01384398013901003</v>
+        <v>0.01400872059243648</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01887871853546907</v>
+        <v>-0.005053340819764163</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01379846713031504</v>
+        <v>0.01372241097448887</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00134691472346149</v>
+        <v>-8.40689365280145E-05</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01268672477407174</v>
+        <v>0.01300758080748122</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03236197467975122</v>
+        <v>-0.01023147812205194</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01381483491766475</v>
+        <v>0.01384605897432778</v>
       </c>
       <c r="E28" s="1">
-        <v>0.009172628875435684</v>
+        <v>-0.004090165424468384</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01407059479483243</v>
+        <v>0.01411328128441221</v>
       </c>
       <c r="E29" s="1">
-        <v>0.009951518244450064</v>
+        <v>0.00707427993936327</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01347269536274185</v>
+        <v>0.01349116089845427</v>
       </c>
       <c r="E30" s="1">
-        <v>0.008276899924755554</v>
+        <v>-0.003109452736318463</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01229632664612421</v>
+        <v>0.01221252102225748</v>
       </c>
       <c r="E31" s="1">
-        <v>3.435127614981326E-05</v>
+        <v>0.007969222313822355</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01348367762006036</v>
+        <v>0.01335324985537694</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.002842866988283843</v>
+        <v>0.004060475161987043</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01232019193606637</v>
+        <v>0.01233491051828123</v>
       </c>
       <c r="E33" s="1">
-        <v>0.008099768578040401</v>
+        <v>-0.003060834077285968</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006134435501413966</v>
+        <v>0.006213757712006504</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01991668388074097</v>
+        <v>-0.03689513747067463</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005275179464868393</v>
+        <v>0.005284038018561254</v>
       </c>
       <c r="E35" s="1">
-        <v>0.008587728956060303</v>
+        <v>-0.0340385836773579</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005322593248868511</v>
+        <v>0.005314242110124957</v>
       </c>
       <c r="E36" s="1">
-        <v>0.005317038330291179</v>
+        <v>-0.03840385222608156</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.00510685525173657</v>
+        <v>0.00512557141316974</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01058704327867499</v>
+        <v>-0.01913121764573489</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004736943257633196</v>
+        <v>0.004746447138854502</v>
       </c>
       <c r="E38" s="1">
-        <v>0.008917027063177096</v>
+        <v>-0.03641345176543365</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01088848573679324</v>
+        <v>-0.008291757261461918</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05872000513469558</v>
+        <v>0.05767452158711807</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02580446970278794</v>
+        <v>-0.00741032715806067</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05295364552897643</v>
+        <v>0.05227191334171964</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02091420423037305</v>
+        <v>-0.00384335302208938</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.309067561938314</v>
+        <v>0.3110134434487704</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002375296912114022</v>
+        <v>-0.0242741551642075</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03452086452500081</v>
+        <v>0.03373513569010905</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.03072052885973742</v>
+        <v>0.01047488003410146</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03164675643714214</v>
+        <v>0.03106127019818938</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02649491642253998</v>
+        <v>-0.002168429437536035</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03043817327332228</v>
+        <v>0.03068431945164187</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0001240387000744914</v>
+        <v>-0.01662324773601298</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02827438571380029</v>
+        <v>0.02880601564752684</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01050445103857567</v>
+        <v>-0.00816350502143659</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02352563131795134</v>
+        <v>0.02382371012794226</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004422253922967245</v>
+        <v>-0.009018605311745365</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02466594064979908</v>
+        <v>0.02423217036185897</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02558749622650325</v>
+        <v>-0.009464383113341301</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02342453151146728</v>
+        <v>0.02264654528605909</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.04108687476494921</v>
+        <v>0.001830244795241409</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02300293273339058</v>
+        <v>0.02312035069847968</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.003082029397818986</v>
+        <v>-0.01141498216409043</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02132366914270301</v>
+        <v>0.0214359676991804</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002921445574550874</v>
+        <v>-0.0142702116115031</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02126084882726322</v>
+        <v>0.02183512311803506</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01864594894561589</v>
+        <v>-0.004939347715551379</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02134737096455508</v>
+        <v>0.02164130804975411</v>
       </c>
       <c r="E15" s="1">
-        <v>0.005512159174649867</v>
+        <v>-0.03066369606003749</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02190058826663333</v>
+        <v>0.02225172506513106</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0077576918472404</v>
+        <v>-0.02183468364655838</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01968509717537209</v>
+        <v>0.01936776107857186</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02413425679275449</v>
+        <v>0.003466724900365925</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01451558300398988</v>
+        <v>0.01420337724606869</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.02947806485174265</v>
+        <v>-0.01661604430945141</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01706405322967737</v>
+        <v>0.01702654272512022</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01032524522457401</v>
+        <v>-0.0001738828029907991</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01539569667205446</v>
+        <v>0.01573359637763549</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01362397820163497</v>
+        <v>-0.01646505376344087</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01702315185568485</v>
+        <v>0.01720418010357739</v>
       </c>
       <c r="E21" s="1">
-        <v>0.002402691013935421</v>
+        <v>-0.03179929689996785</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01410300350325512</v>
+        <v>0.0133025019696073</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.06444368428097635</v>
+        <v>-0.01882233244308773</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01486355930888005</v>
+        <v>0.01509558212667681</v>
       </c>
       <c r="E23" s="1">
-        <v>0.007338103100348548</v>
+        <v>-0.0107448552176288</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01450299796583833</v>
+        <v>0.01483578746068319</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01461442786069678</v>
+        <v>-0.01133925835121075</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01400872059243648</v>
+        <v>0.01405238547438009</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.005053340819764163</v>
+        <v>-0.006207674943566555</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01372241097448887</v>
+        <v>0.01383393379349168</v>
       </c>
       <c r="E26" s="1">
-        <v>-8.40689365280145E-05</v>
+        <v>-0.004624180258954058</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01300758080748122</v>
+        <v>0.01298021701154928</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01023147812205194</v>
+        <v>0.005278592375366431</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01384605897432778</v>
+        <v>0.01390266254110904</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.004090165424468384</v>
+        <v>-0.02619330108606355</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01411328128441221</v>
+        <v>0.01432983814168463</v>
       </c>
       <c r="E29" s="1">
-        <v>0.00707427993936327</v>
+        <v>-0.01279478173607618</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01349116089845427</v>
+        <v>0.01355965322223102</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.003109452736318463</v>
+        <v>-0.03069245165315049</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01221252102225748</v>
+        <v>0.01241093150820795</v>
       </c>
       <c r="E31" s="1">
-        <v>0.007969222313822355</v>
+        <v>-0.007292802617230087</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01335324985537694</v>
+        <v>0.01351757008138224</v>
       </c>
       <c r="E32" s="1">
-        <v>0.004060475161987043</v>
+        <v>-0.01144381345723633</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01233491051828123</v>
+        <v>0.01239813738749765</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.003060834077285968</v>
+        <v>-0.009082768325444635</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006213757712006504</v>
+        <v>0.006033643885060579</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.03689513747067463</v>
+        <v>0.00283896745702128</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005284038018561254</v>
+        <v>0.00514609141198348</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0340385836773579</v>
+        <v>0.01723889950481827</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005314242110124957</v>
+        <v>0.005152118394466849</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.03840385222608156</v>
+        <v>0.02039978656158925</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.00512557141316974</v>
+        <v>0.00506879800504765</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01913121764573489</v>
+        <v>0.01211982143602164</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004746447138854502</v>
+        <v>0.004611170282450833</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.03641345176543365</v>
+        <v>0.009103416647557871</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.008291757261461918</v>
+        <v>-0.01351556108722118</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05767452158711807</v>
+        <v>0.05803146228699353</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00741032715806067</v>
+        <v>-0.02493844809784773</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05227191334171964</v>
+        <v>0.05278442504678097</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00384335302208938</v>
+        <v>-0.02936279088656935</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3110134434487704</v>
+        <v>0.3076215324782955</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0242741551642075</v>
+        <v>-0.007317073170731714</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03373513569010905</v>
+        <v>0.03455554476557846</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01047488003410146</v>
+        <v>-0.02232382417623313</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03106127019818938</v>
+        <v>0.03141855543072052</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002168429437536035</v>
+        <v>-0.02150966826326051</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03068431945164187</v>
+        <v>0.03058765573742026</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01662324773601298</v>
+        <v>-0.006875236533366968</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02880601564752684</v>
+        <v>0.02896229931982414</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00816350502143659</v>
+        <v>-0.004026527711984862</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02382371012794226</v>
+        <v>0.02393231211559367</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.009018605311745365</v>
+        <v>-0.02586886420637768</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02423217036185897</v>
+        <v>0.02433168418180068</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.009464383113341301</v>
+        <v>-0.03075249112358258</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02264654528605909</v>
+        <v>0.02299883618306632</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001830244795241409</v>
+        <v>-0.01298404723844326</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02312035069847968</v>
+        <v>0.02316958221137222</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01141498216409043</v>
+        <v>-0.009381765696415578</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0214359676991804</v>
+        <v>0.02141956940274047</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0142702116115031</v>
+        <v>-0.02102713711675019</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02183512311803506</v>
+        <v>0.02202495142902528</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.004939347715551379</v>
+        <v>-0.01058471421271645</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02164130804975411</v>
+        <v>0.0212651155252836</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.03066369606003749</v>
+        <v>-0.04131131676041855</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02225172506513106</v>
+        <v>0.02206407402810353</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.02183468364655838</v>
+        <v>-0.01537527325722621</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01936776107857186</v>
+        <v>0.01970117622898018</v>
       </c>
       <c r="E17" s="1">
-        <v>0.003466724900365925</v>
+        <v>-0.02989581349800075</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01420337724606869</v>
+        <v>0.01415873656942611</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01661604430945141</v>
+        <v>-0.02579941860465129</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01702654272512022</v>
+        <v>0.0172568176756117</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0001738828029907991</v>
+        <v>-0.01530434782608703</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01573359637763549</v>
+        <v>0.01568655445233399</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01646505376344087</v>
+        <v>-0.002220703792278789</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01720418010357739</v>
+        <v>0.01688531376217275</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.03179929689996785</v>
+        <v>-0.009077405512460945</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0133025019696073</v>
+        <v>0.01323094145265533</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01882233244308773</v>
+        <v>-0.04424821775761512</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01509558212667681</v>
+        <v>0.01513798058361485</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0107448552176288</v>
+        <v>-0.005154639175257714</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01483578746068319</v>
+        <v>0.01486851698338822</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01133925835121075</v>
+        <v>-0.008989460632361945</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01405238547438009</v>
+        <v>0.01415648568016407</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.006207674943566555</v>
+        <v>-0.02328222600795005</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01383393379349168</v>
+        <v>0.01395862179551078</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.004624180258954058</v>
+        <v>-0.01723118506630628</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01298021701154928</v>
+        <v>0.0132275115261608</v>
       </c>
       <c r="E27" s="1">
-        <v>0.005278592375366431</v>
+        <v>-0.02720245040840152</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01390266254110904</v>
+        <v>0.01372399338624424</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02619330108606355</v>
+        <v>0.006279287722586568</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01432983814168463</v>
+        <v>0.01434030830323037</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01279478173607618</v>
+        <v>0.008640406607369755</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01355965322223102</v>
+        <v>0.01332354946800768</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.03069245165315049</v>
+        <v>-0.01209936928819666</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01241093150820795</v>
+        <v>0.01248921984821289</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.007292802617230087</v>
+        <v>-0.009749399244764922</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01351757008138224</v>
+        <v>0.01354595876413746</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01144381345723633</v>
+        <v>0.0006092784402471629</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01239813738749765</v>
+        <v>0.01245384873123803</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.009082768325444635</v>
+        <v>0.006971340046475705</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006033643885060579</v>
+        <v>0.006133673239048941</v>
       </c>
       <c r="E34" s="1">
-        <v>0.00283896745702128</v>
+        <v>-0.03828746177370024</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00514609141198348</v>
+        <v>0.005306525027852074</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01723889950481827</v>
+        <v>-0.02040074331421182</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005152118394466849</v>
+        <v>0.005329248290878346</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02039978656158925</v>
+        <v>-0.03495575221238933</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.00506879800504765</v>
+        <v>0.00520051886213046</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01211982143602164</v>
+        <v>-0.02699973206372763</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004611170282450833</v>
+        <v>0.004716899226401516</v>
       </c>
       <c r="E38" s="1">
-        <v>0.009103416647557871</v>
+        <v>-0.04019815029427132</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01351556108722118</v>
+        <v>-0.01477751674608019</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05803146228699353</v>
+        <v>0.05742859079223151</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02493844809784773</v>
+        <v>0.01791968722000492</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05278442504678097</v>
+        <v>0.05199904226031787</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02936279088656935</v>
+        <v>0.01686192468619252</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3076215324782955</v>
+        <v>0.3100034952494306</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007317073170731714</v>
+        <v>0.02431834929992638</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03455554476557846</v>
+        <v>0.03428825549413939</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02232382417623313</v>
+        <v>0.003023534711955156</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03141855543072052</v>
+        <v>0.03120149226372826</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02150966826326051</v>
+        <v>0.01409599782441195</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03058765573742026</v>
+        <v>0.03083064553764997</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006875236533366968</v>
+        <v>0.02572245157192765</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02896229931982414</v>
+        <v>0.02927611350020239</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004026527711984862</v>
+        <v>0.01046373365041631</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02393231211559367</v>
+        <v>0.02366108721294598</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02586886420637768</v>
+        <v>0.01691922907164933</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02433168418180068</v>
+        <v>0.02393533320779589</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.03075249112358258</v>
+        <v>0.01308487671855474</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02299883618306632</v>
+        <v>0.02303894804414523</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01298404723844326</v>
+        <v>0.008957197157494434</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02316958221137222</v>
+        <v>0.02329470065576449</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.009381765696415578</v>
+        <v>0.01602719766877136</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02141956940274047</v>
+        <v>0.02128207663723281</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02102713711675019</v>
+        <v>0.002755130728141708</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02202495142902528</v>
+        <v>0.02211699849779336</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01058471421271645</v>
+        <v>0.01608381289656213</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0212651155252836</v>
+        <v>0.02069083229688799</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.04131131676041855</v>
+        <v>0.0265615141955835</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02206407402810353</v>
+        <v>0.02204900811826888</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01537527325722621</v>
+        <v>0.007869353923575906</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01970117622898018</v>
+        <v>0.01939738331681439</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02989581349800075</v>
+        <v>0.009533957714093377</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01415873656942611</v>
+        <v>0.01399927353639286</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.02579941860465129</v>
+        <v>0.007273405445729297</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0172568176756117</v>
+        <v>0.01724627649326727</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01530434782608703</v>
+        <v>0.01359943482868253</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01568655445233399</v>
+        <v>0.01588527227209815</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.002220703792278789</v>
+        <v>0.00684814244136267</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01688531376217275</v>
+        <v>0.01698171232846163</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.009077405512460945</v>
+        <v>-0.01232511658894075</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01323094145265533</v>
+        <v>0.01283419039286147</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.04424821775761512</v>
+        <v>-0.03085320992049356</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01513798058361485</v>
+        <v>0.01528467245553075</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.005154639175257714</v>
+        <v>0.008697261287934799</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01486851698338822</v>
+        <v>0.01495472874177439</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008989460632361945</v>
+        <v>0.007507037847982456</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01415648568016407</v>
+        <v>0.01403321433385147</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02328222600795005</v>
+        <v>0.01724806201550377</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01395862179551078</v>
+        <v>0.01392279795750373</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01723118506630628</v>
+        <v>0.009454232917920136</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0132275115261608</v>
+        <v>0.01305970088366824</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.02720245040840152</v>
+        <v>0.001649299047905117</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01372399338624424</v>
+        <v>0.01401624393512216</v>
       </c>
       <c r="E28" s="1">
-        <v>0.006279287722586568</v>
+        <v>-0.006426376082704688</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01434030830323037</v>
+        <v>0.01468004760849551</v>
       </c>
       <c r="E29" s="1">
-        <v>0.008640406607369755</v>
+        <v>0.01033005794910569</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01332354946800768</v>
+        <v>0.01335874976896869</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01209936928819666</v>
+        <v>0.0181107491856678</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01248921984821289</v>
+        <v>0.01255200312168309</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.009749399244764922</v>
+        <v>0.01483741246619985</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01354595876413746</v>
+        <v>0.01375646629303505</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0006092784402471629</v>
+        <v>0.01426583159359773</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01245384873123803</v>
+        <v>0.01272779904698157</v>
       </c>
       <c r="E33" s="1">
-        <v>0.006971340046475705</v>
+        <v>0.008846153846153726</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006133673239048941</v>
+        <v>0.005986852074799861</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.03828746177370024</v>
+        <v>-0.006777628375186251</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005306525027852074</v>
+        <v>0.005275835881884719</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.02040074331421182</v>
+        <v>0.003464060373623568</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005329248290878346</v>
+        <v>0.005219703024549313</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.03495575221238933</v>
+        <v>0.003709724480013499</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.00520051886213046</v>
+        <v>0.005135612523153444</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.02699973206372763</v>
+        <v>0.004384757143764961</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004716899226401516</v>
+        <v>0.004594844240567586</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.04019815029427132</v>
+        <v>0.01946114872863314</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.01477751674608019</v>
+        <v>0.01509103585464522</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05742859079223151</v>
+        <v>0.05758430141939996</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01791968722000492</v>
+        <v>0.01984476274305846</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05199904226031787</v>
+        <v>0.0520858504606939</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01686192468619252</v>
+        <v>0.021067357939349</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3100034952494306</v>
+        <v>0.3128730148337406</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02431834929992638</v>
+        <v>0.004075761208343298</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03428825549413939</v>
+        <v>0.03387809193432291</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003023534711955156</v>
+        <v>0.01943083439033111</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03120149226372826</v>
+        <v>0.03116856897646041</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01409599782441195</v>
+        <v>0.01430231518727099</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03083064553764997</v>
+        <v>0.03115120916949289</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02572245157192765</v>
+        <v>0.01554179566563452</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02927611350020239</v>
+        <v>0.02914047202172419</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01046373365041631</v>
+        <v>0.001529771710990779</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02366108721294598</v>
+        <v>0.0237019231129863</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01691922907164933</v>
+        <v>0.0092592592592593</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02393533320779589</v>
+        <v>0.02388623711288835</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01308487671855474</v>
+        <v>0.02213508954527521</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02303894804414523</v>
+        <v>0.02289801402736698</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008957197157494434</v>
+        <v>0.03498656882657425</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02329470065576449</v>
+        <v>0.02331443507598291</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01602719766877136</v>
+        <v>0.01242829827915837</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02128207663723281</v>
+        <v>0.02102186896324768</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002755130728141708</v>
+        <v>-0.02601771896377714</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02211699849779336</v>
+        <v>0.02213696866265512</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01608381289656213</v>
+        <v>0.002105721754283696</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02069083229688799</v>
+        <v>0.02092306808655599</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0265615141955835</v>
+        <v>-0.005500583860856723</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02204900811826888</v>
+        <v>0.02189050226743725</v>
       </c>
       <c r="E16" s="1">
-        <v>0.007869353923575906</v>
+        <v>0.003035049931466638</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01939738331681439</v>
+        <v>0.01928974600137742</v>
       </c>
       <c r="E17" s="1">
-        <v>0.009533957714093377</v>
+        <v>0.01080495528026226</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01399927353639286</v>
+        <v>0.01389041739726986</v>
       </c>
       <c r="E18" s="1">
-        <v>0.007273405445729297</v>
+        <v>0.02481022032956859</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01724627649326727</v>
+        <v>0.01721964260015188</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01359943482868253</v>
+        <v>0.02247778358599062</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01588527227209815</v>
+        <v>0.01575509641604642</v>
       </c>
       <c r="E20" s="1">
-        <v>0.00684814244136267</v>
+        <v>-0.002040469307940773</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01698171232846163</v>
+        <v>0.01652182122377852</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01232511658894075</v>
+        <v>0.02478920741989876</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01283419039286147</v>
+        <v>0.01225238030279147</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.03085320992049356</v>
+        <v>0.03157305532718779</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01528467245553075</v>
+        <v>0.01518725927332491</v>
       </c>
       <c r="E23" s="1">
-        <v>0.008697261287934799</v>
+        <v>0.004035956705191746</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01495472874177439</v>
+        <v>0.01484188484211309</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007507037847982456</v>
+        <v>0.0009313877677741278</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01403321433385147</v>
+        <v>0.01406197944020194</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01724806201550377</v>
+        <v>0.007811011621261299</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01392279795750373</v>
+        <v>0.01384444605659661</v>
       </c>
       <c r="E26" s="1">
-        <v>0.009454232917920136</v>
+        <v>0.007322264793529154</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01305970088366824</v>
+        <v>0.01288579893850138</v>
       </c>
       <c r="E27" s="1">
-        <v>0.001649299047905117</v>
+        <v>0.01736396976274213</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01401624393512216</v>
+        <v>0.01371810523922189</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.006426376082704688</v>
+        <v>0.02615298087739015</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01468004760849551</v>
+        <v>0.01461009927130603</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01033005794910569</v>
+        <v>-0.001995012468827939</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01335874976896869</v>
+        <v>0.01339748460683412</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0181107491856678</v>
+        <v>0.009598157153826392</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01255200312168309</v>
+        <v>0.01254792565844837</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01483741246619985</v>
+        <v>0.001503040240486531</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01375646629303505</v>
+        <v>0.01374425210897543</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01426583159359773</v>
+        <v>-0.001457975986277837</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01272779904698157</v>
+        <v>0.01264854824327862</v>
       </c>
       <c r="E33" s="1">
-        <v>0.008846153846153726</v>
+        <v>-0.005083238022620229</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.005986852074799861</v>
+        <v>0.00585743462130599</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.006777628375186251</v>
+        <v>0.04227877279961945</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005275835881884719</v>
+        <v>0.005215014604205509</v>
       </c>
       <c r="E35" s="1">
-        <v>0.003464060373623568</v>
+        <v>0.01378786010767263</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005219703024549313</v>
+        <v>0.005160791997257578</v>
       </c>
       <c r="E36" s="1">
-        <v>0.003709724480013499</v>
+        <v>0.02279900332225915</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005135612523153444</v>
+        <v>0.005081065476369712</v>
       </c>
       <c r="E37" s="1">
-        <v>0.004384757143764961</v>
+        <v>0.02615151003880545</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004594844240567586</v>
+        <v>0.004614279555687527</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01946114872863314</v>
+        <v>0.02559219693450987</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01509103585464522</v>
+        <v>0.009733493743664612</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05758430141939996</v>
+        <v>0.05802300507573584</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01984476274305846</v>
+        <v>-0.009258532757944415</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0520858504606939</v>
+        <v>0.05254558088276787</v>
       </c>
       <c r="E3" s="1">
-        <v>0.021067357939349</v>
+        <v>-0.01196856739875063</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3128730148337406</v>
+        <v>0.3127536690060373</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004075761208343298</v>
+        <v>0.002369668246445578</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03387809193432291</v>
+        <v>0.03412233581041156</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01943083439033111</v>
+        <v>0.01473517639393096</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03116856897646041</v>
+        <v>0.03123534628892997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01430231518727099</v>
+        <v>-0.002203225522164454</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03115120916949289</v>
+        <v>0.03125609771720525</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01554179566563452</v>
+        <v>0.004024144869215318</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02914047202172419</v>
+        <v>0.02883516833484505</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001529771710990779</v>
+        <v>0.0009987075549289237</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0237019231129863</v>
+        <v>0.02363460630993762</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0092592592592593</v>
+        <v>-0.004515481651376274</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02388623711288835</v>
+        <v>0.02412226487440675</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02213508954527521</v>
+        <v>0.004626093979055224</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02289801402736698</v>
+        <v>0.02341502231890223</v>
       </c>
       <c r="E11" s="1">
-        <v>0.03498656882657425</v>
+        <v>-0.001519275811863063</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02331443507598291</v>
+        <v>0.02332121739312723</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01242829827915837</v>
+        <v>0.008970727101038856</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02102186896324768</v>
+        <v>0.02022946632937831</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02601771896377714</v>
+        <v>-0.02084052964881966</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02213696866265512</v>
+        <v>0.02191763736942613</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002105721754283696</v>
+        <v>-0.00202883848996438</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02092306808655599</v>
+        <v>0.02055852469202922</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.005500583860856723</v>
+        <v>-0.01118561320025957</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02189050226743725</v>
+        <v>0.02169371251839439</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003035049931466638</v>
+        <v>-0.002855051244509466</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01928974600137742</v>
+        <v>0.01926441903994364</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01080495528026226</v>
+        <v>-0.001676238630430649</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01389041739726986</v>
+        <v>0.0140643863882065</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02481022032956859</v>
+        <v>-0.0003613369467028171</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01721964260015188</v>
+        <v>0.01739562587419362</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02247778358599062</v>
+        <v>-0.0549591002044989</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01575509641604642</v>
+        <v>0.01553445568209574</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.002040469307940773</v>
+        <v>-0.01277900834895207</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01652182122377852</v>
+        <v>0.01672840393036287</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02478920741989876</v>
+        <v>0.02336679282540732</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01225238030279147</v>
+        <v>0.01248770133782129</v>
       </c>
       <c r="E22" s="1">
-        <v>0.03157305532718779</v>
+        <v>-0.02189100281479972</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01518725927332491</v>
+        <v>0.01506574867712292</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004035956705191746</v>
+        <v>-0.001644436323771203</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01484188484211309</v>
+        <v>0.0146776122686679</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0009313877677741278</v>
+        <v>-0.02698511166253104</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01406197944020194</v>
+        <v>0.01400192035411254</v>
       </c>
       <c r="E25" s="1">
-        <v>0.007811011621261299</v>
+        <v>0.0007561436672967048</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01384444605659661</v>
+        <v>0.01377863075088514</v>
       </c>
       <c r="E26" s="1">
-        <v>0.007322264793529154</v>
+        <v>-0.01327022229735453</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01288579893850138</v>
+        <v>0.01295238510669993</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01736396976274213</v>
+        <v>0.003531229309203132</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01371810523922189</v>
+        <v>0.01390811542833753</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02615298087739015</v>
+        <v>0.01224079656526911</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01461009927130603</v>
+        <v>0.01440614970694431</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.001995012468827939</v>
+        <v>0.002248875562218755</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01339748460683412</v>
+        <v>0.01336391980928167</v>
       </c>
       <c r="E30" s="1">
-        <v>0.009598157153826392</v>
+        <v>0.002408416782862188</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01254792565844837</v>
+        <v>0.01241613008519838</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001503040240486531</v>
+        <v>-0.00286513404734301</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01374425210897543</v>
+        <v>0.0135596820076541</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.001457975986277837</v>
+        <v>0.003950871768444442</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01264854824327862</v>
+        <v>0.01243338765054976</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.005083238022620229</v>
+        <v>0.0201813769319199</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.00585743462130599</v>
+        <v>0.006031889651527406</v>
       </c>
       <c r="E34" s="1">
-        <v>0.04227877279961945</v>
+        <v>-0.005441269395492609</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005215014604205509</v>
+        <v>0.005223536820497922</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01378786010767263</v>
+        <v>-0.008979062366986201</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005160791997257578</v>
+        <v>0.005215172724407374</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02279900332225915</v>
+        <v>-0.007836290551788472</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005081065476369712</v>
+        <v>0.005151436194704723</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02615151003880545</v>
+        <v>-0.007851035843472576</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004614279555687527</v>
+        <v>0.00467563558925004</v>
       </c>
       <c r="E38" s="1">
-        <v>0.02559219693450987</v>
+        <v>-0.003804175535528254</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.009733493743664612</v>
+        <v>-0.001712733955149259</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05802300507573584</v>
+        <v>0.05759297531619011</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.009258532757944415</v>
+        <v>-0.01124574324859418</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05254558088276787</v>
+        <v>0.05201348048211011</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01196856739875063</v>
+        <v>-0.008565135818582315</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3127536690060373</v>
+        <v>0.3139307790905724</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002369668246445578</v>
+        <v>0.003311258278145601</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03412233581041156</v>
+        <v>0.03468969052000327</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01473517639393096</v>
+        <v>-0.01165304443812498</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03123534628892997</v>
+        <v>0.03122463552589876</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002203225522164454</v>
+        <v>-0.003842077371489117</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03125609771720525</v>
+        <v>0.031440386034302</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004024144869215318</v>
+        <v>-0.01408878362786181</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02883516833484505</v>
+        <v>0.02891778102405331</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0009987075549289237</v>
+        <v>0.0003521333411584671</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02363460630993762</v>
+        <v>0.02357175072733591</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004515481651376274</v>
+        <v>0.02174382604939162</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02412226487440675</v>
+        <v>0.024279039021354</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004626093979055224</v>
+        <v>-0.01155566817538412</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02341502231890223</v>
+        <v>0.02342303774170103</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001519275811863063</v>
+        <v>-0.01743485703417236</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02332121739312723</v>
+        <v>0.02357429645604863</v>
       </c>
       <c r="E12" s="1">
-        <v>0.008970727101038856</v>
+        <v>-0.01357042583060375</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02022946632937831</v>
+        <v>0.01984480389191006</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02084052964881966</v>
+        <v>-0.00235183443085607</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02191763736942613</v>
+        <v>0.02191395097520503</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00202883848996438</v>
+        <v>-0.01023742104116743</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02055852469202922</v>
+        <v>0.02036646613395879</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01118561320025957</v>
+        <v>-0.01018718165057342</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02169371251839439</v>
+        <v>0.02167210674749638</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.002855051244509466</v>
+        <v>0.004282602843648231</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01926441903994364</v>
+        <v>0.019267984194419</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.001676238630430649</v>
+        <v>-0.0006330856041839583</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0140643863882065</v>
+        <v>0.01408551696749401</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0003613369467028171</v>
+        <v>-0.008855955178022734</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01739562587419362</v>
+        <v>0.01647022833913689</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0549591002044989</v>
+        <v>-0.009106482733748034</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01553445568209574</v>
+        <v>0.01536453350157772</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01277900834895207</v>
+        <v>-0.01311701760441841</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01672840393036287</v>
+        <v>0.01715121076979018</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02336679282540732</v>
+        <v>-0.02830036983437856</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01248770133782129</v>
+        <v>0.01223710577799803</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.02189100281479972</v>
+        <v>0.001802957543816985</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01506574867712292</v>
+        <v>0.01506901682684251</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.001644436323771203</v>
+        <v>-0.005490483162518323</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0146776122686679</v>
+        <v>0.01430816215782754</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02698511166253104</v>
+        <v>-0.05801721389862924</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01400192035411254</v>
+        <v>0.01403863313036804</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0007561436672967048</v>
+        <v>-0.0001888930865130423</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01377863075088514</v>
+        <v>0.01362113362148154</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01327022229735453</v>
+        <v>0.002055850608189136</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01295238510669993</v>
+        <v>0.01302235701384325</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003531229309203132</v>
+        <v>-0.006231214720328504</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01390811542833753</v>
+        <v>0.01410460993283943</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01224079656526911</v>
+        <v>-0.04178323256023819</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01440614970694431</v>
+        <v>0.01446546697786786</v>
       </c>
       <c r="E29" s="1">
-        <v>0.002248875562218755</v>
+        <v>-0.001495886312640415</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01336391980928167</v>
+        <v>0.01342108177347342</v>
       </c>
       <c r="E30" s="1">
-        <v>0.002408416782862188</v>
+        <v>-0.004931714719271674</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01241613008519838</v>
+        <v>0.01240363886462196</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.00286513404734301</v>
+        <v>-0.004515290415269879</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0135596820076541</v>
+        <v>0.01363863550638151</v>
       </c>
       <c r="E32" s="1">
-        <v>0.003950871768444442</v>
+        <v>0.002737616562580092</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01243338765054976</v>
+        <v>0.01270795951782201</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0201813769319199</v>
+        <v>-0.006134969325153672</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006031889651527406</v>
+        <v>0.00601025334667861</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.005441269395492609</v>
+        <v>-0.01057145882602095</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005223536820497922</v>
+        <v>0.005186285819994069</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.008979062366986201</v>
+        <v>-0.005440340328056625</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005215172724407374</v>
+        <v>0.005183952235340739</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.007836290551788472</v>
+        <v>-0.004706171222786049</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005151436194704723</v>
+        <v>0.005120521161582069</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.007851035843472576</v>
+        <v>-0.004391597961635685</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00467563558925004</v>
+        <v>0.004666532874479876</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.003804175535528254</v>
+        <v>-0.01409283084056911</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.001712733955149259</v>
+        <v>-0.004791273581403299</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05759297531619011</v>
+        <v>0.05718532175058633</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01124574324859418</v>
+        <v>-0.001281537845414515</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05201348048211011</v>
+        <v>0.05178533500156477</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008565135818582315</v>
+        <v>0.0001645548790520923</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3139307790905724</v>
+        <v>0.3168943796891048</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003311258278145601</v>
+        <v>0.004705882352941115</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03468969052000327</v>
+        <v>0.0344299618682857</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01165304443812498</v>
+        <v>-0.000148501986214078</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03122463552589876</v>
+        <v>0.03123577304013874</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.003842077371489117</v>
+        <v>-0.004344549363833772</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.031440386034302</v>
+        <v>0.03112808221060406</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01408878362786181</v>
+        <v>-0.007637819525715739</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02891778102405331</v>
+        <v>0.02904989419455887</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0003521333411584671</v>
+        <v>-0.002170724552654546</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02357175072733591</v>
+        <v>0.02418580513434937</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02174382604939162</v>
+        <v>7.046719751957475E-05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.024279039021354</v>
+        <v>0.02409963116689778</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01155566817538412</v>
+        <v>0.003991213143157868</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02342303774170103</v>
+        <v>0.02311166633610233</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01743485703417236</v>
+        <v>0.01171118854045683</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02357429645604863</v>
+        <v>0.02335239954554683</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01357042583060375</v>
+        <v>-0.004506641366223807</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01984480389191006</v>
+        <v>0.01988158056477715</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.00235183443085607</v>
+        <v>-0.00241631305987744</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02191395097520503</v>
+        <v>0.02178102949876576</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01023742104116743</v>
+        <v>0.002053990610328738</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02036646613395879</v>
+        <v>0.02024395860837458</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01018718165057342</v>
+        <v>-0.007261247040252661</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02167210674749638</v>
+        <v>0.02185665807341425</v>
       </c>
       <c r="E16" s="1">
-        <v>0.004282602843648231</v>
+        <v>-0.002144354013353555</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.019267984194419</v>
+        <v>0.01933694830818878</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0006330856041839583</v>
+        <v>-0.005756465695320401</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01408551696749401</v>
+        <v>0.01401962039568444</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.008855955178022734</v>
+        <v>0.009482129832239172</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01647022833913689</v>
+        <v>0.01638903168368594</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.009106482733748034</v>
+        <v>-0.01292083712465886</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01536453350157772</v>
+        <v>0.01522690809296051</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01311701760441841</v>
+        <v>-0.004547044421126301</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01715121076979018</v>
+        <v>0.01673607097411521</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02830036983437856</v>
+        <v>-0.02399470461691211</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01223710577799803</v>
+        <v>0.01231084068510541</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001802957543816985</v>
+        <v>-0.02493640438160827</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01506901682684251</v>
+        <v>0.01504944724033462</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.005490483162518323</v>
+        <v>-0.003128450496871604</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01430816215782754</v>
+        <v>0.01353485188409953</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.05801721389862924</v>
+        <v>-0.01996615905245358</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01403863313036804</v>
+        <v>0.01409514245121371</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0001888930865130423</v>
+        <v>-0.008690723597203909</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01362113362148154</v>
+        <v>0.0137066672234066</v>
       </c>
       <c r="E26" s="1">
-        <v>0.002055850608189136</v>
+        <v>-0.005129081894341025</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01302235701384325</v>
+        <v>0.01299575862171077</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.006231214720328504</v>
+        <v>-0.01917969902626138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01410460993283943</v>
+        <v>0.01357224009494688</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.04178323256023819</v>
+        <v>-0.02806554906762104</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01446546697786786</v>
+        <v>0.01450470846462702</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.001495886312640415</v>
+        <v>-0.005493133583021059</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01342108177347342</v>
+        <v>0.01341118318668136</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.004931714719271674</v>
+        <v>0.0006354047528274176</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01240363886462196</v>
+        <v>0.01239967763053758</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.004515290415269879</v>
+        <v>-0.0005497903924127634</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01363863550638151</v>
+        <v>0.01373361656057007</v>
       </c>
       <c r="E32" s="1">
-        <v>0.002737616562580092</v>
+        <v>-0.01160310553707022</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01270795951782201</v>
+        <v>0.01268323152590982</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.006134969325153672</v>
+        <v>-0.0002519526329047839</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.00601025334667861</v>
+        <v>0.005971781381011859</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01057145882602095</v>
+        <v>0.003567415229295712</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005186285819994069</v>
+        <v>0.005179811729587155</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.005440340328056625</v>
+        <v>0.002920128321131976</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005183952235340739</v>
+        <v>0.005181302997256281</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.004706171222786049</v>
+        <v>0.00583857571645896</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005120521161582069</v>
+        <v>0.005119521908106808</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.004391597961635685</v>
+        <v>-0.0003120968748698827</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004666532874479876</v>
+        <v>0.004620160277188313</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01409283084056911</v>
+        <v>0.01839811868861529</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.004791273581403299</v>
+        <v>-0.001147636990511125</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05718532175058633</v>
+        <v>0.05724175142782228</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001281537845414515</v>
+        <v>0.0210121100328815</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05178533500156477</v>
+        <v>0.05191149252800769</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0001645548790520923</v>
+        <v>0.01382033563672258</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3168943796891048</v>
+        <v>0.317987784827803</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004705882352941115</v>
+        <v>0.009870740305522929</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0344299618682857</v>
+        <v>0.03450303585719301</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.000148501986214078</v>
+        <v>0.004913670400396031</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03123577304013874</v>
+        <v>0.03117070323076017</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004344549363833772</v>
+        <v>0.008237232289950436</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03112808221060406</v>
+        <v>0.0309604907250271</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.007637819525715739</v>
+        <v>-0.001737943020296839</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02904989419455887</v>
+        <v>0.02905267077710941</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002170724552654546</v>
+        <v>0.005820790216368721</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02418580513434937</v>
+        <v>0.02424244494759741</v>
       </c>
       <c r="E9" s="1">
-        <v>7.046719751957475E-05</v>
+        <v>0.003523111612175889</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02409963116689778</v>
+        <v>0.02425077230942939</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003991213143157868</v>
+        <v>0.01560642747083407</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02311166633610233</v>
+        <v>0.02343543817723871</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01171118854045683</v>
+        <v>0.01600816352562284</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02335239954554683</v>
+        <v>0.02329995840589526</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.004506641366223807</v>
+        <v>-0.002382654276864571</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01988158056477715</v>
+        <v>0.01987858706448965</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.00241631305987744</v>
+        <v>0.01234713770898566</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02178102949876576</v>
+        <v>0.02187533896633098</v>
       </c>
       <c r="E14" s="1">
-        <v>0.002053990610328738</v>
+        <v>0.01024890190336758</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02024395860837458</v>
+        <v>0.02014260713898324</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.007261247040252661</v>
+        <v>0.004611225950071685</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02185665807341425</v>
+        <v>0.02185932480896178</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.002144354013353555</v>
+        <v>-0.002100122100122226</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01933694830818878</v>
+        <v>0.01926930175711605</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005756465695320401</v>
+        <v>0.01861598980552936</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01401962039568444</v>
+        <v>0.01418470003134504</v>
       </c>
       <c r="E18" s="1">
-        <v>0.009482129832239172</v>
+        <v>0.01065751445086738</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01638903168368594</v>
+        <v>0.01621401405317042</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01292083712465886</v>
+        <v>0.01474926253687303</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01522690809296051</v>
+        <v>0.01519209729091703</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.004547044421126301</v>
+        <v>-0.002283907238229133</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01673607097411521</v>
+        <v>0.01637159336168337</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02399470461691211</v>
+        <v>-0.002373685995252561</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01231084068510541</v>
+        <v>0.01203111614833466</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.02493640438160827</v>
+        <v>0.04138714371916352</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01504944724033462</v>
+        <v>0.01503643968128838</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003128450496871604</v>
+        <v>0.008860993169651055</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01353485188409953</v>
+        <v>0.01329473992581388</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01996615905245358</v>
+        <v>0.02348066298342544</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01409514245121371</v>
+        <v>0.01400438061936782</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.008690723597203909</v>
+        <v>0.007242233657327901</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0137066672234066</v>
+        <v>0.01366733598727067</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.005129081894341025</v>
+        <v>0.01220140917683454</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01299575862171077</v>
+        <v>0.0127754541828552</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01917969902626138</v>
+        <v>0.002331528279181594</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01357224009494688</v>
+        <v>0.01322128832401381</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02806554906762104</v>
+        <v>0.003488372093023218</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01450470846462702</v>
+        <v>0.01445779479501452</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.005493133583021059</v>
+        <v>0.007280944012051149</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01341118318668136</v>
+        <v>0.01345018401334428</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0006354047528274176</v>
+        <v>-0.0002540005080009511</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01239967763053758</v>
+        <v>0.01242100749975018</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0005497903924127634</v>
+        <v>0.0123770886337069</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01373361656057007</v>
+        <v>0.01360509429562903</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01160310553707022</v>
+        <v>0.01087613293051359</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01268323152590982</v>
+        <v>0.01270883528819932</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0002519526329047839</v>
+        <v>0.003780241935483764</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.005971781381011859</v>
+        <v>0.006006696907089703</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003567415229295712</v>
+        <v>0.03887101647619229</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005179811729587155</v>
+        <v>0.00520673636597346</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002920128321131976</v>
+        <v>0.02864465860159937</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005181302997256281</v>
+        <v>0.005223391089637431</v>
       </c>
       <c r="E36" s="1">
-        <v>0.00583857571645896</v>
+        <v>0.02824673997465554</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005119521908106808</v>
+        <v>0.005129548127453904</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0003120968748698827</v>
+        <v>0.02331050846046567</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004620160277188313</v>
+        <v>0.004715849062082831</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01839811868861529</v>
+        <v>0.03006429412297384</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.001147636990511125</v>
+        <v>0.01010674823780211</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05724175142782228</v>
+        <v>0.05783407438678606</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0210121100328815</v>
+        <v>-0.01476710391956626</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05191149252800769</v>
+        <v>0.05207922304594362</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01382033563672258</v>
+        <v>-0.005314832846478379</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.317987784827803</v>
+        <v>0.3182161387063591</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009870740305522929</v>
+        <v>0.009528236114338728</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03450303585719301</v>
+        <v>0.03431042094730814</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004913670400396031</v>
+        <v>-0.01373288008670803</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03117070323076017</v>
+        <v>0.03109920692648595</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008237232289950436</v>
+        <v>0.001457339692634063</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0309604907250271</v>
+        <v>0.03058386602657904</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001737943020296839</v>
+        <v>0.0113784741652676</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02905267077710941</v>
+        <v>0.0289165617866588</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005820790216368721</v>
+        <v>-0.0006430116326648916</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02424244494759741</v>
+        <v>0.02407375185395421</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003523111612175889</v>
+        <v>-0.00470439545007717</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02425077230942939</v>
+        <v>0.02437199034522875</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01560642747083407</v>
+        <v>-0.005557120873880939</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02343543817723871</v>
+        <v>0.02356189727009832</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01600816352562284</v>
+        <v>-0.007469947584821557</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02329995840589526</v>
+        <v>0.02300165684529177</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002382654276864571</v>
+        <v>0.01265822784810133</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01987858706448965</v>
+        <v>0.01991383728348789</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01234713770898566</v>
+        <v>0.0060690943043884</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02187533896633098</v>
+        <v>0.0218687097746477</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01024890190336758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02014260713898324</v>
+        <v>0.02002413164582959</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004611225950071685</v>
+        <v>-0.0004115226337448874</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02185932480896178</v>
+        <v>0.02158557865292762</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.002100122100122226</v>
+        <v>0.007316953797964043</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01926930175711605</v>
+        <v>0.01942300624187913</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01861598980552936</v>
+        <v>-0.0002719608376393623</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01418470003134504</v>
+        <v>0.01418613694946712</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01065751445086738</v>
+        <v>0.002323503127792614</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01621401405317042</v>
+        <v>0.01628130725019568</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01474926253687303</v>
+        <v>0.0007267441860465684</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01519209729091703</v>
+        <v>0.01499908246500293</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.002283907238229133</v>
+        <v>0.002113048071843648</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01637159336168337</v>
+        <v>0.016162138628815</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.002373685995252561</v>
+        <v>0.001359619306594118</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01203111614833466</v>
+        <v>0.01239818504499302</v>
       </c>
       <c r="E22" s="1">
-        <v>0.04138714371916352</v>
+        <v>-0.01005487576263675</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01503643968128838</v>
+        <v>0.01501123174821107</v>
       </c>
       <c r="E23" s="1">
-        <v>0.008860993169651055</v>
+        <v>-0.0005489478499541844</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01329473992581388</v>
+        <v>0.01346478646472656</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02348066298342544</v>
+        <v>0.01248313090418351</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01400438061936782</v>
+        <v>0.01395846994674071</v>
       </c>
       <c r="E25" s="1">
-        <v>0.007242233657327901</v>
+        <v>-0.007947019867549643</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01366733598727067</v>
+        <v>0.01368960102704758</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01220140917683454</v>
+        <v>-0.005687606112054433</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0127754541828552</v>
+        <v>0.01267149109420565</v>
       </c>
       <c r="E27" s="1">
-        <v>0.002331528279181594</v>
+        <v>-0.004577174157724961</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01322128832401381</v>
+        <v>0.01312883237253632</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003488372093023218</v>
+        <v>0.005407493240633388</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01445779479501452</v>
+        <v>0.01441095151178813</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007280944012051149</v>
+        <v>-0.004237288135592987</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01345018401334428</v>
+        <v>0.01330631755331607</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.0002540005080009511</v>
+        <v>0.003938008130081272</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01242100749975018</v>
+        <v>0.01244340150771548</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0123770886337069</v>
+        <v>-0.0008829722203355095</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01360509429562903</v>
+        <v>0.01360941575787387</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01087613293051359</v>
+        <v>-0.008453590641277375</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01270883528819932</v>
+        <v>0.01262363348295968</v>
       </c>
       <c r="E33" s="1">
-        <v>0.003780241935483764</v>
+        <v>-0.006025608837559426</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006006696907089703</v>
+        <v>0.006175005247962117</v>
       </c>
       <c r="E34" s="1">
-        <v>0.03887101647619229</v>
+        <v>0.02595380667236946</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00520673636597346</v>
+        <v>0.005299939919153388</v>
       </c>
       <c r="E35" s="1">
-        <v>0.02864465860159937</v>
+        <v>-0.007534833655590378</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005223391089637431</v>
+        <v>0.005314835996825974</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02824673997465554</v>
+        <v>-0.003379184225172915</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005129548127453904</v>
+        <v>0.005194293978213061</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02331050846046567</v>
+        <v>-0.007321984257733893</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004715849062082831</v>
+        <v>0.004806890312784882</v>
       </c>
       <c r="E38" s="1">
-        <v>0.03006429412297384</v>
+        <v>-0.008263736263736221</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01010674823780211</v>
+        <v>0.00170818921906446</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05783407438678606</v>
+        <v>0.05705556556996219</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01476710391956626</v>
+        <v>0.01331419915490706</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05207922304594362</v>
+        <v>0.05187110019963929</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005314832846478379</v>
+        <v>0.02288208182077756</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,7 +769,7 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3182161387063591</v>
+        <v>0.3186379673519059</v>
       </c>
       <c r="E4" s="1">
         <v>0.009528236114338728</v>
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03431042094730814</v>
+        <v>0.03388409748897921</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01373288008670803</v>
+        <v>0.0130842813791725</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03109920692648595</v>
+        <v>0.03118581435321178</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001457339692634063</v>
+        <v>0.01124487366053706</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03058386602657904</v>
+        <v>0.03097286716411468</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0113784741652676</v>
+        <v>0.00541005778925352</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0289165617866588</v>
+        <v>0.02893627536853721</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0006430116326648916</v>
+        <v>-0.002398221806270473</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02407375185395421</v>
+        <v>0.02399226154357832</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.00470439545007717</v>
+        <v>7.054673721329507E-05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02437199034522875</v>
+        <v>0.02426868032406055</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005557120873880939</v>
+        <v>0.02916574038960307</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02356189727009832</v>
+        <v>0.02341689156767214</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007469947584821557</v>
+        <v>0.02656294469215426</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02300165684529177</v>
+        <v>0.02332369411432163</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01265822784810133</v>
+        <v>0.005424528301886999</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01991383728348789</v>
+        <v>0.02006125431712607</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0060690943043884</v>
+        <v>0.01107888631090481</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0218687097746477</v>
+        <v>0.0218976990278691</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>-0.0002898550724637072</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02002413164582959</v>
+        <v>0.02004242441168181</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.0004115226337448874</v>
+        <v>-0.002945181619533166</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02158557865292762</v>
+        <v>0.02177234263488348</v>
       </c>
       <c r="E16" s="1">
-        <v>0.007316953797964043</v>
+        <v>-0.001651969001287612</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01942300624187913</v>
+        <v>0.01944346416097749</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0002719608376393623</v>
+        <v>0.01300326441784549</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01418613694946712</v>
+        <v>0.01423794737951188</v>
       </c>
       <c r="E18" s="1">
-        <v>0.002323503127792614</v>
+        <v>0.01569186875891582</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01628130725019568</v>
+        <v>0.01631473784963326</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0007267441860465684</v>
+        <v>0.01053013798111846</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01499908246500293</v>
+        <v>0.01505070110719844</v>
       </c>
       <c r="E20" s="1">
-        <v>0.002113048071843648</v>
+        <v>0.001230012300122985</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.016162138628815</v>
+        <v>0.01620556671245084</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001359619306594118</v>
+        <v>0.01171079429735222</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01239818504499302</v>
+        <v>0.01228979266793102</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01005487576263675</v>
+        <v>0.0440022035532297</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01501123174821107</v>
+        <v>0.01502287939297462</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0005489478499541844</v>
+        <v>0.003295496155254485</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01346478646472656</v>
+        <v>0.01365094094518509</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01248313090418351</v>
+        <v>-0.008663778740419903</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01395846994674071</v>
+        <v>0.01386589806800938</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.007947019867549643</v>
+        <v>0.01831012778943353</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01368960102704758</v>
+        <v>0.01362978374805671</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.005687606112054433</v>
+        <v>0.001366003585759668</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01267149109420565</v>
+        <v>0.01263021196972659</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.004577174157724961</v>
+        <v>0.01055329413538364</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01312883237253632</v>
+        <v>0.01321732419003902</v>
       </c>
       <c r="E28" s="1">
-        <v>0.005407493240633388</v>
+        <v>0.01421436803688025</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01441095151178813</v>
+        <v>0.01436891042973652</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.004237288135592987</v>
+        <v>-0.003504380475594648</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01330631755331607</v>
+        <v>0.01337642631244441</v>
       </c>
       <c r="E30" s="1">
-        <v>0.003938008130081272</v>
+        <v>0.004428697962798767</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01244340150771548</v>
+        <v>0.0124488947903364</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.0008829722203355095</v>
+        <v>0.005098572399728107</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01360941575787387</v>
+        <v>0.01351225551800858</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.008453590641277375</v>
+        <v>-0.001808473992421789</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01262363348295968</v>
+        <v>0.01256420151468605</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.006025608837559426</v>
+        <v>-0.001894417782268287</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006175005247962117</v>
+        <v>0.0063436682009866</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02595380667236946</v>
+        <v>0.0413727550152585</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005299939919153388</v>
+        <v>0.005266978439123549</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.007534833655590378</v>
+        <v>0.01006246359637664</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005314835996825974</v>
+        <v>0.005303897748112565</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.003379184225172915</v>
+        <v>0.02584865770473499</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005194293978213061</v>
+        <v>0.005163096601223223</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.007321984257733893</v>
+        <v>0.01999713155899774</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004806890312784882</v>
+        <v>0.00477348681610418</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.008263736263736221</v>
+        <v>0.01761811896108489</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E39" s="1">
-        <v>0.00170818921906446</v>
+        <v>0.01003983053931345</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05705556556996219</v>
+        <v>0.05741310638279992</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01331419915490706</v>
+        <v>-0.001573564122738014</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05187110019963929</v>
+        <v>0.05268899719568391</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02288208182077756</v>
+        <v>0.003748305287502918</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,7 +769,7 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3186379673519059</v>
+        <v>0.3164218208252642</v>
       </c>
       <c r="E4" s="1">
         <v>0.009528236114338728</v>
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03388409748897921</v>
+        <v>0.03408869706715494</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0130842813791725</v>
+        <v>0.004332833074986553</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03118581435321178</v>
+        <v>0.03131715664723763</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01124487366053706</v>
+        <v>-0.001308215593929796</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.03097286716411468</v>
+        <v>0.0309238485574764</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00541005778925352</v>
+        <v>-0.01033386327503982</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02893627536853721</v>
+        <v>0.02866610884990475</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002398221806270473</v>
+        <v>-0.002755790090882448</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02399226154357832</v>
+        <v>0.02382707470279975</v>
       </c>
       <c r="E9" s="1">
-        <v>7.054673721329507E-05</v>
+        <v>0.004091422121896171</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02426868032406055</v>
+        <v>0.02480278131009202</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02916574038960307</v>
+        <v>0.0007750821671805852</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02341689156767214</v>
+        <v>0.02387172105380096</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02656294469215426</v>
+        <v>0.00973415888858109</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02332369411432163</v>
+        <v>0.02328711648127927</v>
       </c>
       <c r="E12" s="1">
-        <v>0.005424528301886999</v>
+        <v>-0.01454374853389639</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02006125431712607</v>
+        <v>0.0201424376172295</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01107888631090481</v>
+        <v>0.01067064425448905</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0218976990278691</v>
+        <v>0.02173909617927033</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0002898550724637072</v>
+        <v>0.003406784575239241</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02004242441168181</v>
+        <v>0.01984441009301674</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002945181619533166</v>
+        <v>0.006066573497649719</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02177234263488348</v>
+        <v>0.02158519758111323</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.001651969001287612</v>
+        <v>0.005110110719065641</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01944346416097749</v>
+        <v>0.01955930374803491</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01300326441784549</v>
+        <v>-0.01385681293302543</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01423794737951188</v>
+        <v>0.01436078768769195</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01569186875891582</v>
+        <v>-0.001580056179775302</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01631473784963326</v>
+        <v>0.01637186943726164</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01053013798111846</v>
+        <v>0.0007186489399928497</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01505070110719844</v>
+        <v>0.01496440635322827</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001230012300122985</v>
+        <v>-0.008775008775008808</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01620556671245084</v>
+        <v>0.01628131613240742</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01171079429735222</v>
+        <v>-0.02264720684448918</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01228979266793102</v>
+        <v>0.01274133322408109</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0440022035532297</v>
+        <v>-0.002885693555834012</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01502287939297462</v>
+        <v>0.01496755786035777</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003295496155254485</v>
+        <v>-0.0001824817518247812</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01365094094518509</v>
+        <v>0.01343855165136348</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008663778740419903</v>
+        <v>-0.007731092436974896</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01386589806800938</v>
+        <v>0.01402158047032042</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01831012778943353</v>
+        <v>-0.001498407941562085</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01362978374805671</v>
+        <v>0.01355347661135247</v>
       </c>
       <c r="E26" s="1">
-        <v>0.001366003585759668</v>
+        <v>0.009463722397476282</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01263021196972659</v>
+        <v>0.01267473137341105</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01055329413538364</v>
+        <v>0.001939430105922568</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01321732419003902</v>
+        <v>0.01331196611499534</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01421436803688025</v>
+        <v>-0.01638257575757562</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01436891042973652</v>
+        <v>0.01421896986686458</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.003504380475594648</v>
+        <v>-0.01205727204220042</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01337642631244441</v>
+        <v>0.01334222058343852</v>
       </c>
       <c r="E30" s="1">
-        <v>0.004428697962798767</v>
+        <v>-0.006928697404887885</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0124488947903364</v>
+        <v>0.01242534210923019</v>
       </c>
       <c r="E31" s="1">
-        <v>0.005098572399728107</v>
+        <v>0.00304362529590807</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01351225551800858</v>
+        <v>0.01339401035059992</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.001808473992421789</v>
+        <v>-0.01164696747476479</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01256420151468605</v>
+        <v>0.01245318042220741</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001894417782268287</v>
+        <v>-0.01935973680880687</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0063436682009866</v>
+        <v>0.006560177240760964</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0413727550152585</v>
+        <v>0.002289905201127151</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005266978439123549</v>
+        <v>0.005282976451413478</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01006246359637664</v>
+        <v>-0.003102008351560936</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005303897748112565</v>
+        <v>0.005403153923284964</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02584865770473499</v>
+        <v>0.005754948088812606</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005163096601223223</v>
+        <v>0.005229715980924979</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01999713155899774</v>
+        <v>0.014563204306691</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.00477348681610418</v>
+        <v>0.004823801862645765</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01761811896108489</v>
+        <v>0.000762211720638506</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01003983053931345</v>
+        <v>0.001835122601506312</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.05741310638279992</v>
+        <v>0.07910549196550191</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001573564122738014</v>
+        <v>-0.0003940110323088497</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05268899719568391</v>
+        <v>0.07298343114906863</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003748305287502918</v>
+        <v>-0.0009137136500873</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3164218208252642</v>
+        <v>0.05828932543385014</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009528236114338728</v>
+        <v>0.0004526462395544328</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03408869706715494</v>
+        <v>0.04724627587922536</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004332833074986553</v>
+        <v>0.001874779460272036</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03131715664723763</v>
+        <v>0.04316118111848008</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001308215593929796</v>
+        <v>-0.008514540214828559</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0309238485574764</v>
+        <v>0.04223395637346688</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01033386327503982</v>
+        <v>-0.0001235712079084017</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02866610884990475</v>
+        <v>0.0394502525658147</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002755790090882448</v>
+        <v>-0.00593838193791163</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02382707470279975</v>
+        <v>0.0330159275059858</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004091422121896171</v>
+        <v>-0.001194323450892321</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02480278131009202</v>
+        <v>0.03425440170808831</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0007750821671805852</v>
+        <v>0.00738085463863869</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02387172105380096</v>
+        <v>0.03326368033419523</v>
       </c>
       <c r="E11" s="1">
-        <v>0.00973415888858109</v>
+        <v>-0.0003965953811890799</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.02328711648127927</v>
+        <v>0.03166887116910921</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01454374853389639</v>
+        <v>0.0007141156867411791</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0201424376172295</v>
+        <v>0.02809319913412634</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01067064425448905</v>
+        <v>0.001702900607367885</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.02173909617927033</v>
+        <v>0.03010218608165493</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003406784575239241</v>
+        <v>-0.002239398974210882</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01984441009301674</v>
+        <v>0.02755144821603467</v>
       </c>
       <c r="E15" s="1">
-        <v>0.006066573497649719</v>
+        <v>0.00183109707971596</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02158519758111323</v>
+        <v>0.02993982027264699</v>
       </c>
       <c r="E16" s="1">
-        <v>0.005110110719065641</v>
+        <v>0.0003873623048056274</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.01955930374803491</v>
+        <v>0.02661784481423902</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01385681293302543</v>
+        <v>-0.01244485594466538</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01436078768769195</v>
+        <v>0.01978659333917464</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.001580056179775302</v>
+        <v>0.0008791981712679142</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01637186943726164</v>
+        <v>0.02260943890435552</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0007186489399928497</v>
+        <v>0.02064631956912022</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.01496440635322827</v>
+        <v>0.02046968949278661</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.008775008775008808</v>
+        <v>-0.002124645892351285</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01628131613240742</v>
+        <v>0.02195939579043445</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02264720684448918</v>
+        <v>0.01167181599725375</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01274133322408109</v>
+        <v>0.0175323180444662</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.002885693555834012</v>
+        <v>0.02388000463047169</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01496755786035777</v>
+        <v>0.02065148121108657</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0001824817518247812</v>
+        <v>0.004380361379813902</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01343855165136348</v>
+        <v>0.01840184493949264</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.007731092436974896</v>
+        <v>0.001016260162601812</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01402158047032042</v>
+        <v>0.01932080642458311</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.001498407941562085</v>
+        <v>-0.007503282686175172</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01355347661135247</v>
+        <v>0.01888082407606606</v>
       </c>
       <c r="E26" s="1">
-        <v>0.009463722397476282</v>
+        <v>-0.01393581081081086</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01267473137341105</v>
+        <v>0.01752506957084977</v>
       </c>
       <c r="E27" s="1">
-        <v>0.001939430105922568</v>
+        <v>0.01913341274568192</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01331196611499534</v>
+        <v>0.01806957490891568</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01638257575757562</v>
+        <v>0.002406854722248886</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01421896986686458</v>
+        <v>0.01938560777871396</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01205727204220042</v>
+        <v>-0.01042461225527591</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01334222058343852</v>
+        <v>0.0182847096058512</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.006928697404887885</v>
+        <v>0.005454776100469516</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01242534210923019</v>
+        <v>0.01719917819705527</v>
       </c>
       <c r="E31" s="1">
-        <v>0.00304362529590807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01339401035059992</v>
+        <v>0.01826847302495041</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01164696747476479</v>
+        <v>0.001222067039106101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01245318042220741</v>
+        <v>0.01685270115819011</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01935973680880687</v>
+        <v>-0.003483870967741942</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006560177240760964</v>
+        <v>0.009073784242514212</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002289905201127151</v>
+        <v>0.003339138214759396</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.005282976451413478</v>
+        <v>0.007267899525717875</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.003102008351560936</v>
+        <v>0.002034547412933518</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.005403153923284964</v>
+        <v>0.007499270803554187</v>
       </c>
       <c r="E36" s="1">
-        <v>0.005754948088812606</v>
+        <v>0.01051614150396296</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.005229715980924979</v>
+        <v>0.00732211810836874</v>
       </c>
       <c r="E37" s="1">
-        <v>0.014563204306691</v>
+        <v>0.003761780312029783</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.004823801862645765</v>
+        <v>0.006661927131384674</v>
       </c>
       <c r="E38" s="1">
-        <v>0.000762211720638506</v>
+        <v>0.002067284675980385</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.001835122601506312</v>
+        <v>0.0005662507589152543</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07910549196550191</v>
+        <v>0.07902957297327841</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0003940110323088497</v>
+        <v>-0.0123768230193142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07298343114906863</v>
+        <v>0.07287547939628305</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0009137136500873</v>
+        <v>-0.008668336713189451</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05828932543385014</v>
+        <v>0.05828270725060164</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0004526462395544328</v>
+        <v>0.006856228030487799</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04724627587922536</v>
+        <v>0.04730806399967544</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001874779460272036</v>
+        <v>-0.01073454287079334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04316118111848008</v>
+        <v>0.04276946526396316</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008514540214828559</v>
+        <v>-0.0009248249438497114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04223395637346688</v>
+        <v>0.0422048389503775</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0001235712079084017</v>
+        <v>0.01557189643452994</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0394502525658147</v>
+        <v>0.03919378838611341</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00593838193791163</v>
+        <v>-0.001537824569704749</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0330159275059858</v>
+        <v>0.03295783341133106</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001194323450892321</v>
+        <v>-0.003376239713019591</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03425440170808831</v>
+        <v>0.03448769978165464</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00738085463863869</v>
+        <v>-0.007406598300221501</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03326368033419523</v>
+        <v>0.03323167065348578</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0003965953811890799</v>
+        <v>0.01553439540987589</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03166887116910921</v>
+        <v>0.03167355123436846</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0007141156867411791</v>
+        <v>0.01213130352045666</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02809319913412634</v>
+        <v>0.02812511319330446</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001702900607367885</v>
+        <v>0.01456338187793937</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.03010218608165493</v>
+        <v>0.0300177776876256</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.002239398974210882</v>
+        <v>-0.02273385461917188</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02755144821603467</v>
+        <v>0.02758627684220745</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00183109707971596</v>
+        <v>0.004537862792676428</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02993982027264699</v>
+        <v>0.02993446741554149</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0003873623048056274</v>
+        <v>-0.001234239248807945</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02661784481423902</v>
+        <v>0.02627171319243514</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01244485594466538</v>
+        <v>-0.001792361781331908</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01978659333917464</v>
+        <v>0.01979278199802663</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0008791981712679142</v>
+        <v>0.01423049894588901</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02260943890435552</v>
+        <v>0.02306318106147429</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02064631956912022</v>
+        <v>0.00861917326297279</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02046968949278661</v>
+        <v>0.02041463884634833</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.002124645892351285</v>
+        <v>-0.001242015613910574</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02195939579043445</v>
+        <v>0.02220312927870691</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01167181599725375</v>
+        <v>-0.006447234475738139</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0175323180444662</v>
+        <v>0.01794083087145442</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02388000463047169</v>
+        <v>0.01892978857428984</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02065148121108657</v>
+        <v>0.02073020366825994</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004380361379813902</v>
+        <v>0.008359076867163306</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01840184493949264</v>
+        <v>0.01841012125628992</v>
       </c>
       <c r="E24" s="1">
-        <v>0.001016260162601812</v>
+        <v>0.005414551607444862</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01932080642458311</v>
+        <v>0.01916498476508676</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.007503282686175172</v>
+        <v>0.0001890001890001436</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01888082407606606</v>
+        <v>0.01860716816069755</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01393581081081086</v>
+        <v>-0.009079229122055721</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01752506957084977</v>
+        <v>0.01785027622788474</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01913341274568192</v>
+        <v>-0.002410694718386841</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01806957490891568</v>
+        <v>0.01810281501787186</v>
       </c>
       <c r="E28" s="1">
-        <v>0.002406854722248886</v>
+        <v>-0.01066077602766036</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01938560777871396</v>
+        <v>0.01917266379886147</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01042461225527591</v>
+        <v>-0.006937307297019579</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0182847096058512</v>
+        <v>0.01837404428629176</v>
       </c>
       <c r="E30" s="1">
-        <v>0.005454776100469516</v>
+        <v>-0.003532677264698525</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01719917819705527</v>
+        <v>0.01718944466097066</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>-0.01207012811867847</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01826847302495041</v>
+        <v>0.01828044700669814</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001222067039106101</v>
+        <v>-0.02074978204010469</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01685270115819011</v>
+        <v>0.01678448429492706</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.003483870967741942</v>
+        <v>-0.0169623203418362</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009073784242514212</v>
+        <v>0.009098930585881298</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003339138214759396</v>
+        <v>-0.01350318471337586</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.007267899525717875</v>
+        <v>0.007278564918986193</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002034547412933518</v>
+        <v>0.002985906521219883</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007499270803554187</v>
+        <v>0.007573845500738201</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01051614150396296</v>
+        <v>-0.007269388223591022</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.00732211810836874</v>
+        <v>0.007345502911512899</v>
       </c>
       <c r="E37" s="1">
-        <v>0.003761780312029783</v>
+        <v>-0.0171604402540535</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006661927131384674</v>
+        <v>0.006671921250784202</v>
       </c>
       <c r="E38" s="1">
-        <v>0.002067284675980385</v>
+        <v>0.01561380268844048</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0005662507589152543</v>
+        <v>-0.001582895169597975</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -735,10 +735,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07902957297327841</v>
+        <v>0.07817518105176545</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0123768230193142</v>
+        <v>-0.005348020434227441</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,10 +752,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07287547939628305</v>
+        <v>0.07235830581549661</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008668336713189451</v>
+        <v>0.001484096105250687</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -769,10 +769,10 @@
         <v>81</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05828270725060164</v>
+        <v>0.05877534198666809</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006856228030487799</v>
+        <v>0.0004839267196681263</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -786,10 +786,10 @@
         <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04730806399967544</v>
+        <v>0.04687443086873647</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01073454287079334</v>
+        <v>-0.002179492339270173</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,10 +803,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04276946526396316</v>
+        <v>0.04279765519733391</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009248249438497114</v>
+        <v>0.001939522172264674</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,10 +820,10 @@
         <v>81</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0422048389503775</v>
+        <v>0.04293000202438402</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01557189643452994</v>
+        <v>-0.0006693033160936057</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -837,10 +837,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03919378838611341</v>
+        <v>0.03919555767426573</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001537824569704749</v>
+        <v>0.002606480658728705</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -854,10 +854,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03295783341133106</v>
+        <v>0.03289863495567034</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.003376239713019591</v>
+        <v>0.002399604770978891</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -871,10 +871,10 @@
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03448769978165464</v>
+        <v>0.03428653523407756</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.007406598300221501</v>
+        <v>-0.002467536864916076</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -888,10 +888,10 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03323167065348578</v>
+        <v>0.0338014086520287</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01553439540987589</v>
+        <v>-0.0120811419984973</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -905,10 +905,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03167355123436846</v>
+        <v>0.03210861727314745</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01213130352045666</v>
+        <v>-0.003760282021151418</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -922,10 +922,10 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>0.02812511319330446</v>
+        <v>0.0285799490203505</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01456338187793937</v>
+        <v>-0.002178284182305479</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -939,10 +939,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0300177776876256</v>
+        <v>0.0293818663079371</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02273385461917188</v>
+        <v>-0.0009631056452806819</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -956,10 +956,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02758627684220745</v>
+        <v>0.02775539345971584</v>
       </c>
       <c r="E15" s="1">
-        <v>0.004537862792676428</v>
+        <v>0.0004391881293723809</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -973,10 +973,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02993446741554149</v>
+        <v>0.02994492079143983</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.001234239248807945</v>
+        <v>-0.001889992730797263</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -990,10 +990,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02627171319243514</v>
+        <v>0.0262662014211321</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.001792361781331908</v>
+        <v>-0.003922651933701782</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1007,10 +1007,10 @@
         <v>80</v>
       </c>
       <c r="D18" s="1">
-        <v>0.01979278199802663</v>
+        <v>0.02010626927790439</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01423049894588901</v>
+        <v>-0.01056642993244417</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1024,10 +1024,10 @@
         <v>85</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02306318106147429</v>
+        <v>0.02329884624621879</v>
       </c>
       <c r="E19" s="1">
-        <v>0.00861917326297279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1041,10 +1041,10 @@
         <v>85</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02041463884634833</v>
+        <v>0.0204216088120929</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.001242015613910574</v>
+        <v>0.0035530289571859</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1058,10 +1058,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02220312927870691</v>
+        <v>0.02209495449489441</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.006447234475738139</v>
+        <v>-0.003244535519125735</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1075,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01794083087145442</v>
+        <v>0.01830942891328308</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01892978857428984</v>
+        <v>-0.008924466988983082</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1092,10 +1092,10 @@
         <v>84</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02073020366825994</v>
+        <v>0.02093662952393598</v>
       </c>
       <c r="E23" s="1">
-        <v>0.008359076867163306</v>
+        <v>-0.003604253018561931</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1109,10 +1109,10 @@
         <v>85</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01841012125628992</v>
+        <v>0.01853914933786679</v>
       </c>
       <c r="E24" s="1">
-        <v>0.005414551607444862</v>
+        <v>-0.009424436216762033</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1126,10 +1126,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01916498476508676</v>
+        <v>0.01919899695036341</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0001890001890001436</v>
+        <v>-0.0003779289493575089</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1143,10 +1143,10 @@
         <v>83</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01860716816069755</v>
+        <v>0.01846746147321464</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.009079229122055721</v>
+        <v>0.00829803785979788</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01785027622788474</v>
+        <v>0.01783547635062331</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.002410694718386841</v>
+        <v>-0.0007322788517866163</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1177,10 +1177,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01810281501787186</v>
+        <v>0.01793821928214907</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01066077602766036</v>
+        <v>0.007572080380545465</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1194,10 +1194,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01917266379886147</v>
+        <v>0.0190698427002816</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.006937307297019579</v>
+        <v>0.002069857697283295</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1211,10 +1211,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01837404428629176</v>
+        <v>0.01833816210599791</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.003532677264698525</v>
+        <v>-0.00303874398581927</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1228,10 @@
         <v>84</v>
       </c>
       <c r="D31" s="1">
-        <v>0.01718944466097066</v>
+        <v>0.01700888915009973</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01207012811867847</v>
+        <v>0.00976042590949433</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1245,10 +1245,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01828044700669814</v>
+        <v>0.01792951225405367</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.02074978204010469</v>
+        <v>0.007834757834757955</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1262,10 +1262,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01678448429492706</v>
+        <v>0.01652593932507471</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0169623203418362</v>
+        <v>-0.0003951527924130893</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1279,10 +1279,10 @@
         <v>80</v>
       </c>
       <c r="D34" s="1">
-        <v>0.009098930585881298</v>
+        <v>0.008990296742773346</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01350318471337586</v>
+        <v>0.04884426652892571</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1296,10 +1296,10 @@
         <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>0.007278564918986193</v>
+        <v>0.007311871960249514</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002985906521219883</v>
+        <v>-0.002083912197832771</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1313,10 +1313,10 @@
         <v>80</v>
       </c>
       <c r="D36" s="1">
-        <v>0.007573845500738201</v>
+        <v>0.007530708599713974</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.007269388223591022</v>
+        <v>0.002119705553628393</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.007345502911512899</v>
+        <v>0.007230896598962267</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0171604402540535</v>
+        <v>0.01264349361804618</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1347,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="1">
-        <v>0.006671921250784202</v>
+        <v>0.006786838166096719</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01561380268844048</v>
+        <v>0.009942695860417405</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.001582895169597975</v>
+        <v>-0.000474678148334462</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>Symbol</t>
   </si>
@@ -37,25 +37,28 @@
     <t>MSFT</t>
   </si>
   <si>
+    <t>AMZN</t>
+  </si>
+  <si>
     <t>BRKB</t>
   </si>
   <si>
-    <t>AMZN</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
     <t>JPM</t>
   </si>
   <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
     <t>JNJ</t>
   </si>
   <si>
     <t>WMT</t>
   </si>
   <si>
-    <t>GOOGL</t>
+    <t>UNH</t>
   </si>
   <si>
     <t>FB</t>
@@ -64,42 +67,45 @@
     <t>BAC</t>
   </si>
   <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
     <t>DIS</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>MA</t>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>KO</t>
   </si>
   <si>
     <t>INTC</t>
   </si>
   <si>
-    <t>CMCSA</t>
-  </si>
-  <si>
-    <t>VZ</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
     <t>CSCO</t>
   </si>
   <si>
@@ -109,37 +115,19 @@
     <t>NKE</t>
   </si>
   <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>PFE</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>PEP</t>
-  </si>
-  <si>
-    <t>ABBV</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
     <t>NVDA</t>
   </si>
   <si>
+    <t>PYPL</t>
+  </si>
+  <si>
     <t>NFLX</t>
   </si>
   <si>
-    <t>PYPL</t>
-  </si>
-  <si>
     <t>ADBE</t>
   </si>
   <si>
-    <t>AVGO</t>
+    <t>CRM</t>
   </si>
   <si>
     <t>Total</t>
@@ -151,25 +139,28 @@
     <t>Microsoft Corp</t>
   </si>
   <si>
+    <t>Amazon.com Inc</t>
+  </si>
+  <si>
     <t>Berkshire Hathaway Inc</t>
   </si>
   <si>
-    <t>Amazon.com Inc</t>
-  </si>
-  <si>
     <t>Visa Inc</t>
   </si>
   <si>
     <t>JPMorgan Chase &amp; Co</t>
   </si>
   <si>
+    <t>Alphabet Inc</t>
+  </si>
+  <si>
     <t>Johnson &amp; Johnson</t>
   </si>
   <si>
     <t>Walmart Inc</t>
   </si>
   <si>
-    <t>Alphabet Inc</t>
+    <t>UnitedHealth Group Inc</t>
   </si>
   <si>
     <t>Facebook Inc</t>
@@ -178,42 +169,45 @@
     <t>Bank of America Corp</t>
   </si>
   <si>
+    <t>Home Depot Inc</t>
+  </si>
+  <si>
+    <t>Mastercard Inc</t>
+  </si>
+  <si>
     <t>Walt Disney Co</t>
   </si>
   <si>
     <t>Procter &amp; Gamble Co</t>
   </si>
   <si>
-    <t>Home Depot Inc</t>
-  </si>
-  <si>
-    <t>UnitedHealth Group Inc</t>
-  </si>
-  <si>
-    <t>Mastercard Inc</t>
+    <t>Tesla Inc</t>
+  </si>
+  <si>
+    <t>Comcast Corp</t>
+  </si>
+  <si>
+    <t>Verizon Communications Inc</t>
+  </si>
+  <si>
+    <t>Exxon Mobil Corp</t>
+  </si>
+  <si>
+    <t>Coca-Cola Co</t>
   </si>
   <si>
     <t>Intel Corp</t>
   </si>
   <si>
-    <t>Comcast Corp</t>
-  </si>
-  <si>
-    <t>Verizon Communications Inc</t>
-  </si>
-  <si>
-    <t>Exxon Mobil Corp</t>
-  </si>
-  <si>
-    <t>Tesla Inc</t>
-  </si>
-  <si>
-    <t>Coca-Cola Co</t>
-  </si>
-  <si>
     <t>AT&amp;T Inc</t>
   </si>
   <si>
+    <t>Oracle Corp</t>
+  </si>
+  <si>
+    <t>Pfizer Inc</t>
+  </si>
+  <si>
     <t>Cisco Systems Inc</t>
   </si>
   <si>
@@ -223,46 +217,31 @@
     <t>Nike Inc</t>
   </si>
   <si>
-    <t>Chevron Corp</t>
-  </si>
-  <si>
-    <t>Pfizer Inc</t>
-  </si>
-  <si>
-    <t>Oracle Corp</t>
-  </si>
-  <si>
-    <t>PepsiCo Inc</t>
-  </si>
-  <si>
-    <t>Abbvie Inc</t>
-  </si>
-  <si>
-    <t>Merck &amp; Co Inc</t>
-  </si>
-  <si>
     <t>NVIDIA Corp</t>
   </si>
   <si>
+    <t>PayPal Holdings Inc</t>
+  </si>
+  <si>
     <t>Netflix Inc</t>
   </si>
   <si>
-    <t>PayPal Holdings Inc</t>
-  </si>
-  <si>
     <t>Adobe Inc</t>
   </si>
   <si>
-    <t>Broadcom Inc</t>
+    <t>Salesforce.Com Inc</t>
   </si>
   <si>
     <t>Information Technology</t>
   </si>
   <si>
+    <t>Consumer Discretionary</t>
+  </si>
+  <si>
     <t>Financials</t>
   </si>
   <si>
-    <t>Consumer Discretionary</t>
+    <t>Communication Services</t>
   </si>
   <si>
     <t>Health Care</t>
@@ -271,14 +250,11 @@
     <t>Consumer Staples</t>
   </si>
   <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -697,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,16 +705,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.07817518105176545</v>
+        <v>0.08634366557298774</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005348020434227441</v>
+        <v>0.003077165851349095</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,16 +722,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07235830581549661</v>
+        <v>0.07481190391067476</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001484096105250687</v>
+        <v>0.004038484380567864</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,16 +739,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05877534198666809</v>
+        <v>0.0483419019823955</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0004839267196681263</v>
+        <v>0.00522041230228143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,16 +756,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1">
-        <v>0.04687443086873647</v>
+        <v>0.05567824927645097</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002179492339270173</v>
+        <v>-0.002109339880355443</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,16 +773,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04279765519733391</v>
+        <v>0.04811367783873958</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001939522172264674</v>
+        <v>0.001120448179271705</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,16 +790,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04293000202438402</v>
+        <v>0.04642976575998048</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0006693033160936057</v>
+        <v>-0.01248484848484843</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,16 +807,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03919555767426573</v>
+        <v>0.03552121447826717</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002606480658728705</v>
+        <v>0.003960907923483692</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,16 +824,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03289863495567034</v>
+        <v>0.03871724109740713</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002399604770978891</v>
+        <v>0.01346471632290847</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,16 +841,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03428653523407756</v>
+        <v>0.03520531434950788</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.002467536864916076</v>
+        <v>-0.00536365586783949</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,16 +858,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0338014086520287</v>
+        <v>0.03569893606969293</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0120811419984973</v>
+        <v>-0.001593070144869646</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,16 +875,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03210861727314745</v>
+        <v>0.03459291536571994</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.003760282021151418</v>
+        <v>-0.0102793095181013</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,16 +892,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0285799490203505</v>
+        <v>0.03429315828151515</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002178284182305479</v>
+        <v>-0.01305970149253721</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,16 +909,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0293818663079371</v>
+        <v>0.03223129161832392</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.0009631056452806819</v>
+        <v>-0.01145062721132195</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,16 +926,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02775539345971584</v>
+        <v>0.03245729424208702</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0004391881293723809</v>
+        <v>-0.005283907353665795</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,16 +943,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02994492079143983</v>
+        <v>0.03133764821610472</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.001889992730797263</v>
+        <v>-0.001644643566040993</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,16 +960,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0262662014211321</v>
+        <v>0.02995497423481229</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.003922651933701782</v>
+        <v>-0.0003708098487097411</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,16 +977,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02010626927790439</v>
+        <v>0.02681774384216901</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01056642993244417</v>
+        <v>-0.007968985569674847</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,16 +994,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02329884624621879</v>
+        <v>0.02423633772670981</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>-0.003012581959950467</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,16 +1011,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0204216088120929</v>
+        <v>0.02200637605829505</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0035530289571859</v>
+        <v>-0.001749781277340268</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,16 +1028,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02209495449489441</v>
+        <v>0.02300383849017214</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.003244535519125735</v>
+        <v>0.008369547722517412</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,16 +1045,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1">
-        <v>0.01830942891328308</v>
+        <v>0.02307714864663527</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.008924466988983082</v>
+        <v>-0.003054806828391876</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,16 +1062,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02093662952393598</v>
+        <v>0.02194861654108168</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.003604253018561931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,16 +1079,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01853914933786679</v>
+        <v>0.01974309159148796</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.009424436216762033</v>
+        <v>0.001035196687370732</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,16 +1096,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01919899695036341</v>
+        <v>0.02255553577580066</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0003779289493575089</v>
+        <v>-0.001063704053894443</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,16 +1113,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01846746147321464</v>
+        <v>0.02071345148067263</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00829803785979788</v>
+        <v>0.02471042471042462</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,16 +1130,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01783547635062331</v>
+        <v>0.02084348444506581</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0007322788517866163</v>
+        <v>-0.002032144836504823</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,16 +1147,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01793821928214907</v>
+        <v>0.0175781464052698</v>
       </c>
       <c r="E28" s="1">
-        <v>0.007572080380545465</v>
+        <v>0.01065801668211286</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,16 +1164,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0190698427002816</v>
+        <v>0.01777438066246908</v>
       </c>
       <c r="E29" s="1">
-        <v>0.002069857697283295</v>
+        <v>-0.01132358455193094</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,16 +1181,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01833816210599791</v>
+        <v>0.01034161940506513</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.00303874398581927</v>
+        <v>-0.005656756601936097</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,16 +1198,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
         <v>72</v>
       </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
       <c r="D31" s="1">
-        <v>0.01700888915009973</v>
+        <v>0.00779457279728157</v>
       </c>
       <c r="E31" s="1">
-        <v>0.00976042590949433</v>
+        <v>0.001710051301539117</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,16 +1215,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>0.01792951225405367</v>
+        <v>0.007292361200177603</v>
       </c>
       <c r="E32" s="1">
-        <v>0.007834757834757955</v>
+        <v>-0.01336339080809923</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,16 +1232,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01652593932507471</v>
+        <v>0.007541319529499859</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.0003951527924130893</v>
+        <v>0.01076197957580516</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,195 +1249,127 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D34" s="1">
-        <v>0.008990296742773346</v>
+        <v>0.007002823107479799</v>
       </c>
       <c r="E34" s="1">
-        <v>0.04884426652892571</v>
+        <v>-0.001395820996531572</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>85</v>
-      </c>
       <c r="D35" s="1">
-        <v>0.007311871960249514</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.002083912197832771</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.007530708599713974</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.002119705553628393</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.007230896598962267</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.01264349361804618</v>
+        <v>-0.0006357989933257757</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
         <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.006786838166096719</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.009942695860417405</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="E39" s="1">
-        <v>-0.000474678148334462</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -254,7 +254,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -711,10 +711,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08634366557298774</v>
+        <v>0.08666446052893066</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003077165851349095</v>
+        <v>-0.008023283253362545</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -728,10 +728,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07481190391067476</v>
+        <v>0.07516181842458945</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004038484380567864</v>
+        <v>0.0143933120391182</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -745,10 +745,10 @@
         <v>73</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0483419019823955</v>
+        <v>0.04862518248429387</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00522041230228143</v>
+        <v>0.02087682672233826</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -762,10 +762,10 @@
         <v>74</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05567824927645097</v>
+        <v>0.05559615290283219</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002109339880355443</v>
+        <v>-0.01271744403631569</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -779,10 +779,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04811367783873958</v>
+        <v>0.04819823110829079</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001120448179271705</v>
+        <v>0.007059532521199952</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -796,10 +796,10 @@
         <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04642976575998048</v>
+        <v>0.0458792671611557</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01248484848484843</v>
+        <v>-0.01558856020621091</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -813,10 +813,10 @@
         <v>75</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03552121447826717</v>
+        <v>0.03568459897024841</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003960907923483692</v>
+        <v>0.0112918095965846</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -830,10 +830,10 @@
         <v>76</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03871724109740713</v>
+        <v>0.03926352147301634</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01346471632290847</v>
+        <v>0.008998127906274522</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -847,10 +847,10 @@
         <v>77</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03520531434950788</v>
+        <v>0.03503876276871373</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.00536365586783949</v>
+        <v>0.005752085130859896</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -864,10 +864,10 @@
         <v>76</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03569893606969293</v>
+        <v>0.03566474076671339</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001593070144869646</v>
+        <v>0.0009723261032159591</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -881,10 +881,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03459291536571994</v>
+        <v>0.03425910598664077</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0102793095181013</v>
+        <v>0.006691900075700197</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -898,10 +898,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03429315828151515</v>
+        <v>0.0338668323690496</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01305970149253721</v>
+        <v>-0.01488657844990571</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -915,10 +915,10 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>0.03223129161832392</v>
+        <v>0.03188249397103458</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01145062721132195</v>
+        <v>0.003156113750244272</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -932,10 +932,10 @@
         <v>72</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03245729424208702</v>
+        <v>0.03230633324051353</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.005283907353665795</v>
+        <v>0.00266974926375485</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -949,10 +949,10 @@
         <v>75</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03133764821610472</v>
+        <v>0.03130601328632374</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.001644643566040993</v>
+        <v>0.003010679391047599</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -966,10 +966,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02995497423481229</v>
+        <v>0.02996291702783157</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0003708098487097411</v>
+        <v>0.007418947993174552</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -983,10 +983,10 @@
         <v>73</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02681774384216901</v>
+        <v>0.02662095920754505</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.007968985569674847</v>
+        <v>0.01893850830021049</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>75</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02423633772670981</v>
+        <v>0.02417869656383427</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003012581959950467</v>
+        <v>0.006043370067543519</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02200637605829505</v>
+        <v>0.02198184574888472</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.001749781277340268</v>
+        <v>0.005083260297984449</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1034,10 +1034,10 @@
         <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02300383849017214</v>
+        <v>0.0232111278259224</v>
       </c>
       <c r="E21" s="1">
-        <v>0.008369547722517412</v>
+        <v>0.001596169193934571</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1051,10 +1051,10 @@
         <v>77</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02307714864663527</v>
+        <v>0.02302128932794949</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.003054806828391876</v>
+        <v>0.007750540735400158</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02194861654108168</v>
+        <v>0.02196258032754477</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>0.006666666666666821</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>75</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01974309159148796</v>
+        <v>0.01977610320100904</v>
       </c>
       <c r="E24" s="1">
-        <v>0.001035196687370732</v>
+        <v>0.005860048259220818</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02255553577580066</v>
+        <v>0.02254587800749899</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.001063704053894443</v>
+        <v>-0.02626597255087559</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>76</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02071345148067263</v>
+        <v>0.02123879326735767</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02471042471042462</v>
+        <v>0.02185380557648831</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>72</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02084348444506581</v>
+        <v>0.02081436121568365</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.002032144836504823</v>
+        <v>0.0186967789707515</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0175781464052698</v>
+        <v>0.01777679705256837</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01065801668211286</v>
+        <v>0.0100871160018341</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>73</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01777438066246908</v>
+        <v>0.01758429103471763</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01132358455193094</v>
+        <v>-0.006523058252427161</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>72</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01034161940506513</v>
+        <v>0.01028966153766812</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.005656756601936097</v>
+        <v>0.003845433727478254</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>72</v>
       </c>
       <c r="D31" s="1">
-        <v>0.00779457279728157</v>
+        <v>0.007812869331094199</v>
       </c>
       <c r="E31" s="1">
-        <v>0.001710051301539117</v>
+        <v>0.02226858877086491</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>0.007292361200177603</v>
+        <v>0.007199487954739895</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01336339080809923</v>
+        <v>0.003005290134002969</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>72</v>
       </c>
       <c r="D33" s="1">
-        <v>0.007541319529499859</v>
+        <v>0.007627328504035588</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01076197957580516</v>
+        <v>0.04049117898500043</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>72</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007002823107479799</v>
+        <v>0.006997497421767942</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.001395820996531572</v>
+        <v>0.01736625863018348</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0006357989933257757</v>
+        <v>0.003771724911716623</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -254,7 +254,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -711,10 +711,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08666446052893066</v>
+        <v>0.08634016649012284</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008023283253362545</v>
+        <v>0.02457793482528481</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -728,10 +728,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07516181842458945</v>
+        <v>0.07601872803857147</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0143933120391182</v>
+        <v>0.007755244484082269</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -745,10 +745,10 @@
         <v>73</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04862518248429387</v>
+        <v>0.04932757368671375</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02087682672233826</v>
+        <v>0.01106718895193359</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -762,10 +762,10 @@
         <v>74</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05559615290283219</v>
+        <v>0.05495521161896544</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01271744403631569</v>
+        <v>-0.01147060874416017</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -779,10 +779,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04819823110829079</v>
+        <v>0.04848172568909197</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007059532521199952</v>
+        <v>-0.003745318352059823</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -796,10 +796,10 @@
         <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0458792671611557</v>
+        <v>0.04488654008079992</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01558856020621091</v>
+        <v>-0.01696924324661542</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -813,10 +813,10 @@
         <v>75</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03568459897024841</v>
+        <v>0.03581773486357292</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0112918095965846</v>
+        <v>0.007698954818533554</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -830,10 +830,10 @@
         <v>76</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03926352147301634</v>
+        <v>0.03890045950519292</v>
       </c>
       <c r="E9" s="1">
-        <v>0.008998127906274522</v>
+        <v>0.002485451018428675</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -847,10 +847,10 @@
         <v>77</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03503876276871373</v>
+        <v>0.03526577446087323</v>
       </c>
       <c r="E10" s="1">
-        <v>0.005752085130859896</v>
+        <v>-0.001349911190053343</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -864,10 +864,10 @@
         <v>76</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03566474076671339</v>
+        <v>0.03518603865904131</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0009723261032159591</v>
+        <v>0.003191836939857806</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -881,10 +881,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03425910598664077</v>
+        <v>0.03417615009314055</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006691900075700197</v>
+        <v>0.01663346012195865</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -898,10 +898,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0338668323690496</v>
+        <v>0.0333157108859414</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01488657844990571</v>
+        <v>-0.01194457716196851</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -915,10 +915,10 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>0.03188249397103458</v>
+        <v>0.03206219333588507</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003156113750244272</v>
+        <v>-0.004665830035074259</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -932,10 +932,10 @@
         <v>72</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03230633324051353</v>
+        <v>0.03232174000321596</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00266974926375485</v>
+        <v>0.00279069767441853</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -949,10 +949,10 @@
         <v>75</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03130601328632374</v>
+        <v>0.03137198490708863</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003010679391047599</v>
+        <v>0.00451009132934943</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -966,10 +966,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02996291702783157</v>
+        <v>0.02981470490310331</v>
       </c>
       <c r="E17" s="1">
-        <v>0.007418947993174552</v>
+        <v>0.0003707548568885333</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -983,10 +983,10 @@
         <v>73</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02662095920754505</v>
+        <v>0.02696676608831926</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01893850830021049</v>
+        <v>0.01278919149354807</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>75</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02417869656383427</v>
+        <v>0.02431160810310296</v>
       </c>
       <c r="E19" s="1">
-        <v>0.006043370067543519</v>
+        <v>0.007032348804500765</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02198184574888472</v>
+        <v>0.02196905572913527</v>
       </c>
       <c r="E20" s="1">
-        <v>0.005083260297984449</v>
+        <v>-0.002616431187859702</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1034,10 +1034,10 @@
         <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0232111278259224</v>
+        <v>0.02290746210670242</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001596169193934571</v>
+        <v>-0.001608492842206877</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1051,10 +1051,10 @@
         <v>77</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02302128932794949</v>
+        <v>0.02317614670326358</v>
       </c>
       <c r="E22" s="1">
-        <v>0.007750540735400158</v>
+        <v>-0.01086182336182351</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02196258032754477</v>
+        <v>0.0221683215407374</v>
       </c>
       <c r="E23" s="1">
-        <v>0.006666666666666821</v>
+        <v>0.005877268798617052</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>75</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01977610320100904</v>
+        <v>0.01987823856686613</v>
       </c>
       <c r="E24" s="1">
-        <v>0.005860048259220818</v>
+        <v>-0.007844474761255049</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02254587800749899</v>
+        <v>0.02199293225389825</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02626597255087559</v>
+        <v>-0.003377563329312383</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>76</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02123879326735767</v>
+        <v>0.02130316598296778</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02185380557648831</v>
+        <v>-0.01295143212951422</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>72</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02081436121568365</v>
+        <v>0.02098805481047861</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0186967789707515</v>
+        <v>-0.0109549023187876</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01777679705256837</v>
+        <v>0.01781910938499231</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0100871160018341</v>
+        <v>0.005186061322900448</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>73</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01758429103471763</v>
+        <v>0.01750149265126257</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.006523058252427161</v>
+        <v>-0.004395937547369888</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>72</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01028966153766812</v>
+        <v>0.01050876600077201</v>
       </c>
       <c r="E30" s="1">
-        <v>0.003845433727478254</v>
+        <v>0.01085538772247241</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>72</v>
       </c>
       <c r="D31" s="1">
-        <v>0.007812869331094199</v>
+        <v>0.008001583514704032</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02226858877086491</v>
+        <v>0.01282004052311669</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>0.007199487954739895</v>
+        <v>0.007203783338518861</v>
       </c>
       <c r="E32" s="1">
-        <v>0.003005290134002969</v>
+        <v>0.02275098717188051</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>72</v>
       </c>
       <c r="D33" s="1">
-        <v>0.007627328504035588</v>
+        <v>0.007977412218030401</v>
       </c>
       <c r="E33" s="1">
-        <v>0.04049117898500043</v>
+        <v>0.02898791708236348</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>72</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006997497421767942</v>
+        <v>0.007083663784927339</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01736625863018348</v>
+        <v>0.0247596854063501</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1266,10 +1266,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>0.003771724911716623</v>
+        <v>0.002751401014044808</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -254,7 +254,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -711,10 +711,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.08634016649012284</v>
+        <v>0.0933253620812682</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02457793482528481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -728,10 +728,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07601872803857147</v>
+        <v>0.07932967198583461</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007755244484082269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -745,10 +745,10 @@
         <v>73</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04932757368671375</v>
+        <v>0.05250940872023548</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01106718895193359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -762,10 +762,10 @@
         <v>74</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05495521161896544</v>
+        <v>0.05183542364419073</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01147060874416017</v>
+        <v>-0.006448839208942458</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -779,10 +779,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04848172568909197</v>
+        <v>0.04791893893778066</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.003745318352059823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -796,10 +796,10 @@
         <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04488654008079992</v>
+        <v>0.0416389351378648</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01696924324661542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -813,10 +813,10 @@
         <v>75</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03581773486357292</v>
+        <v>0.036053487387065</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007698954818533554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -830,10 +830,10 @@
         <v>76</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03890045950519292</v>
+        <v>0.03839229274208928</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002485451018428675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -847,10 +847,10 @@
         <v>77</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03526577446087323</v>
+        <v>0.03398467605360167</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001349911190053343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -864,10 +864,10 @@
         <v>76</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03518603865904131</v>
+        <v>0.03516436421764946</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003191836939857806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -881,10 +881,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03417615009314055</v>
+        <v>0.03527721886158235</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01663346012195865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -898,10 +898,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0333157108859414</v>
+        <v>0.03091045841127804</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01194457716196851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -915,10 +915,10 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>0.03206219333588507</v>
+        <v>0.03192529308279602</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.004665830035074259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -932,10 +932,10 @@
         <v>72</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03232174000321596</v>
+        <v>0.03223814329825554</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00279069767441853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -949,10 +949,10 @@
         <v>75</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03137198490708863</v>
+        <v>0.02977476927296609</v>
       </c>
       <c r="E16" s="1">
-        <v>0.00451009132934943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -966,10 +966,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02981470490310331</v>
+        <v>0.02913792623163344</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0003707548568885333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -983,10 +983,10 @@
         <v>73</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02696676608831926</v>
+        <v>0.02826708837161463</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01278919149354807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>75</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02431160810310296</v>
+        <v>0.02388718535518142</v>
       </c>
       <c r="E19" s="1">
-        <v>0.007032348804500765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02196905572913527</v>
+        <v>0.02095182178108913</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.002616431187859702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1034,10 +1034,10 @@
         <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02290746210670242</v>
+        <v>0.02191737182962377</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.001608492842206877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1051,10 +1051,10 @@
         <v>77</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02317614670326358</v>
+        <v>0.0215515227877097</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01086182336182351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0221683215407374</v>
+        <v>0.02083296727001045</v>
       </c>
       <c r="E23" s="1">
-        <v>0.005877268798617052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>75</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01987823856686613</v>
+        <v>0.01906986345302354</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.007844474761255049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02199293225389825</v>
+        <v>0.02136295553455602</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.003377563329312383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>76</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02130316598296778</v>
+        <v>0.0202058382992948</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01295143212951422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>72</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02098805481047861</v>
+        <v>0.0196778499904645</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0109549023187876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01781910938499231</v>
+        <v>0.0186713008497669</v>
       </c>
       <c r="E28" s="1">
-        <v>0.005186061322900448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>73</v>
       </c>
       <c r="D29" s="1">
-        <v>0.01750149265126257</v>
+        <v>0.02058511561529709</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.004395937547369888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>72</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01050876600077201</v>
+        <v>0.0118274523921256</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01085538772247241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>72</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008001583514704032</v>
+        <v>0.008360957721650448</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01282004052311669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>0.007203783338518861</v>
+        <v>0.007737542954406009</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02275098717188051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>72</v>
       </c>
       <c r="D33" s="1">
-        <v>0.007977412218030401</v>
+        <v>0.008526954046017552</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02898791708236348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>72</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007083663784927339</v>
+        <v>0.007149841682077039</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0247596854063501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1266,10 +1266,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.002751401014044808</v>
+        <v>-0.0003342783124089532</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -711,10 +711,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0933253620812682</v>
+        <v>0.09335656915765851</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0179552175749893</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -728,10 +728,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07932967198583461</v>
+        <v>0.07935619904212959</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.008175466397752684</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -745,10 +745,10 @@
         <v>73</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05250940872023548</v>
+        <v>0.05252696734623594</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.005669606664236326</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -762,10 +762,10 @@
         <v>74</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05183542364419073</v>
+        <v>0.0515183668044954</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006448839208942458</v>
+        <v>0.00692340977931627</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -779,10 +779,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04791893893778066</v>
+        <v>0.04793496255616932</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.001669449081802998</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -796,10 +796,10 @@
         <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0416389351378648</v>
+        <v>0.04165285878520653</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.00117332638028822</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -813,10 +813,10 @@
         <v>75</v>
       </c>
       <c r="D8" s="1">
-        <v>0.036053487387065</v>
+        <v>0.03606554331602079</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.002250574530469951</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -830,10 +830,10 @@
         <v>76</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03839229274208928</v>
+        <v>0.03840513074438236</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.008572959457045837</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -847,10 +847,10 @@
         <v>77</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03398467605360167</v>
+        <v>0.03399604019254582</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>-0.001643561526368353</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -864,10 +864,10 @@
         <v>76</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03516436421764946</v>
+        <v>0.03517612283262704</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.003412470140886414</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -881,10 +881,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03527721886158235</v>
+        <v>0.03528901521403467</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>-0.006491297692612807</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -898,10 +898,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03091045841127804</v>
+        <v>0.03092079456230267</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>-0.007986024457199981</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -915,10 +915,10 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>0.03192529308279602</v>
+        <v>0.03193596858447958</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.01321806677942772</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -932,10 +932,10 @@
         <v>72</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03223814329825554</v>
+        <v>0.03224892341395136</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>-0.00584919706476672</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -949,10 +949,10 @@
         <v>75</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02977476927296609</v>
+        <v>0.02978472566079555</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>-0.00500892394495922</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -966,10 +966,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02913792623163344</v>
+        <v>0.02914766966545986</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>0.007501103103397577</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -983,10 +983,10 @@
         <v>73</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02826708837161463</v>
+        <v>0.02827654060588913</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>-0.02263561660450608</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>75</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02388718535518142</v>
+        <v>0.02389517299328433</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.008844953173777537</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02095182178108913</v>
+        <v>0.02095882786269714</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>0.002127282396738206</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1034,10 +1034,10 @@
         <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02191737182962377</v>
+        <v>0.02192470078160112</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>-0.01564282222584323</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1051,10 +1051,10 @@
         <v>77</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0215515227877097</v>
+        <v>0.02155872940339235</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>0.008166295471417895</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02083296727001045</v>
+        <v>0.0208399336078476</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>-0.002317703690497441</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>75</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01906986345302354</v>
+        <v>0.01907624022641353</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>-0.003101309441764344</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02136295553455602</v>
+        <v>0.02137009909521758</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>0.03623013962445842</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>76</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0202058382992948</v>
+        <v>0.02021259493141788</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>0.00152710613387641</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>72</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0196778499904645</v>
+        <v>0.01968443006852854</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>0.005285013212533052</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0186713008497669</v>
+        <v>0.01867754434777141</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.008836896145430151</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>73</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02058511561529709</v>
+        <v>0.02059199907399667</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>0.0003122853038535212</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>72</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0118274523921256</v>
+        <v>0.01183140737501635</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>-0.01578616807981259</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>72</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008360957721650448</v>
+        <v>0.008363753543070229</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>0.015343083652269</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>0.007737542954406009</v>
+        <v>0.007740130312104565</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>-0.01048667011299009</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>72</v>
       </c>
       <c r="D33" s="1">
-        <v>0.008526954046017552</v>
+        <v>0.008529805374963471</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>0.01486011057128489</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>72</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007149841682077039</v>
+        <v>0.007152232518293211</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>-0.007232767232767223</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0003342783124089532</v>
+        <v>0.003767461700544983</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -254,7 +254,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -711,10 +711,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09335656915765851</v>
+        <v>0.09467611802034089</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0179552175749893</v>
+        <v>-0.009199695649166229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -728,10 +728,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07935619904212959</v>
+        <v>0.07970468861912547</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008175466397752684</v>
+        <v>-0.008966527346122244</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -745,10 +745,10 @@
         <v>73</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05252696734623594</v>
+        <v>0.05262650624364783</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005669606664236326</v>
+        <v>0.009422222703147298</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -762,10 +762,10 @@
         <v>74</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0515183668044954</v>
+        <v>0.05168034584540059</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00692340977931627</v>
+        <v>-0.01840710499928366</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -779,10 +779,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04793496255616932</v>
+        <v>0.04783477186444138</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001669449081802998</v>
+        <v>-0.01412500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -796,10 +796,10 @@
         <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04165285878520653</v>
+        <v>0.04154521119122961</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00117332638028822</v>
+        <v>-0.01725372745621456</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -813,10 +813,10 @@
         <v>75</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03606554331602079</v>
+        <v>0.03601104129037714</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002250574530469951</v>
+        <v>-0.01130667172699529</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -830,10 +830,10 @@
         <v>76</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03840513074438236</v>
+        <v>0.03858899381692864</v>
       </c>
       <c r="E9" s="1">
-        <v>0.008572959457045837</v>
+        <v>-0.001947936957676588</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -847,10 +847,10 @@
         <v>77</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03399604019254582</v>
+        <v>0.03381277726549965</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001643561526368353</v>
+        <v>-0.0008589220528236741</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -864,10 +864,10 @@
         <v>76</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03517612283262704</v>
+        <v>0.03516368247449275</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003412470140886414</v>
+        <v>-0.004153913423699307</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -881,10 +881,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03528901521403467</v>
+        <v>0.0349283524807668</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006491297692612807</v>
+        <v>-0.01380923849467908</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -898,10 +898,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03092079456230267</v>
+        <v>0.03055873149018555</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.007986024457199981</v>
+        <v>-0.02440251572327046</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -915,10 +915,10 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>0.03193596858447958</v>
+        <v>0.0322366500056448</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01321806677942772</v>
+        <v>-0.01527142327191788</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -932,10 +932,10 @@
         <v>72</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03224892341395136</v>
+        <v>0.03193996052777129</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.00584919706476672</v>
+        <v>-0.009975395806589682</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -949,10 +949,10 @@
         <v>75</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02978472566079555</v>
+        <v>0.029524304548617</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.00500892394495922</v>
+        <v>-0.0001157273463718855</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -966,10 +966,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02914766966545986</v>
+        <v>0.02925608814923424</v>
       </c>
       <c r="E17" s="1">
-        <v>0.007501103103397577</v>
+        <v>-0.000145985401459936</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -983,10 +983,10 @@
         <v>73</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02827654060588913</v>
+        <v>0.02753275507358226</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.02263561660450608</v>
+        <v>0.01265803148995581</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>75</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02389517299328433</v>
+        <v>0.0240160451491911</v>
       </c>
       <c r="E19" s="1">
-        <v>0.008844953173777537</v>
+        <v>0.001031459515213884</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02095882786269714</v>
+        <v>0.02092458065205912</v>
       </c>
       <c r="E20" s="1">
-        <v>0.002127282396738206</v>
+        <v>-0.01503626393065627</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1034,10 +1034,10 @@
         <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02192470078160112</v>
+        <v>0.02150073339531923</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01564282222584323</v>
+        <v>-0.004469458698890927</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1051,10 +1051,10 @@
         <v>77</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02155872940339235</v>
+        <v>0.02165320673063714</v>
       </c>
       <c r="E22" s="1">
-        <v>0.008166295471417895</v>
+        <v>-0.003497790868924877</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0208399336078476</v>
+        <v>0.02071359514044275</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.002317703690497441</v>
+        <v>-0.01018584703359537</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>75</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01907624022641353</v>
+        <v>0.01894570169695277</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.003101309441764344</v>
+        <v>-0.02592464569650876</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02137009909521758</v>
+        <v>0.02206122594540942</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03623013962445842</v>
+        <v>-0.005807875479149738</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>76</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02021259493141788</v>
+        <v>0.02016748149499038</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00152710613387641</v>
+        <v>-0.002541296060991183</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>72</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01968443006852854</v>
+        <v>0.01971419008541781</v>
       </c>
       <c r="E27" s="1">
-        <v>0.005285013212533052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01867754434777141</v>
+        <v>0.01877187355276681</v>
       </c>
       <c r="E28" s="1">
-        <v>0.008836896145430151</v>
+        <v>-0.005088846250104306</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>73</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02059199907399667</v>
+        <v>0.02052111712984536</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0003122853038535212</v>
+        <v>0.002934565434565384</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>72</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01183140737501635</v>
+        <v>0.01160092873487421</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01578616807981259</v>
+        <v>-0.02302207714113902</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>72</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008363753543070229</v>
+        <v>0.008460205811953255</v>
       </c>
       <c r="E31" s="1">
-        <v>0.015343083652269</v>
+        <v>-0.007000302897721467</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>0.007740130312104565</v>
+        <v>0.007630215573948216</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01048667011299009</v>
+        <v>-0.00970221658332715</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>72</v>
       </c>
       <c r="D33" s="1">
-        <v>0.008529805374963471</v>
+        <v>0.008624068378667457</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01486011057128489</v>
+        <v>0.0002971424798192679</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>72</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007152232518293211</v>
+        <v>0.007073851620239178</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.007232767232767223</v>
+        <v>-0.01062630816293664</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.003767461700544983</v>
+        <v>-0.007640608247597158</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -254,7 +254,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -711,10 +711,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09467611802034089</v>
+        <v>0.09452737317642468</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.009199695649166229</v>
+        <v>0.01305501256632224</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -728,10 +728,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07970468861912547</v>
+        <v>0.07959819295862139</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008966527346122244</v>
+        <v>0.001874414245548239</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -745,10 +745,10 @@
         <v>73</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05262650624364783</v>
+        <v>0.05353137718760893</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009422222703147298</v>
+        <v>-0.003234702163525283</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -762,10 +762,10 @@
         <v>74</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05168034584540059</v>
+        <v>0.05111964547787751</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01840710499928366</v>
+        <v>0.02331265961327977</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -779,10 +779,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04783477186444138</v>
+        <v>0.04752220425765116</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01412500000000005</v>
+        <v>0.007861037149740069</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -796,10 +796,10 @@
         <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04154521119122961</v>
+        <v>0.04114275712967917</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01725372745621456</v>
+        <v>0.03199946998807479</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -813,10 +813,10 @@
         <v>75</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03601104129037714</v>
+        <v>0.03587800605694562</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01130667172699529</v>
+        <v>0.003794664278174098</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -830,10 +830,10 @@
         <v>76</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03858899381692864</v>
+        <v>0.03881035964369895</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001947936957676588</v>
+        <v>0.003962621244381292</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -847,10 +847,10 @@
         <v>77</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03381277726549965</v>
+        <v>0.03404385044996708</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0008589220528236741</v>
+        <v>0.005086324235260564</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -864,10 +864,10 @@
         <v>76</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03516368247449275</v>
+        <v>0.03528723149382183</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.004153913423699307</v>
+        <v>0.005268935236004468</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -881,10 +881,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0349283524807668</v>
+        <v>0.03471123346785242</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01380923849467908</v>
+        <v>0.01380008679299882</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -898,10 +898,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03055873149018555</v>
+        <v>0.03004256503469617</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02440251572327046</v>
+        <v>0.03249097472924189</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -915,10 +915,10 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0322366500056448</v>
+        <v>0.03198876409330164</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01527142327191788</v>
+        <v>0.01114459722483807</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -932,10 +932,10 @@
         <v>72</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03193996052777129</v>
+        <v>0.03186481333503574</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.009975395806589682</v>
+        <v>0.007428617736837895</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -949,10 +949,10 @@
         <v>75</v>
       </c>
       <c r="D16" s="1">
-        <v>0.029524304548617</v>
+        <v>0.02974818198381467</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0001157273463718855</v>
+        <v>0.0245370370370368</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -966,10 +966,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02925608814923424</v>
+        <v>0.02947703970010802</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.000145985401459936</v>
+        <v>0.0003650167907722768</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -983,10 +983,10 @@
         <v>73</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02753275507358226</v>
+        <v>0.02809593559151339</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01265803148995581</v>
+        <v>0.006341814616810604</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>75</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0240160451491911</v>
+        <v>0.02422591747232268</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001031459515213884</v>
+        <v>-0.003434655675768394</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02092458065205912</v>
+        <v>0.02076863816277431</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01503626393065627</v>
+        <v>0.007004310344827402</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1034,10 +1034,10 @@
         <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02150073339531923</v>
+        <v>0.02156944039962642</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.004469458698890927</v>
+        <v>0.01812437645493858</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1051,10 +1051,10 @@
         <v>77</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02165320673063714</v>
+        <v>0.02174360269191207</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.003497790868924877</v>
+        <v>0.006096434509514248</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02071359514044275</v>
+        <v>0.0206604681723432</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01018584703359537</v>
+        <v>0.01083228019498095</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>75</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01894570169695277</v>
+        <v>0.01859663066260575</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02592464569650876</v>
+        <v>0.009581263307310239</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02206122594540942</v>
+        <v>0.02210196958328731</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.005807875479149738</v>
+        <v>0.02535342913891814</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>76</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02016748149499038</v>
+        <v>0.02027111359140149</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.002541296060991183</v>
+        <v>0.009171974522293125</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>72</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01971419008541781</v>
+        <v>0.019865978242625</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>0.009012392039053685</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01877187355276681</v>
+        <v>0.01882014371975652</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.005088846250104306</v>
+        <v>0.004024819721616391</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>73</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02052111712984536</v>
+        <v>0.0207398023960944</v>
       </c>
       <c r="E29" s="1">
-        <v>0.002934565434565384</v>
+        <v>0.002303430243416393</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>72</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01160092873487421</v>
+        <v>0.01142111552813209</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02302207714113902</v>
+        <v>0.007411036163344153</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>72</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008460205811953255</v>
+        <v>0.008465664635729666</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.007000302897721467</v>
+        <v>0.01748856126080311</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>0.007630215573948216</v>
+        <v>0.007614363941806266</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.00970221658332715</v>
+        <v>0.009834953651367995</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>72</v>
       </c>
       <c r="D33" s="1">
-        <v>0.008624068378667457</v>
+        <v>0.008693051154076243</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0002971424798192679</v>
+        <v>-0.002392936710949867</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>72</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007073851620239178</v>
+        <v>0.007052568606888162</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01062630816293664</v>
+        <v>-0.003010577705451656</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1266,10 +1266,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.007640608247597158</v>
+        <v>0.01001031488370274</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -254,7 +254,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -711,10 +711,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09452737317642468</v>
+        <v>0.09402055042829777</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01305501256632224</v>
+        <v>0.007889273356401327</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -728,10 +728,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07959819295862139</v>
+        <v>0.07845277281412828</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001874414245548239</v>
+        <v>0.01319774989182187</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -745,10 +745,10 @@
         <v>73</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05353137718760893</v>
+        <v>0.05259818230707788</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003234702163525283</v>
+        <v>-0.01107689825335145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -762,10 +762,10 @@
         <v>74</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05111964547787751</v>
+        <v>0.05150733457892528</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02331265961327977</v>
+        <v>-0.003213023455071462</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -779,10 +779,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04752220425765116</v>
+        <v>0.04710476254329904</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007861037149740069</v>
+        <v>0.01883381679068385</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -796,10 +796,10 @@
         <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04114275712967917</v>
+        <v>0.04246271887855422</v>
       </c>
       <c r="E7" s="1">
-        <v>0.03199946998807479</v>
+        <v>-0.01487341772151907</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -813,10 +813,10 @@
         <v>75</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03587800605694562</v>
+        <v>0.03592088581588183</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003794664278174098</v>
+        <v>0.002882445826163149</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -830,10 +830,10 @@
         <v>76</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03881035964369895</v>
+        <v>0.0383561977110586</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003962621244381292</v>
+        <v>-0.00123908425772945</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -847,10 +847,10 @@
         <v>77</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03404385044996708</v>
+        <v>0.0336766703004683</v>
       </c>
       <c r="E10" s="1">
-        <v>0.005086324235260564</v>
+        <v>0.003784362727597079</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -864,10 +864,10 @@
         <v>76</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03528723149382183</v>
+        <v>0.03530883989786882</v>
       </c>
       <c r="E11" s="1">
-        <v>0.005268935236004468</v>
+        <v>0.006009037592539235</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -881,10 +881,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03471123346785242</v>
+        <v>0.03496766708662608</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01380008679299882</v>
+        <v>-0.003029788197984162</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -898,10 +898,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>0.03004256503469617</v>
+        <v>0.0310339954943123</v>
       </c>
       <c r="E13" s="1">
-        <v>0.03249097472924189</v>
+        <v>-0.01895151365985726</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -915,10 +915,10 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>0.03198876409330164</v>
+        <v>0.03185665762954772</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01114459722483807</v>
+        <v>-0.01457698762976334</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -932,10 +932,10 @@
         <v>72</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03186481333503574</v>
+        <v>0.03187334850505628</v>
       </c>
       <c r="E15" s="1">
-        <v>0.007428617736837895</v>
+        <v>0.02170092661625289</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -949,10 +949,10 @@
         <v>75</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02974818198381467</v>
+        <v>0.03129624026713322</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0245370370370368</v>
+        <v>-0.003959214665364863</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -966,10 +966,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02947703970010802</v>
+        <v>0.02909728814292934</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0003650167907722768</v>
+        <v>-0.001239609158524058</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -983,10 +983,10 @@
         <v>73</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02809593559151339</v>
+        <v>0.02909728814292935</v>
       </c>
       <c r="E18" s="1">
-        <v>0.006341814616810604</v>
+        <v>-0.02502552136502867</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>75</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02422591747232268</v>
+        <v>0.02389822187011076</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003434655675768394</v>
+        <v>-0.007552351527634782</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02076863816277431</v>
+        <v>0.02065000775842815</v>
       </c>
       <c r="E20" s="1">
-        <v>0.007004310344827402</v>
+        <v>-0.00106856634016006</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1034,10 +1034,10 @@
         <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02156944039962642</v>
+        <v>0.02163095031479981</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01812437645493858</v>
+        <v>-0.0047408860552558</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1051,10 +1051,10 @@
         <v>77</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02174360269191207</v>
+        <v>0.02157705858964082</v>
       </c>
       <c r="E22" s="1">
-        <v>0.006096434509514248</v>
+        <v>0.009911894273127997</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0206604681723432</v>
+        <v>0.02086331148950363</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01083228019498095</v>
+        <v>0.002467830072272026</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>75</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01859663066260575</v>
+        <v>0.01853083236123128</v>
       </c>
       <c r="E24" s="1">
-        <v>0.009581263307310239</v>
+        <v>-0.007373595505617891</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02210196958328731</v>
+        <v>0.0221711405992675</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02535342913891814</v>
+        <v>-0.0001148369315573383</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>76</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02027111359140149</v>
+        <v>0.02024631488807707</v>
       </c>
       <c r="E26" s="1">
-        <v>0.009171974522293125</v>
+        <v>-0.002766599597585517</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>72</v>
       </c>
       <c r="D27" s="1">
-        <v>0.019865978242625</v>
+        <v>0.01957613380197917</v>
       </c>
       <c r="E27" s="1">
-        <v>0.009012392039053685</v>
+        <v>0.00169077587826405</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01882014371975652</v>
+        <v>0.01848599331431422</v>
       </c>
       <c r="E28" s="1">
-        <v>0.004024819721616391</v>
+        <v>-0.001346687989226436</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>73</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0207398023960944</v>
+        <v>0.02060021802809753</v>
       </c>
       <c r="E29" s="1">
-        <v>0.002303430243416393</v>
+        <v>-0.001421332344580306</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>72</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01142111552813209</v>
+        <v>0.01160581640234968</v>
       </c>
       <c r="E30" s="1">
-        <v>0.007411036163344153</v>
+        <v>-0.01279707495429616</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>72</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008465664635729666</v>
+        <v>0.008570906021742554</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01748856126080311</v>
+        <v>-0.005875169158662708</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>0.007614363941806266</v>
+        <v>0.00760014772839306</v>
       </c>
       <c r="E32" s="1">
-        <v>0.009834953651367995</v>
+        <v>0.00627198451545663</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>72</v>
       </c>
       <c r="D33" s="1">
-        <v>0.008693051154076243</v>
+        <v>0.008489714813760242</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002392936710949867</v>
+        <v>0.008013995334888335</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>72</v>
       </c>
       <c r="D34" s="1">
-        <v>0.007052568606888162</v>
+        <v>0.006871831474210263</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.003010577705451656</v>
+        <v>0.004569593676670536</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1266,10 +1266,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01001031488370274</v>
+        <v>1.753956409378254E-05</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/QE_holdings.xlsx
+++ b/QE_holdings.xlsx
@@ -254,7 +254,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -711,10 +711,10 @@
         <v>72</v>
       </c>
       <c r="D2" s="1">
-        <v>0.09402055042829777</v>
+        <v>0.09476064219138863</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007889273356401327</v>
+        <v>0.02410052183466105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -728,10 +728,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07845277281412828</v>
+        <v>0.07948677872459903</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01319774989182187</v>
+        <v>0.00544522741832143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -745,10 +745,10 @@
         <v>73</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05259818230707788</v>
+        <v>0.05201464527914646</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01107689825335145</v>
+        <v>0.001174755803076133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -762,10 +762,10 @@
         <v>74</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05150733457892528</v>
+        <v>0.0513409398071106</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003213023455071462</v>
+        <v>-0.003223380251423436</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -779,10 +779,10 @@
         <v>72</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04710476254329904</v>
+        <v>0.04799108326832729</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01883381679068385</v>
+        <v>0.01501959975242428</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -796,10 +796,10 @@
         <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04246271887855422</v>
+        <v>0.04183041943575929</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01487341772151907</v>
+        <v>-0.003405075489881004</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -813,10 +813,10 @@
         <v>75</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03592088581588183</v>
+        <v>0.03602379398163046</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002882445826163149</v>
+        <v>0.007032271490440944</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -830,10 +830,10 @@
         <v>76</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0383561977110586</v>
+        <v>0.03830799924468041</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.00123908425772945</v>
+        <v>0.006793879600637931</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -847,10 +847,10 @@
         <v>77</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0336766703004683</v>
+        <v>0.03380352213729985</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003784362727597079</v>
+        <v>0.006899985773225259</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -864,10 +864,10 @@
         <v>76</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03530883989786882</v>
+        <v>0.03552038903202399</v>
       </c>
       <c r="E11" s="1">
-        <v>0.006009037592539235</v>
+        <v>-0.009079180006689946</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -881,10 +881,10 @@
         <v>75</v>
       </c>
       <c r="D12" s="1">
-        <v>0.03496766708662608</v>
+        <v>0.03486111101288498</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.003029788197984162</v>
+        <v>-0.01266721576869545</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -898,10 +898,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0310339954943123</v>
+        <v>0.03044532030713501</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01895151365985726</v>
+        <v>-0.02508780732563975</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -915,10 +915,10 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>0.03185665762954772</v>
+        <v>0.03139173292804449</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01457698762976334</v>
+        <v>0.006844346317615546</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -932,10 +932,10 @@
         <v>72</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03187334850505628</v>
+        <v>0.03256445853557109</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02170092661625289</v>
+        <v>0.01847749602564464</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -949,10 +949,10 @@
         <v>75</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03129624026713322</v>
+        <v>0.03117178499417598</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.003959214665364863</v>
+        <v>-0.001252382248843054</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -966,10 +966,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02909728814292934</v>
+        <v>0.02906070916588813</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.001239609158524058</v>
+        <v>0.007373877491421377</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -983,10 +983,10 @@
         <v>73</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02909728814292935</v>
+        <v>0.02836861576368964</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.02502552136502867</v>
+        <v>-0.02267627965417174</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>75</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02389822187011076</v>
+        <v>0.02371731810624121</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.007552351527634782</v>
+        <v>-0.0008647526807331607</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02065000775842815</v>
+        <v>0.02062758005645095</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.00106856634016006</v>
+        <v>0.004100552683187653</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1034,10 +1034,10 @@
         <v>78</v>
       </c>
       <c r="D21" s="1">
-        <v>0.02163095031479981</v>
+        <v>0.02152802285195382</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0047408860552558</v>
+        <v>-0.02217477003942181</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1051,10 +1051,10 @@
         <v>77</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02157705858964082</v>
+        <v>0.02179054591642969</v>
       </c>
       <c r="E22" s="1">
-        <v>0.009911894273127997</v>
+        <v>0.02253725917848048</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1068,10 +1068,10 @@
         <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02086331148950363</v>
+        <v>0.02091443176698815</v>
       </c>
       <c r="E23" s="1">
-        <v>0.002467830072272026</v>
+        <v>-0.006154387198874511</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>75</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01853083236123128</v>
+        <v>0.01839387087853994</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.007373595505617891</v>
+        <v>-0.0003537318712416582</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1102,10 +1102,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0221711405992675</v>
+        <v>0.02216820571284701</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0001148369315573383</v>
+        <v>0.01389686459170791</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>76</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02024631488807707</v>
+        <v>0.02018994731858008</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.002766599597585517</v>
+        <v>0.007566204287515976</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1136,10 +1136,10 @@
         <v>72</v>
       </c>
       <c r="D27" s="1">
-        <v>0.01957613380197917</v>
+        <v>0.01960888872544062</v>
       </c>
       <c r="E27" s="1">
-        <v>0.00169077587826405</v>
+        <v>0.01444111027756945</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1153,10 +1153,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01848599331431422</v>
+        <v>0.01846077465520863</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.001346687989226436</v>
+        <v>-0.01247366203118416</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>73</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02060021802809753</v>
+        <v>0.02057057747294676</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.001421332344580306</v>
+        <v>-0.0003094250881862104</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1187,10 +1187,10 @@
         <v>72</v>
       </c>
       <c r="D30" s="1">
-        <v>0.01160581640234968</v>
+        <v>0.01145709494749185</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01279707495429616</v>
+        <v>-0.02017283950617288</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>72</v>
       </c>
       <c r="D31" s="1">
-        <v>0.008570906021742554</v>
+        <v>0.008520401054901408</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.005875169158662708</v>
+        <v>-0.001460871874896186</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="D32" s="1">
-        <v>0.00760014772839306</v>
+        <v>0.007647681600259127</v>
       </c>
       <c r="E32" s="1">
-        <v>0.00627198451545663</v>
+        <v>0.01344603092402186</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>72</v>
       </c>
       <c r="D33" s="1">
-        <v>0.008489714813760242</v>
+        <v>0.008557601252076597</v>
       </c>
       <c r="E33" s="1">
-        <v>0.008013995334888335</v>
+        <v>0.006313945224045936</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>72</v>
       </c>
       <c r="D34" s="1">
-        <v>0.006871831474210263</v>
+        <v>0.006903111874288794</v>
       </c>
       <c r="E34" s="1">
-        <v>0.004569593676670536</v>
+        <v>-0.006515859355790576</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>1.753956409378254E-05</v>
+        <v>0.00307630071620979</v>
       </c>
     </row>
     <row r="38" spans="1:5">
